--- a/bid_requests_calendar_new.xlsx
+++ b/bid_requests_calendar_new.xlsx
@@ -585,7 +585,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&amp;None</t>
+          <t>&amp;BidScope Summary - 09/28/24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -614,7 +614,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&amp;None</t>
+          <t>**&amp;BidScope Summary - 09/28/24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>451 Zone Control Valve Facility</t>
+          <t>451 Zone Control Valve Facility &amp; Vault</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -705,7 +705,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>451 Zone Control Valve Facility</t>
+          <t>451 Zone Control Valve Facility &amp; Vault</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Foushee</t>
+          <t>Foushee sent your company a</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -997,7 +997,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bank of America Madison</t>
+          <t>Bank of America Madison Park Branch TI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Island Pacific Market #21</t>
+          <t>Island Pacific Market #21 - RFP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Island Pacific Market #21</t>
+          <t>Island Pacific Market #21 - RFP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Island Pacific Market #21</t>
+          <t>Island Pacific Market #21 - RFP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Island Pacific Market #21</t>
+          <t>Island Pacific Market #21 - RFP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Google KUN Expansion</t>
+          <t>Google KUN Expansion - Floors 6-7 - Structural Upgrades</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Foushee</t>
+          <t>Foushee has invited you</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1314,10 +1314,14 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Google KUN Expansion</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Google KUN Expansion - Floors 6-7 - Structural Upgrades</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Foushee has invited you</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">	
@@ -1358,7 +1362,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lake House Condos</t>
+          <t>Interior Finishes Upgrades</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1420,7 +1424,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Seattle Public Library University District</t>
+          <t>Complete remodel, seismic upgrade, new elevator</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1481,10 +1485,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Comprehensive Life Resources</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>Comprehensive Life Resources - L2 TI</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>JTM Construction</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
@@ -1541,7 +1549,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>&amp;None</t>
+          <t>MANGO at Bellevue Square</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1658,10 +1666,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>&amp;Insomnia Cookies - Seattle, WA #</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Commercial 	
+Square</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
@@ -1718,10 +1731,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>**&amp;Insomnia Cookies - Seattle, WA #</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Commercial 	
+Square</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
@@ -1783,7 +1801,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>JTM</t>
+          <t>JTM Construction</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1840,7 +1858,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>JTM</t>
+          <t>JTM Construction</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1887,7 +1905,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>JTM</t>
+          <t>JTM Construction</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1931,7 +1949,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>JTM</t>
+          <t>JTM Construction</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1974,7 +1992,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lake House Condos</t>
+          <t>Lake House Condos - Interior Remodel</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2027,7 +2045,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HITT</t>
+          <t>HITT Contracting Inc.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2087,7 +2105,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HITT</t>
+          <t>HITT Contracting Inc.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2147,7 +2165,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HITT</t>
+          <t>HITT Contracting Inc.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2207,7 +2225,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>American Capital</t>
+          <t>American Capital Group</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2804,7 +2822,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>&amp;None</t>
+          <t>THE OLD ONE AND ADD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2865,7 +2883,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>&amp;None</t>
+          <t>THE OLD ONE AND ADD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2926,12 +2944,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Google KUN Expansion</t>
+          <t>Levels 5-7 to convert</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Foushee</t>
+          <t>Foushee sent your company a</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2986,12 +3004,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Google KUN Expansion</t>
+          <t>Levels 5-7 to convert</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Foushee</t>
+          <t>Foushee sent your company a</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3160,12 +3178,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>&amp;None</t>
+          <t>2333 SNBL Office</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Foushee</t>
+          <t>Foushee sent your company a</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">

--- a/bid_requests_calendar_new.xlsx
+++ b/bid_requests_calendar_new.xlsx
@@ -463,25 +463,262 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t xml:space="preserve">It’s Your Last Chance to Score Free Prizes </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10/30/2024?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&amp;None</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You have one extra day - that’s today! - to grab our biggest giveaways, free upgrades and league-leading offers
+ &lt;https://email.planhub.com/hs-fs/hubfs/Email%20%233-1.png?width=1200&amp;upscale=true&amp;name=Email%20%233-1.png&gt; 	
+ Our “Play to Score” Celebration is in Overtime!
+ &lt;https://email.planhub.com/e3t/Ctc/U+113/cRT9r04/VWrJ5q7Hsy8xN3CJ6Lb9ZL4wW3V7XmG5lBB7TN9fbG9d4Zwp2W6N1X8z6lZ3p0W4wCWRf96y2MMVC8WsM3K4-GXW6CrsCl78wmTJW4l86mB2HRBCxW3S3gpT6YwsgPW6XYV2H8wmbGVW7Rdgnt53gSNfVH8h-M6MDfzzW7rTjcf6kn1ZNN5-hY4kqc3YwW8c0WmN7vMQYxW3N28fb3jP4K0W7T7t4_8FLTYDW6sK5d_2928WxN1FGTfkm2blCW7Cl8RB5RTMcLW3FS29Q8NhrRBW2mXnVZ1PcZmrW2j8QHB62D6nDVh1b6n5DVpcwW7fsZdj6mLcQrW8LHzXr14lgS_W9grtH72dtMnxW14XVPm7q9YwYW6FLDgQ1xFWnFW3YGD6M1z2t1mW6bGn7c5y56vsW9g6XcF6wnG0WW4KXnd45M-vd-W2nHG_j4JXRqzW2t9Q1q2484RKN4_YRfXHMg48W8QpJF984NKy9W1C_nqs4bH7FnW7VDh897vDQhcW4DlFCz5QVWJ7W7SJ6JN2SyMWLW6zDPTK2qv6Bzf1TKB-x04&gt; 
+Call now at 1-(561) 609-0857 or respond to this email &lt;mailto:connect@planhub.com&gt;  here for a  chance to win!
+This offer ends today, September 30th, 2024
+Ready to kick off your biggest winning streak ever with PlanHub?
+Call for a chance to win 1 of 10 amazing prizes!
+ &lt;https://email.planhub.com/hs-fs/hubfs/SC%20Fall%20Football%20Promotion%20Email%20Banners%20by%20Jesel%20Silva%20(2).png?width=1120&amp;upscale=true&amp;name=SC%20Fall%20Football%20Promotion%20Email%20Banners%20by%20Jesel%20Silva%20(2).png&gt; 	
+Call today and be entered to win one of many fabulous prizes, such as (2) football season tickets  (up to $1000), a football-branded Yeti Cooler (valued at approx. $400), or a $700 NFL Shop e-gift card!
+Due to popular demand, we’ve extended our season-leading “Spin to Score” Celebration through today, which means you STILL have a chance to win big (but only if you play now!)
+*	Connect with us and qualify to win big league prizes, plus:
+*	Free upgrades to your PlanHub membership
+*	Exclusive limited-time offers on PlanHub subscriptions and tools.ools
+PlanHub’s Fall Football Promotion
+Existing customers can enjoy discounts on renewals for all Premier and Pro plans, as well as standalone products. This promotion is valid until September 30th, 2024, and excludes 25-mile plans. The offer is exclusively available to current members who renew during the promotional period. All participants who inquire about this promotion via call or email will automatically be entered for a chance to win exciting prizes, including two football season tickets (up to $1000), a football-branded Yeti Cooler (valued at approximately $400), or a $700 NFL Shop e-gift card. Winners will be announced via email, and e-gift cards will be sent to the winners by 10/30/2024. This offer cannot be combined with other promotions. No purchase is necessary to enter or win.
+©2024 PlanHub, Inc. All rights reserved, 1665 Palm Beach Lakes Blvd., Suite 300, West Palm Beach, Florida 33401, USA, (866) 752-6482 
+Unsubscribe &lt;https://email.planhub.com/hs/preferences-center/en/direct?data=W2nXS-N30h-RKW3DShDm3_TYbbW4rlm631YZ2j2W4pxZCm3P51STW4hFzwQ2HpzpkW3b22BP36B9nXW2YGx9-236qyvW3bv7LY3d8vMvW3g7vcK2Yv09mW30BqNT36pf86W3JWbz834Dr8fW2nH7Wk2KBly2W3LSXt43z24N3W345xS22Pl2pwW2WdR6x4cywlLW2nGG1w1QDL9TW2r7K2x45q_YMW2HPTzR3j6XMCW1SqgNg4rq4fpW2vxT1K4twC5WW30BSqV2KNnN0W1Lk09p2YpqVBW4hwn2f4cH6FrW25lL694pJHwQW1VqX7_4rpBjkW3bw0Kb2vzwSCW3XL4Pk3zhNTRW2xwnnH4fNLgbW4hpBNQ4fFg_TW3MbGVf2qNm4JW45PH1S1Bgx7JW43zgRt1BDGmTW3b9YQk2MQBV3W34fWZy1_88qZW45kfNF3P1Lc6W4fH0T43P9dghW2-fHgT2TJDbSW3KcK913BMtTzW4txTMB1_tcr6W2xWf1C3grGXSW3LPxlm3GKtkRW4kvn7C2zsj_NW3_JrnZ24_5XBW32xfX04rF3h2W2Tgkdh4ttC_L0&amp;_hsenc=p2ANqtz-8khqzj29vbEEp3Jd5ddJZxkDdcBcrx_FIFMAKqK6I3jdZpiTbm2QjFdx-7C9NNyFncCFcmpekzRSBDC5Yyz0ekd8i02Q&amp;_hsmi=326476796&gt;  Manage preferences &lt;https://email.planhub.com/hs/preferences-center/en/page?data=W2nXS-N30h-RKW3DShDm3_TYbbW4rlm631YZ2j2W4pxZCm3P51STW4hFzwQ2HpzpkW3b22BP36B9nXW2YGx9-236qyvW3bv7LY3d8vMvW3g7vcK2Yv09mW30BqNT36pf86W3JWbz834Dr8fW2nH7Wk2KBly2W3LSXt43z24N3W345xS22Pl2pwW2WdR6x4cywlLW2nGG1w1QDL9TW2r7K2x45q_YMW2HPTzR3j6XMCW1SqgNg4rq4fpW2vxT1K4twC5WW30BSqV2KNnN0W1Lk09p2YpqVBW4hwn2f4cH6FrW25lL694pJHwQW1VqX7_4rpBjkW3bw0Kb2vzwSCW3XL4Pk3zhNTRW2xwnnH4fNLgbW4hpBNQ4fFg_TW3MbGVf2qNm4JW45PH1S1Bgx7JW43zgRt1BDGmTW3b9YQk2MQBV3W34fWZy1_88qZW45kfNF3P1Lc6W4fH0T43P9dghW2-fHgT2TJDbSW3KcK913BMtTzW4txTMB1_tcr6W2xWf1C3grGXSW3LPxlm3GKtkRW4kvn7C2zsj_NW3_JrnZ24_5XBW32xfX04rF3h2W2Tgkdh4ttC_L0&amp;_hsenc=p2ANqtz-8khqzj29vbEEp3Jd5ddJZxkDdcBcrx_FIFMAKqK6I3jdZpiTbm2QjFdx-7C9NNyFncCFcmpekzRSBDC5Yyz0ekd8i02Q&amp;_hsmi=326476796&gt;  
+ &lt;https://email.planhub.com/e3t/Cto/U+113/cRT9r04/VWrJ5q7Hsy8xN3CJ6Lb9ZL4wW3V7XmG5lBB7TW9fbFYk3CwPpX132&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pet Supplies Plus - Burlington, WA - Only 3 day(s) left to submit bid</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10/03/2024?</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&amp;Pet Supplies Plus - Burlington</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;https://ci6.googleusercontent.com/proxy/EBZkkY9rjLEjQ4y7kyn1ShiRvHsc73jmeWNt8OwVkTEAjufxoSOFf8_I3B5Nb1ZxnfbVdKdVnihonwrdfs3hXbq08EV9JEWe9C-oAH732ZDr0Ya1NZ2kxsykYTtCPZSw5axMbBsLRKB5pXIq73-hkg=s0-d-e1-ft#https://global-uploads.webflow.com/5e189e40d27bcf770302f033/5e189e40d27bcf02b902f046_logo.png&gt; 	
+Project Due Date Reminder
+Hello Rachel Petrinovich,
+Don’t miss the opportunity to bid on this project. Only 3 days are left until the bid due date. Log in to PlanHub to submit your bid.
+Project:
+Pet Supplies Plus - Burlington, WA
+199 Cascade Mall Drive. Space No. D01A 
+Burlington, Washington
+Bid Due Date: 10/03/2024 08:00 PM EST
+________________________________
+Submit Your Bid 
+Regards,
+Ryan Orr
+Engelke Construction Solutions LLC
+Stop what you are doing right now and check out how to build faster, more accurate bids in 50% of the time with PlanHub’s Takeoff! 	
+ &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p7Iiz7aRaXXyngx4mkkK6PIO4UfQ6O0mLOWH-2Fgwa0Th7PobzIB4XQBXj9TvKM54IeZiRjvKpv-2B8KhFnrINNe0vZAKEMjNnfENQ-2FqaQCnQaV8GlnQg7yiYvAHRBKX-2BCs99Z9eAcmtFbfiHHpGDsN4Z2Uy0Evc7hxD2g7UtoBLBXQQckH1PvAfR292wcaYtLXAv2C1-2FkpN3bhnJcVZDNfiVD7zdibTgI-2FWcxyjeuIQePwFS9lx_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxmFp6STVXvfBEewwAtR5q6412GOEAqLORYsI5EvFNi2VGoR59exDTi8r3RfoJ-2B4j8GSHO5lBwq75HqNQ3R4TduYFAJKIVzqoXNoS-2BH8CqGkT0PXQcXYJojWJJM6FTQimiuweGDpM7eJv7-2BeP7oN-2Bva-2BtAPwksYtBOQgc0BQIlRok-3D&gt; 	
+Take a 2 minute tour and see why you can Build faster, more accurate takeoffs twice as fast with takeoff by PlanHub 	
+Learn More &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p7Iiz7aRaXXyngx4mkkK6PIO4UfQ6O0mLOWH-2Fgwa0Th7PobzIB4XQBXj9TvKM54IeZiRjvKpv-2B8KhFnrINNe0vZAKEMjNnfENQ-2FqaQCnQaV8GlnQg7yiYvAHRBKX-2BCs99Z9eAcmtFbfiHHpGDsN4Z2Uy0Evc7hxD2g7UtoBLBXQQckH1PvAfR292wcaYtLXAv2C1-2FkpN3bhnJcVZDNfiVD7zdibTgI-2FWcxyjeuIQePwFmpr8_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxMsPhWDVlbye-2BAJ24pSbr-2FT8iDx0PAu16TsMcO-2Faf90X6UqOFrWFeU5GigE-2BLtANnIsRRxHr-2FhD-2F2P9elJSD5k0Chk7NWQVErO-2FUL4aT3yjiR1VDy7OoJFEaTbcoIFDykkvanUSMSICuy5bAE6uR4XYzfukpool4nFAAB88aVy-2BU-3D&gt;  	
+ &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p1ZfAhjvvJyrkPy7jnq6BQeLrIfiI8-2Bj-2B-2F8MsiQBeDlgC7_G_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2Bxz0gqK0UKMfrSH0u3IYNzz2Vz-2FvOKM1UrVYvRTxG11sUsEM6VyWrSYjqnFyew7-2Bq4sPYmpfeUgwYF-2BgvIzLDFzRUx3-2FNMx8z4-2BhkzBTPZLgIrMEtAYMKdAc20B9JC3d8ac1ga4-2BavtAAY8fSTeZmt9shh66110S8cymSOerVs5Ys-3D&gt;   &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p6hrq99DZKb4-2BV9-2BtVlf4dS0rRRuhoDDVLHkwaZHJmISx65Q_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxHINB5jTx8NHqmBm5wsLmS40F27-2BWu8xLPDosrWmJEPvT8Xs7qhm6y5-2BZs28xxIwMjpcoCbqAY7VTWCToZv8M2sAAvsDIzsBFMdVGlXMz0SNdaQfltmc3-2FT0xoaVISd5-2BaHDB4mnIwXnF5scvbMPrSZnMHJrEUYAKfrkhPplKf60-3D&gt;   &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pzl9WH8QNjoK5mYdtxixSTI5szaRL7-2FP1OzOieIQnxTDyvxV_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxEQLMQT8qlTzGelvHd43GmKAdq1spHPKgyYmUJAIh90dI1p579v-2FreKW8PYAAhD1ZDnNy9Q-2FYSChRc2Z-2F7PSabr8DBlEqoQOTASD2jg386IUr1KlBsGZPO8K1YqQPTo88KBWpsmk8MNATjyIvviECPLk2wvmTNz4Q0LON1khdr-2FM-3D&gt;   &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p1p5FEhllBHGvI5rdkQL60w3fLkENtWLlRwGEZTLosFR6G2AXcmwqQ0r53vcHZGI0g-3D-3DZAUq_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2Bxr-2BpnV8UYT8EGz6G4Nm3dgjJ-2FOu3UTXN5PxKRPxS6rV5-2BD1SWe95dL5wqV91G2xWxK6dqvHX6OZP3GPWMqMq1MzFoS1RvhCx4KtRSBnhwBLSgqsdjwxsEgJb2GEkVyuhR0e-2BspYxfFgduLNSW4IWWWokdh7-2Bn-2FakhCnbSXH2IUc0-3D&gt;   &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p5CA8puonl-2Fk4QvqaUXwMI9xDdAS5cfflPxw3x86or9VwbK1LiJPLOVp8Sgxy-2BW-2BDkXHGebKZbeCoAi8DfOoRKs-3DzRNk_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxEHvFrMgbmjG3QVDTzEFNjrm0e-2BftrLvseCnMs48GdnTJlyef65tbRmrd6B7KUlJgRRjgMbu91J5lSQYhhLlKobHkuYvnvXlyQmTubh9TibnxN3cgqdDIEo9UmSy8llP16anDVDilTll7yPGEjbyzVLuiiBftHqUk3SD9W3uszEA-3D&gt;  
+Contact Us &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p0vm-2BIWi-2Bo8vFxZzak0FX2yie5MmMx3Ga1m2WT54tB4MSdZqn1-2BS4Ure8LBF4gSN5mAW0BMWvs95OMepSEEBx0uf1g81FTE1zikJm2JfmCa280Ou6Qs43XuD9fUfrqlKPK22BQtu3tZFbwoKJYM6nFsl7MvutVvMwVxvM7fMOo3GpKwX_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxAXw2Vk-2B8kaArLu0S8pQJt5uF3S3uOxs7anVRcAbl2xe01S1Ert-2FNKV4e4z-2BW9Y4BbT2n2uRixuuK9TZD9VRLlRhk7D0WWU1j5g4EELXD43oicQGSmw6nhKJxQE36s62L-2BPA1MfXswKKLJYOoujyIktglzjY-2FwzfSyzmDCrWfLww-3D&gt;  | Terms &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3uuxrZE0ZtnKIGCyhoEcMZyqFeLazLozj7Wv4XbJx00JUr5z9FurVVahcR1S3FwhyYRG9L1Pijg-2FX9JRyRjTDidWIe-2BYvKRQbv2ER1aXHPId16QfrXP8nHseizGhEtNhSHYw-2BtCw3qWVx6z7FrzbIh0zk7oymJcdYVmIsordHlJ30Cd_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxZV8XBMyAQwSL55OC12xE3SCuV79vjItVCF9jalNXmwg-2FpnxNDbQ0PITSUNMy3HPB1lS2XvM9usuH-2F5mJaVv-2FeFZfbhdEAysa9Ym4PZSmlRgvLVrAJJoZjnzuUTblMd8Xqk34bEqch-2FwxIg0Yto2hPR0CdvKNZ7kNZiz2WC-2FTzPU-3D&gt;  | Privacy &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p48XXYqYar63LVKurTqlc8wf4qgE1M1Xn7DsXP-2BHFUHUjOcqpG-2BdiwXPdI6mDPS38AYg-2FFHOvgwinp-2FHyFi-2FqZmHPXd0QQY2TPTzBCYaFfH7K9jFcyIBY-2BPN0DwGBdDCdhY6CWgC-2BdQVp0P1TijCiK1-2BzVSnRXwqdI-2FvL3hSYMEvah77SF7Vk-2BuXVqPe9sxeJw-3D-3DWRsN_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxGcpO8k0J29J9I514PCM56wtDV4UzcTtG6lmG6XBPV7o0nFC7Cq7HgXeb5CXzgPhqCiSWa7V7YRCD0TBS9-2FYWoOV-2Biz-2FaNb5WULPX-2BejNqUPajf5M-2B0aTRF9hjay-2FOrVzaHZRzWzIuZk3L00CRYGdlJ6Q1HAEZ8lroL4ABpNf1uc-3D&gt;  | Unsubscribe &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3EbOPT-2Fm2itk8QE4S6ZSZJFHkH7rYLs96zg3w4z2T3USx1Q6MTbcTjXt49dRKCFywbRLDV28h-2Fi9CdH3HYkhlR24n-2Bgu7rT4Esp57BTAcjOr1FYu-2BaePep7HRSoNrWMfE4cVrGpqqd3oKW0TXOQHS4r5doCoRTSTh4Wx-2BG1ETZLlJbfM74wxMh0DCK-2BVWtg0giql1U3AsukjmLrFUrWTZVESSNGlcPMW6CyfYVSphrGy4X9_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxNKYlKmgxZdv0pOyfQDAr38UtJrhIhxmUWNyHLBRokWwd7duPnDxmgkBp3h7bepAhBHD4B-2B-2BG28FyYnC2EdDiwvU-2FVICZgYng-2FI3XtO3LDqPocXtbOOkmsSK0UhmTNnDmhajfJmq7273fG-2FGPvxbnpu4hlqrkSR2jRTBdT5-2F3eeM-3D&gt;  
+© 2024 PlanHub, Inc. All rights reserved. Manage notification settings &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p4-2FOcBPYwCpC3JkivhPN4Kc1wCKLXLYmVJpgl5fTxH2JKsnvrugrFlxzbmuiHDVUiS-2BQkzvi13rz-2BIJt0Ln7lBIBFQ-2BlA5DL-2FeA49Ze4UIAqf8ti1gbWfqenHMKExhxjFUcYgr2XwzGhNGp3gSzWiq4SDd-2FbzRAp9eoP3xKuS4Sv93AXV3WeytG-2B4uIORGzN-2FkaU2udT-2FRdbEd11A-2F3Z5SbWtg13CruvUZLjafNOIGMNx3Ov_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4SY3IOqQs2iCsSj-2Fu0snODweL5NZHjGqEHhzFsXQEu6vK8GX9aw661FVrkStBjGcC3DXux3ZQ4c6ktE-2F7xYODRFBUknKzSXf9tsDH8X47c7Pi-2BGsgBpDRrZJQ-2FErh-2BG8oh1WGJ4cbOZKHpkH-2BqqtBkQ4wtQTxy96eIFuYI3BVwxIg1BUUeVrMVasshpF-2F0R-2BxRslAf8F94fLFI1xsjhZkUPL9LsvNce-2BJbEaGTGxibvYwN4k2XR-2FSN6ZPwQc07gLTzCEBREJduzF6VxXJMx3cwMxE2rKm0ihOt4vV1aRrdPYv4KxAETwgcKF7jWbShW5fe5FXZRW-2FyCbmbvsWttlggZQ892MF-2BcNgEjsyu0mn1NU-3D&gt; 
+ &lt;https://itb.planhub.com/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjC-2FZ-2Fxyl34uQHpUdO8De-2FtSpWCXdgklctkx00xiYCk8JC3zLAcId5HcMNmuNDCJUdVI2euAO02qmKnU13Bl6PBPszNwdtLQDdnMeKTKqNGS4TnTOT30et64wln910k-2FgoV3Ub0cE-2B8Wciq8Xuiu-2BgCGTbxNsleExQrmbqO0CVhAqKGpkKvumZOqEqVBWdSlA7bpTEjJGxTiFEdgCXG5espg7CpwdieOYHTnMwW1OEMmSrK3Z187Sx7gUi0QZr7GGtAjoIqMq1kMsIzEURP40xUPNXbiC8-2FcbMrkivbYoVPTXziqoDElFk5HaRMUXdfMkESgXNUAVRh9i9vZP2hlC9hxdaZQaLj1WiPO1zwFSF4smgrwk5ndMlt-2FUThOtm4CJw-3D&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FW: Revised Bid Date - Emerald City Market SEA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>September 29, 2024?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Emerald City Market SEA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+________________________________
+From: Ross McKenzie (JTM Construction Inc.) &lt;team@buildingconnected.com&gt;
+Sent: Sunday, September 29, 2024 8:36:26 PM (UTC-08:00) Pacific Time (US &amp; Canada)
+To: Heather Mehrer &lt;heather@mehrer.com&gt;
+Subject: Revised Bid Date - Emerald City Market SEA
+ &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
+Ross McKenzie of JTM Construction, Inc. sent your company a message about
+Emerald City Market SEA: Acoustical Ceilings
+Revised Bid Date
+Project Looks simpler than i first expected.
+I want your bids, but have revised the bid date to this Friday, October 4 instead of the 8th. If that's an issue, let me know.
+024119 Selective Demolition 
+055000 Metal Fabrications 
+061053 Miscellaneous Rough Carpentry 
+064023 Interior Architectural Woodwork 
+078100 Applied Fireproofing 
+078413 Penetration Firestopping 
+079200 Joint Sealants 
+081113 Hollow Metal Doors and Frames 
+083500 Special Doors 
+092900 Gypsum Board 
+093000 Tiling 
+096500 Resilient Flooring 
+097200 Wallcovering 
+099123 Interior Painting 
+101400 Signage 
+104416 Fire Extinguishers 
+113000 Audio / Visual Equipment 
+114500 Appliances 
+FIRE PROTECTION 
+MECHANICAL 
+ELECTRICAL 
+FIRE ALARM 
+Thanks,
+Ross
+Reply to Ross &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b6747a419241002ed7jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66f31750aaef0a006b9b73d5/bid&gt; 	 
+Already know if your company will bid on this RFP? Let Ross McKenzie know.
+Bidding &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b6747a919241002ee1jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b6747a919241002ee1jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b6747a919241002ee1jmn?state=UNDECIDED&gt; 	 
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 17801 International Boulevard, SeaTac, WA 98158, United States of America
+Bid Due: October 4, 2024
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b6747a419241002ed7jmr&gt; 	 
+Sender Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Ross McKenzie
+Director Special Projects • +1 206-587-4000 • +1 206-510-0468 • rmckenzie@jtmconstruction.com
+ &lt;https://bc-prod.imgix.net/avatars/580912d6d5ee5b0a00c18a98/7cafb3a6-ad09-4d1f-a074-803e9130b7df_JTM Logo.pdf?auto=format&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		JTM Construction, Inc.
+5900 Airport Way South, 110, Seattle, WA 98108, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.DsmbdZLVytuZkkpEIK2stQ.OcjghIrB2dB_S52LsldBZ13VF5hMzObjJ27n6gVKlPaY24FPAINUSYzuMFSkZjiXO43pOcwm6Dja1KHavtM2boiTW2V1oLlx-8WyJw-kNfMVFOLLfJ-pM3rBnmDjsyTGjuXCgIijtd0-8kfT2F6Jb5fsMZAK_pGnjKm_vR80rCIKIiCGAFFyZcy7PESnEobeWg9kkd67GfgjMz2b6WRynUJo-PJeBRxH8_xHI9O7iJ-D0EP7R68XlpC9VVJVICh_8NJR-RstwWh_vIH1dQFashzmTjspDwwYi_gx0TUkhR_FjPtPyb1pZxS0rq8TJ0h3jtn6IcKvP-8MvJZn8f-bLYgFtZy1Oug-pklIn1Zi3LOISj3gv3VY2Y49JsoSI9EYkmuiVnb_jPFHFhJkKgG6rEpwt_iKJ6WzQhFgs_eS-AlEIQ9kuR-h-gNJQYy0GNVDHbLxtceAfQvMEhswJbM-5_nWNpmpa8vC4T_8oOqsoyxtu1HD_YYx3xnP7YynKzVe91VDbgJ76BFqIFj6t3EQiSs1P7ZK8_QA6ea1yso0VuA&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Revised Bid Date - Emerald City Market SEA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>October 4, 2024?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Emerald City Market SEA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Ross McKenzie of JTM Construction, Inc. sent your company a message about
+Emerald City Market SEA: Acoustical Ceilings
+Revised Bid Date
+Project Looks simpler than i first expected.
+I want your bids, but have revised the bid date to this Friday, October 4 instead of the 8th. If that's an issue, let me know.
+024119 Selective Demolition 
+055000 Metal Fabrications 
+061053 Miscellaneous Rough Carpentry 
+064023 Interior Architectural Woodwork 
+078100 Applied Fireproofing 
+078413 Penetration Firestopping 
+079200 Joint Sealants 
+081113 Hollow Metal Doors and Frames 
+083500 Special Doors 
+092900 Gypsum Board 
+093000 Tiling 
+096500 Resilient Flooring 
+097200 Wallcovering 
+099123 Interior Painting 
+101400 Signage 
+104416 Fire Extinguishers 
+113000 Audio / Visual Equipment 
+114500 Appliances 
+FIRE PROTECTION 
+MECHANICAL 
+ELECTRICAL 
+FIRE ALARM 
+Thanks,
+Ross
+Reply to Ross &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b67479f19241002ed1jmr&gt; 	
+Already know if your company will bid on this RFP? Let Ross McKenzie know.
+Bidding &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b6747a619241002edbjmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b6747a619241002edbjmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b6747a619241002edbjmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 17801 International Boulevard, SeaTac, WA 98158, United States of America
+Bid Due: October 4, 2024
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66fa1cb80895e0003b67479f19241002ed1jmr&gt; 	
+Sender Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Ross McKenzie
+Director Special Projects • +1 206-587-4000 • +1 206-510-0468 • rmckenzie@jtmconstruction.com
+ &lt;https://bc-prod.imgix.net/avatars/580912d6d5ee5b0a00c18a98/7cafb3a6-ad09-4d1f-a074-803e9130b7df_JTM Logo.pdf?auto=format&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		JTM Construction, Inc.
+5900 Airport Way South, 110, Seattle, WA 98108, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.kFodoS7s5F25v8LY0UbI9A.d4nTnhTRf3jbhbMW48kHE1vVrOsC6dnGfvvZgCn9rsMloOgkIy2Ak6RYNXX4lor5b1WZlPSVb15UZaW-i-gRcC8Phu6qM5nZnTPoQDFpUhnVtpeSfJ9Amzj8GJcUkEMlpmeYwZ2ENPCdvJBt_zHmlGoZD1qZFRMSakp9gCWPu_C1xfQghY_gBHkPc0J32kbuHqJ_8oe3kR2jlKh3l8hQlcbAdN9JI6XgtlJ8ZsoS6szdy5hkJqxhU47pPD9WiYZDiJfSML31v5uXqmtSfSwWbBhVoYTCgiX2-DYHH73AHT4vBYlRlfVg52lYpgMQ-mP8MpEQYGP1mDoRvb0MzUCSZQegCPjcI8853U2nCJe1YVPeC7dLkUwQ_XKWp3bI9hjNVMdJ8yDQ9HHrbXX030LiMq-aNbDHaUtZb3UXwKja0Lnf_aHWnMp1pB9aGYhhkDP5kkePTmKvkbvUcyLKtEx3NeaCO2eWZo0Hr-ZHJE6XbL7eOk0Z08QSGk9aA-F-klQt0AB_Cbm9Wiy7seEpTrCLq69WwLoNW4cwzLZUWXf38-A&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>FW: ** Addendum 5 Issued ** - Sno-Isl Lake Stevens Library</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>September 28, 2024?</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Sno-Isl Lake Stevens Library</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Swinerton Builders</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -521,28 +758,83 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>** Addendum 5 Issued ** - Sno-Isl Lake Stevens Library</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>October 4, 2024?</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Sno-Isl Lake Stevens Library</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Swinerton Builders</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Merci Keathley of Swinerton Builders sent your company a message about
+Sno-Isl Lake Stevens Library: Painting
+** Addendum 5 Issued **
+All,
+Please see attached addendum 5, also available in the files tab.
+Thank you,
+Swinerton Project Team
+Attachments:
+A.1 Addendum 5 Lake Stevens Library Project.pdf &lt;https://app.buildingconnected.com/goto/66f8b9b983654f004122d4831923b957dd3jmr&gt; 
+Reply to Merci &lt;https://app.buildingconnected.com/goto/66f8b9b983654f004122d4831923b957dd3jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66d78abb17ced3a85e552ab3/bid&gt; 	
+Already know if your company will bid on this RFP? Let Merci Keathley know.
+Bidding &lt;https://app.buildingconnected.com/goto/66f8b9b983654f004122d4881923b957dddjmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66f8b9b983654f004122d4881923b957dddjmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66f8b9b983654f004122d4881923b957dddjmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 128 99th Avenue Northeast, Lake Stevens, WA 98258, United States of America
+Bid Due: October 4, 2024
+Prevailing Wage Rates
+Apprentice Requirements 
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66f8b9b983654f004122d4831923b957dd3jmr&gt; 	
+Sender Details
+ &lt;https://bc-prod.imgix.net/avatars/64527c8efc18f40035b2302a/b8c62b6f-a0ae-482e-8772-bccd1502f781_Profile Pic.jpg?format=auto&amp;rect=76,146,716,716&amp;h=36&amp;w=36&gt; 		Merci Keathley
+Sr. Estimator • +1 206-530-3466 • +1 206-530-3466 • merci.keathley@swinerton.com
+ &lt;https://bc-prod.imgix.net/avatars/58e3ad316d95ab0b00b236bc/7aa7ba6b-8b41-487b-894f-d54474a65a72_New Swin Logo.PNG?auto=format&amp;rect=0,0,176,120&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Swinerton Builders
+170 120th Ave NE, Suite 100, Bellevue, WA 98005, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.nOI9ihUe3nx5NP4S0j4xxQ.qUNvK24ni41Gu2laaiIBGXXW_ydpkCn1IeYXkBeSLqHWNu30tmglns05TJxinWLrZIltvS-MQpx0RROzmxBJnxsoahaN6wK_YfqwXpfZVIWKDjI6ErC8Po9ANX8axXM8CiiMl0NeH2JFp4GYhUzxYJe3mON3ev4EZX72ZrMPlt9sPe9EFGxBAMMQR2ZAB25RtNhIt9aDsnCrZIZpjhaRCA1SX55voakyw6zjl2EF3zQ3GaBWV6TxA6YLcYSXNzchixoe_aA2VCjJdkBti2uC-ITfna33-1dPlTkMR4E6HTROy9JkWzAlv73yhrpiXmGppptxfIc8PS8C8DcBaix-xvplDeRRqgpVtp1mbRjVGT8gxWiVQWlq-zdh3WKw_qumJ8gGzriWDjS24NYoFV3krOjbSZAD4f6gP5L3l5Y00uqxslJQRdTzqgKDCiIhu6DbddnobYHsTwLdJO05UcMVWpmGi-h3rMHK230TXXp8xAMbrQxr8r-2d59qzi2dSU-B9uuin_joCOrw0nJyvfdIsKKhzhs4rNpRTXTWHvTXy__znrDeHiaiotm3Jk7IrcTM&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>** Addendum 5 Issued ** - Sno-Isl Lake Stevens Library</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>October 4, 2024?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sno-Isl Lake Stevens Library</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Swinerton Builders</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Merci Keathley of Swinerton Builders sent your company a message about
@@ -576,20 +868,24 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>BidScope Summary - 09/28/24</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>&amp;BidScope Summary - 09/28/24</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dodge Construction Network 	 </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://www.thebluebook.com/assets/images/thebluebook_handshake_header_logo.png&gt; 	BidScope Daily Project Summary Report 
 As of 09/28/24  for Mehrer Drywall, Inc.
@@ -605,20 +901,24 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>BidScope Summary - 09/28/24</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>**&amp;BidScope Summary - 09/28/24</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dodge Construction Network 	 </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://www.thebluebook.com/assets/images/thebluebook_handshake_header_logo.png&gt; 	BidScope Daily Project Summary Report 
 As of 09/28/24  for Mehrer Drywall, Inc.
@@ -634,28 +934,84 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Reminder - bids due 9/30 by 12pm - 451 Zone Control Valve...</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>September 30, 2024?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>451 Zone Control Valve Facility &amp; Vault</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bayley Construction</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Matthew Todhunter of Bayley Construction sent your company a message about
+451 Zone Control Valve Facility &amp; Vault: Acoustical
+Reminder - bids due 9/30 by 12pm
+All,
+If you have not yet, please send us bids by 12pm on 9/30 so we can get the proposal ready for 10/1 by 10am. Remember the bid breakdown and the subcontractor checklist with your proposals so we have them for the main estimate as well. Attached again for ease of reference.
+Best Regards,
+Matt Todhunter
+206-931-3433
+Attachments:
+Subcontractor Responsibility Checklist Add 2.pdf &lt;https://app.buildingconnected.com/goto/66f73a7ce96f3c003bb01bf619235bc7514jmr&gt; 
+Bid Form Unit Breakouts Addendum 2.pdf &lt;https://app.buildingconnected.com/goto/66f73a7ce96f3c003bb01bf619235bc7514jmr&gt; 
+Reply to Matthew &lt;https://app.buildingconnected.com/goto/66f73a7ce96f3c003bb01bf619235bc7514jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66d10151ff82940068057369/bid&gt; 	
+Already know if your company will bid on this RFP? Let Matthew Todhunter know.
+Bidding &lt;https://app.buildingconnected.com/goto/66f73a7ce96f3c003bb01bfe19235bc751bjmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66f73a7ce96f3c003bb01bfe19235bc751bjmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66f73a7ce96f3c003bb01bfe19235bc751bjmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 6830 Northeast 185th Street, Kenmore, WA 98028, United States of America
+Bid Due: September 30, 2024
+Schedule A : Site 46 - 112th AVE NE FCM consists of constructing a new partially buried 930+/- square foot concrete and CMU building whose main function is to house hydraulic contr...
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66f73a7ce96f3c003bb01bf619235bc7514jmr&gt; 	
+Sender Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Matthew Todhunter
+Project Manager • +1 206-931-3433 • matthew.todhunter@bayley.net
+ &lt;https://bc-prod.imgix.net/avatars/6102e76e7c4ef600c5221665/adf6897d-ac15-4e39-b650-b74c286e1e9f_Building connected logo.jpg?auto=format&amp;rect=40,33,946,946undefined?auto=format&amp;rect=51,90,929,929&amp;h=36&amp;w=36&gt; 		Bayley Construction
+8005 SE 28th St, Mercer Island, WA 98040, USA 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.LF3CBzut820kuWph7qTZ8w.nLhMA7LsRHCYDqE7JDN20ZqQ6f3EqRLmGvPMsA8RzTi5jK8XXkjIuCJa2JVYMYmiP_g6zi_B71YaOowCiofyQ-PnN53TizoawQu-MOUCictURQ6wKnuaHk3lL7HuBa4S2C5PPN7FRdSvmawk6nDhNkrPfEhUo5Bpo3rgBiQrqQHYcl9ikuwYI9jm6O8F0GRZ4I_e4lU132LOQKRmKCtB8uHVTneWeIsF31DK7TckCzG8OZoIyrGsE9kQ-axaanpw79yYTUp-AsDIuSbXLijpCEXhzJQ6pHwOHozqVl5g7y_Hy_Sz8WHVCJaPD09D3fLgZyJ2Eqmh1rdwzya2V08fpn6EtT2LscMBPz2oYk0Zf3ktV-LvIgrnqkXWcJI0F21gzpYaNppratHOaoo4zbk80im6PuVt6Q3igQEgBtSbI6Xtu1K8jGcGJRGMLZP0gYqNdpVeEpSAR61vkavMpHM6srxR_7YamkFhKcxn3S3HU3-ZbQrKadDqaCKLM0Zomlwt7qDOBAu7GCbffnWYCoy_qg7bahJPHKAa4d7DSx0sC8U-hDEZAI08MsdUk7n4z9Wl&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>FW: Reminder - bids due 9/30 by 12pm - 451 Zone Control Valve...</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>451 Zone Control Valve Facility &amp; Vault</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Bayley Construction</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -696,24 +1052,24 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Reminder - bids due 9/30 by 12pm - 451 Zone Control Valve...</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>451 Zone Control Valve Facility &amp; Vault</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Bayley Construction</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Matthew Todhunter of Bayley Construction sent your company a message about
@@ -746,28 +1102,28 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>FW: Addendum 1 added to files - VMC Talbot Physical Therapy</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>VMC Talbot Physical Therapy</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Bayley Construction</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -801,28 +1157,28 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Addendum 1 added to files - VMC Talbot Physical Therapy</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>October 2, 2024?</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>VMC Talbot Physical Therapy</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Bayley Construction</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Matthew Todhunter of Bayley Construction sent your company a message about
@@ -852,24 +1208,24 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Addendum 1 added to files - VMC Talbot Physical Therapy</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
         <is>
           <t>VMC Talbot Physical Therapy</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Bayley Construction</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Matthew Todhunter of Bayley Construction sent your company a message about
@@ -897,24 +1253,24 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Site Walk Tuesday at 1pm - Hannibal Refurb</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Hannibal Refurb</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Foushee sent your company a</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Foushee sent your company</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Dave A Wellbrock of Foushee sent your company a message about
@@ -945,24 +1301,24 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Bid Invite: Comprehensive Life Resources Building TI Project</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Comprehensive Life Resources Building TI</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Colvos Construction</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/61aea1fde3a06700cbaf9018/d3e32b60-7837-4ffe-af5f-444476faae44_Colvos-Construction-02.png?auto=format&amp;rect=116,136,1775,1775&amp;h=200&amp;w=200&gt; 	
@@ -988,24 +1344,24 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>REMINDER: Bids Due on Monday - Bank of America Madison Pa...</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Bank of America Madison Park Branch TI</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Abbott Construction</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Sayalee Chavan of Abbott Construction sent your company a message about
@@ -1036,28 +1392,28 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>FW: Scope refinement_27SEPT2024 - Island Pacific Market #21 -...</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Island Pacific Market #21 - RFP</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Island Pacific Market #21</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>BSM Construction</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -1095,28 +1451,28 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Scope refinement_27SEPT2024 - Island Pacific Market #21 -...</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>October 2, 2024?</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Island Pacific Market #21 - RFP</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Island Pacific Market #21</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>BSM Construction</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Shaun Tides of BSM Construction sent your company a message about
@@ -1148,28 +1504,28 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Scope refinement_27SEPT2024 - Island Pacific Market #21 -...</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>10/2/2024?</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Island Pacific Market #21 - RFP</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Island Pacific Market #21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>BSM Construction</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Shaun Tides of BSM Construction sent your company a message about
@@ -1199,28 +1555,28 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Scope refinement_27SEPT2024 - Island Pacific Market #21 -...</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>October 2, 2024?</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Island Pacific Market #21 - RFP</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Island Pacific Market #21</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>BSM Construction</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Shaun Tides of BSM Construction sent your company a message about
@@ -1252,28 +1608,28 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>FW: Bid Invite: Google KUN Expansion - Floors 6-7 - Structura...</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Google KUN Expansion - Floors 6-7 - Structural Upgrades</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Foushee has invited you</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -1305,24 +1661,24 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Bid Invite: Google KUN Expansion - Floors 6-7 - Structura...</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Google KUN Expansion - Floors 6-7 - Structural Upgrades</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Foushee has invited you</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/579943cda046bf0b0077d441/28c742f6-b1a5-4ef5-85f0-f97bf919ba6c_fousheelogo.jpg?auto=format&amp;rect=2,1,535,169&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
@@ -1349,28 +1705,28 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>FW: Bid Invite: Lake House Condos - Interior Remodel Project</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Interior Finishes Upgrades</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Charter Construction</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 PAUL GEORGESON
@@ -1411,28 +1767,28 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>FW: Bid Invite: Seattle Public Library University District Pr...</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Complete remodel, seismic upgrade, new elevator</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Complete remodel, seismic upgrade</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Bayley Construction</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 PAUL GEORGESON
@@ -1472,28 +1828,28 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>FW: Bid Invite: Comprehensive Life Resources - L2 TI Project</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Comprehensive Life Resources - L2 TI</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>JTM Construction</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 PAUL GEORGESON
@@ -1536,28 +1892,28 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>FW: Bid Invite: MANGO at Bellevue Square Project</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>MANGO at Bellevue Square</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Bayley Construction</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 PAUL GEORGESON
@@ -1596,24 +1952,24 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">FW: Construction of the New Start Center of Edmonds, Snohomish County </t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>consists of renovation</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">Alread on the calendar…
 Jeff Pierzchalski
@@ -1653,29 +2009,25 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Insomnia Cookies - Seattle, WA #367 Seattle, Washington (Cox &amp; Company)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>10/09/2024?</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>&amp;Insomnia Cookies - Seattle, WA #</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Commercial 	
-Square</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+Square Footage</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
  &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pyYCB0TcmctpxtiBdUtjVCY-3DAKkk_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdvUvWyvMOnDG8Zyq5jC3CMlML9tDtRJ5rGEr2HbuU6hZus9nVCBmhtRvRJsOiqTIQIKkqyiQkF2zMoj6OeyC5F6F0piGsI3W5-2FHVpHYo8A3WU4-2BS8KNF-2BllPopxjLnUEIs17IBMGYklwZ9q0xxdqjuOkf3Sf9ogb7ARgrrBFnGzgIceo1fM0aG1iRtTDcFbh1g-3D-3D&gt; 	
@@ -1718,29 +2070,25 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Insomnia Cookies - Seattle, WA #367 Seattle, Washington (Cox &amp; Company)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>10/09/2024?</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>**&amp;Insomnia Cookies - Seattle, WA #</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Commercial 	
-Square</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+Square Footage</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
  &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pyYCB0TcmctpxtiBdUtjVCY-3DKdq6_HT7OMOFQiTcnPmYL7QFDE-2BN-2F-2Bk4CKgchy-2F-2FJLsbp4TuuS6WAffG0-2B7L8HHPJ5rgvK-2FAn66uXdu9ZE4HI49yoZxltAgOXT0w-2F2jxdT4CbsibL-2Fwy76Hd8I6HJTpb372B6l09QNQIX33Wz2UZjflPqz-2BRLnkRs87Bq8CDH1AA0sOUhpbbikSZrkHBxzTZqVqgPpXJSO4-2FMau7a8bt8ZqqLTj7aPp00SELZrKDvUiQhfKGnzX3QfgjFGbHWbK0wJZ-2BKuMjbuGMXmXtisepMlfbQavI3mnpDwIymQyGLNWqNW2EPzmALifqXh0lbbgepmQhtpKkkxiRtzPc-2FRyE6Dzakp8l-2BFWGkF91w335-2Bc9-2Fb6DypRugCa45ASBZ-2BzUyxER1n-2BrKu-2FU8WEW9LdmJjqb8cccjPPtQXLNn2wqsuHtR6DNHhY2m-2BZ-2BWiOODknGgWZ-2BXg-2FsYRxZPpqfpjNUfv2vmxXQ-3D-3D&gt; 	
@@ -1783,28 +2131,28 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>FW: JTM has decided not to bid this project - Seattle Public ...</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Seattle Public Library University Branch</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>JTM Construction</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -1840,28 +2188,28 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>JTM has decided not to bid this project - Seattle Public ...</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Seattle Public Library University Branch</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>JTM Construction</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Ross McKenzie of JTM Construction, Inc. sent your company a message about
@@ -1891,24 +2239,24 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>JTM has decided not to bid this project - Seattle Public ...</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Seattle Public Library University Branch</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>JTM Construction</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Ross McKenzie of JTM Construction, Inc. sent your company a message about
@@ -1935,24 +2283,24 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>JTM has decided not to bid this project - Seattle Public ...</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Seattle Public Library University Branch</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>JTM Construction</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>JTM Construction, Inc.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Ross McKenzie of JTM Construction, Inc. sent your company a message about
@@ -1979,28 +2327,28 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Bid Invite: Lake House Condos - Interior Remodel Project</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Lake House Condos - Interior Remodel</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Lake House Condos</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Charter Construction</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/55f06fb1d5049207003de30b/b63a480e-92b4-4ebe-a772-64dfa8bdf37a_Charter Logo Proper Red.jpg?auto=format&amp;rect=1,7,282,175&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
@@ -2027,28 +2375,28 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Painting &amp; Wallcovering Scope Sheets - 1201 Third Tenant ...</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>HITT Contracting Inc.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>HITT</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Peiyu Zhang of HITT Contracting Inc. sent your company a message about
@@ -2087,28 +2435,28 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Painting &amp; Wallcovering Scope Sheets - 1201 Third Tenant ...</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>HITT Contracting Inc.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>HITT</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Peiyu Zhang of HITT Contracting Inc. sent your company a message about
@@ -2147,28 +2495,28 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Painting &amp; Wallcovering Scope Sheets - 1201 Third Tenant ...</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>HITT Contracting Inc.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>HITT</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Peiyu Zhang of HITT Contracting Inc. sent your company a message about
@@ -2207,28 +2555,28 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>RE: Foundry at Totem Lake - Invitation to Bid (ITB) - Revised Link for Bid Document*</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>&amp;None</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>American Capital Group</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">Good Morning,
 Following our Invitation to Bid (ITB) email earlier this morning, I would like to provide you with the updated link for bid documents. Please use the link below to download the latest bid documents. I apologize for the confusion.
@@ -2279,28 +2627,28 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>FW: 1201 3rd Amenities - Acoustic Room Components Scope Sheet...</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>September 27, 2024?</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>HITT</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -2345,28 +2693,28 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1201 3rd Amenities - Acoustic Room Components Scope Sheet...</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>HITT</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Daniel Quigley of HITT Contracting Inc. sent your company a message about
@@ -2405,28 +2753,28 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1201 3rd Amenities - Acoustic Room Components Scope Sheet...</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>HITT</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Daniel Quigley of HITT Contracting Inc. sent your company a message about
@@ -2465,28 +2813,28 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1201 3rd Amenities - Acoustic Room Components Scope Sheet...</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>HITT</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Daniel Quigley of HITT Contracting Inc. sent your company a message about
@@ -2525,28 +2873,28 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1201 3rd Amenities - Plaster and Gypsum Board Scope Sheet...</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>HITT</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Daniel Quigley of HITT Contracting Inc. sent your company a message about
@@ -2585,28 +2933,28 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1201 3rd Amenities - Plaster and Gypsum Board Scope Sheet...</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>HITT</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Daniel Quigley of HITT Contracting Inc. sent your company a message about
@@ -2645,28 +2993,28 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1201 3rd Amenities - Plaster and Gypsum Board Scope Sheet...</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>September 18, 2024?</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>1201 Third Tenant Amenities</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>HITT</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Daniel Quigley of HITT Contracting Inc. sent your company a message about
@@ -2705,28 +3053,28 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Bid Invitation | Pre-bid walk information - Omak Medical ...</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Omak Medical Center Dental Clinic</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>TRICO Companies</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Family Health Center</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TRICO Companies, inviting</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Hiloni Ashra of TRICO Companies, LLC sent your company a message about
@@ -2762,24 +3110,28 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Bid Invite: Costco Spokane Optical Remodel Update Project</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>October 1, 2024?</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Costco Spokane Optical Remodel Update</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Interstate Construction Group Inc.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/59138409ce945d0a00d23137.jpeg?auto=format&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
@@ -2809,24 +3161,24 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Walmart Remodel # 3217-276 - Othello, WA Invitation to Bid</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>October 22, 2024?</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>THE OLD ONE AND ADD</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>&amp;None</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1350934593&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350934593&amp;sPassportKey=C1BFED8F1470C94D2637B2F0CA1ECD4B64E8D454&amp;sBidId=779559&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1350934593&amp;sPassportKey=C1BFED8F1470C94D2637B2F0CA1ECD4B64E8D454&amp;sBidId=779559&amp;st=116&amp;e=1&gt; 
@@ -2870,362 +3222,6 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Walmart Remodel # 3217-276 - Othello, WA Invitation to Bid</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>October 22, 2024?</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>THE OLD ONE AND ADD</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1350934594&amp;oimg=1x1pic.gif&gt; 
- &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350934594&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1350934594&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;st=116&amp;e=1&gt; 
-If this link does not work, please go to https://securecc.smartbidnet.com/LETI &lt;https://securecc.smartbidnet.com/LETI?st=102&gt;  and enter the access key: 788029e4a83d4 	
-Yes, I'll Bid All Codes &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350934594&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;iR=1&amp;st=103&amp;e=1&gt;  | No, I Won't Bid this Job &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350934594&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;iR=0&amp;st=104&amp;e=1&gt;  | Click Here to View the Project &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350934594&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;st=105&amp;e=1&gt;  	
- &lt;http://securecc.smartbidnet.com/Files/System_440/images/image005.png&gt; 
-3330 E. Louise Dr. Suite 300 Meridian, ID 83642 
-Phone (208) 362-3040 Fax (208) 362-3113
-www.esiconstruction.com 
-&lt;http://www.esiconstruction.com&gt; 
-INVITATION TO BID
-To: Mehrer Drywall (Seattle, WA) 
-Fax: (206) 285-2092 
-Trade Codes: 
-09110
-09250
-09510
-09910
-Phone: (206) 282-4288 
-Project Title: 	 Walmart Remodel # 3217-276 - Othello, WA 	
-Location:	 1860 EAST MAIN STREET - Othello, WA 99344- 	
-Bid Due Date:	 October 22, 2024 12:00 PM   (MT) 	
-ESI Contact:	 Tyler Caviness ,  tylercaviness@esiconstruction.com 	
-Project Description:	 Description: 
-SALES FLOOR: MOVE LOCATION OF ELECTRONICS DESK AND ADD DIGITAL DISPLAY BOARDS.CLEAN, PREPARE AND PAINT WALLS.REPAIR AND REPLACE FLOOR FINISHESINTERIOR WALLS: CLEAN, PREP AND PAINT EXTERIOR SURFACES: CLEAN, PREP AND PAINT. SIGNAGE: INSTALL/REPLACE EXTERIOR SIGNS, REVIEW CURRENT PICKUP SIGN LOCATION AND EVALUATE NEED FOR RELOCATION. REPLACE AND INSTALL EXTERIOR SIGNAGE REMOVE ROOF TOP EQUIPMENT ADD NEW ROOF TOP EQUIPMENT NEW EXTERIOR FIRE PUMP ROOM RESTROOMS: FAMILY RESTROOM, REFURBISH CUSTOMER RESTROOMS, REPLACE SINKS AND ACCESSORIES,RESTROOMS: NEW PLUMBING FIXTURES, ACCESSORIES AND FINISHES CUSTOMER SERVICE: REMODEL AS NOTED. NEW FINISHES AND ADD DIGITAL DISPLAYS CUSTOMER CHECK OUT AREA: REVISE LOCATION OF CASH REGISTERS AND OTHER EQUIPMENT,ADD SELF CONTAINED REFRIGERATED CASES PHARMACY: REMOVE THE OLD ONE AND ADD NEW PHARMACY, AS SHOWN. PHOTO LAB: RELOCATE ENTRY VESTIBULE: NEW VESTIBULE EXPANSION BREAK ROOM: REMODEL, INSTALL FIXTURES,NEW FINISHES 
-GARDEN CENTER : PAINT AND CLEAN GROCERY: REMODEL,REMOVE REFRIGERATED CASES AND EQUIPMENT. ADD REFRIGERATED CASES, EQUIPMENT, DIGITAL DISPLAYS AND NEW FINISHES ONLINE PICK UP: RELOCATE EXISTING OPERATIONS TO SALES FLOOR. IMPLEMENT PICKUP 2.0 AND REMODEL EXISTING PICKUP AREA. FIRE PUMP ROOM: INSTALL EXTERIOR FIRE PUMP ROOM AT REAR OF STORE. 
-Schedule: 
-Start: 1/26/2025 
-Ends: 5/15/2025 
-Please send any RFI’s to zackwalsh@esiconstruction.com 	
-Addenda:	 Acknowledge all Addenda on your bid form	 
-Tax:	 Clarify if tax is included and breakout as a separate line item	 
-Bid Submission:	 Upload all bids to Smartbid or email them to the contact specified in project description to ensure your bid received	 
-Accessing Bid Documents:	 To access the bid documents, click on the orange tab at the top of this invitation OR use the weblink, username, and password at the top left of this invitation. DO NOT contact the owner or architect for any reason, all RFI must go through ESI.	 
-Post Bid:	 Email for bid results: bidresults@esiconstruction.com &lt;mailto:bidresults@esiconstruction.com&gt;  DO NOT SEND BIDS TO THIS ADDRESS! See Bid submission above	 
-By clicking on any of the links in this email to access the Projects Details, you are also accepting ConstructConnect´s
-Terms of Use &lt;https://www.constructconnect.com/terms-of-use&gt;  and Privacy Policy &lt;https://www.constructconnect.com/privacy-policy&gt;  .
-To Unsubscribe from receiving invitations, please Click Here &lt;https://securecc.smartbidnet.com/External/Unsubscribe.aspx?DId=1350934594&amp;PId=725176&amp;CType=1&amp;st=106&amp;e=1&gt;  
-This is an automated email communication so replies to this address will not be answered.
- &lt;http://em.smartinsight.co/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjBg10kM5SlSecUKpi6Zs2uTmybke-2F-2F5vM-2Bjvltp2dwd1onTV8paM5SaeFecKfJSYh0KFY6JuMMFgDHwkRTisMMXYlpU5ZJd5NJ5GqHitmxZkED2BdRBLpUxLmkHcRSZFQ7jeko9I27NY7Gl5RlayQtWOepDxMmdY0kzJePJoHAW8HFgHi17XKWSdYfr3vZP-2FIPO0ou9sCNEetLpWJqICx6ESC72IvB0mxbuDlSd9A1uHGztpy7HLO-2BYg6e08T1ymrZ0MfzvFWPDxjCLbudBQrnGprgsDJn-2BDAMQ3PblLH8ww-3D-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>FW: Project Status and Next Steps - Google KUN Expansion - Fl...</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>September 27, 2024?</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Levels 5-7 to convert</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Foushee sent your company a</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-________________________________
-From: Matthew Chiles (Foushee) &lt;team@buildingconnected.com&gt;
-Sent: Friday, September 27, 2024 11:06:52 AM (UTC-08:00) Pacific Time (US &amp; Canada)
-To: Heather Mehrer &lt;heather@mehrer.com&gt;
-Subject: Project Status and Next Steps - Google KUN Expansion - Fl...
- &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
-Matthew Chiles of Foushee sent your company a message about
-Google KUN Expansion - Floors 5-6 CD Set + Floor 7 DD Set
-Project Status and Next Steps
-Attention all bidders,
-The project budget for Google KUN F5-F7 Expansion project has been approved and our prime contract is currently routing for imminent execution.
-Foushee has been authorized to engage this vendor pool and begin negotiation for award and contract execution. We will be reaching out to each vendor to negotiate terms and clarify the final scope of work for the project.
-In the interim, all vendors performing work onsite will be required to review the attached Google KUN - Exhibit Q - OWNER'S ENVIRONMENTAL, HEALTH, AND SAFETY REQUIREMENTS to verify if your proposals can absorb these requirements and your field teams will be able to comply.
-I have also updated the Construction Schedule but at this time we are anticipating a start of construction on 11/18/2024. The project will be completed in phases per floor.
-We look forward to this project getting started and the opportunity to work with each of you.
-Allow me to reach out to each of you for next steps. I appreciate your patience as we work through an award priority list based on the project schedule needs.
-Thank you,
-Attachments:
-Google KUN - Exhibit Q - OWNER'S ENVIRONMENTAL, HEALTH, AND SAFETY REQUIREMENTS.pdf &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120465419234aa045bjmr&gt; 
-S8_24.08.27_KUN Expansion - Floors 5-7 - Preconstruction Schedule.pdf &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120465419234aa045bjmr&gt; 
-Reply to Acoustical Ceilings &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120465519234aa045bjmr&gt;  Reply to Wall Panels &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120465419234aa045bjmr&gt;  	
-Project Details
-Location: 425 Urban Plaza, Floors 5-7, Kirkland, WA 98033, United States of America
-A lite refresh of the existing office spaces on Levels 5-7 to convert existing built out space to meet Google Standards. Scope of work includes but is not limited to security, AV, ...
-Sender Details
- &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Matthew Chiles
-Project Manager • (425) 746-1000 • mchiles@foushee.com
- &lt;https://bc-prod.imgix.net/avatars/579943cda046bf0b0077d441/28c742f6-b1a5-4ef5-85f0-f97bf919ba6c_fousheelogo.jpg?auto=format&amp;rect=2,1,535,169&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Foushee
-3240 118th Avenue Southeast, Bellevue, WA 98005, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.J5pYTrLjcR_3ROt0HNABRA.CCI6V4f4hPi5pZUFGZ23Hl6rX5DFVXnfizf_lxr0f7mnyXh2VLh6wgspzLDDCupPvm5BzOy3EArZuwqdvx-frf_h8AsGaz2Q1BVvP-p8Xqq1UcPPsiYkRHG2wEPcTOcL24NgohJ-Y6Ejd0LKsmCekFDv8a4pSIE45Jw_FZ8vgOidLkXScx7eccNQYVHE5lOMpYiT75hZnP5KsAbv2YKqwAD7u7osVaGHjtbGd7jAW-syTwAfw-pRUVmu2DwZm3IP4bZwJVS8Pu4x4nIMzkkKiLH57OqCSFNMiXONWiGLg7Rp-QesjjQaWyWUFWtijpxWsCp04erdJLRQQnV77P0EhSTnV4c6FS4T1ZiuFezrcSRvOnKaXQhx2wABdzWmKfd5rmiv_NyV-aNZDx8ep0tISbpg9fP_KAIcctbFem0-uYypRFYuA5eYihDYCdDOuxDpqKij7NUeIaOqOArRvrRPfFkRZ-PutnmXNw8ujBEjUn_N_kdzR2Di1HHpbTFZSQopXTkWEpa7Oq2YXx6Yj3jBXjXsttQ44gff_f0mJm4NhuEGY1uoKLURpRIFzT9SMMh-&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Project Status and Next Steps - Google KUN Expansion - Fl...</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>11/18/2024?</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Levels 5-7 to convert</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Foushee sent your company a</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
-Matthew Chiles of Foushee sent your company a message about
-Google KUN Expansion - Floors 5-6 CD Set + Floor 7 DD Set
-Project Status and Next Steps
-Attention all bidders,
-The project budget for Google KUN F5-F7 Expansion project has been approved and our prime contract is currently routing for imminent execution.
-Foushee has been authorized to engage this vendor pool and begin negotiation for award and contract execution. We will be reaching out to each vendor to negotiate terms and clarify the final scope of work for the project.
-In the interim, all vendors performing work onsite will be required to review the attached Google KUN - Exhibit Q - OWNER'S ENVIRONMENTAL, HEALTH, AND SAFETY REQUIREMENTS to verify if your proposals can absorb these requirements and your field teams will be able to comply.
-I have also updated the Construction Schedule but at this time we are anticipating a start of construction on 11/18/2024. The project will be completed in phases per floor.
-We look forward to this project getting started and the opportunity to work with each of you.
-Allow me to reach out to each of you for next steps. I appreciate your patience as we work through an award priority list based on the project schedule needs.
-Thank you,
-Attachments:
-Google KUN - Exhibit Q - OWNER'S ENVIRONMENTAL, HEALTH, AND SAFETY REQUIREMENTS.pdf &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120461119234aa03ddjmr&gt; 
-S8_24.08.27_KUN Expansion - Floors 5-7 - Preconstruction Schedule.pdf &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120461119234aa03ddjmr&gt; 
-Reply to Painting &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120460f19234aa03ddjmr&gt;  Reply to Wall Panels &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120461019234aa03ddjmr&gt;  Reply to Acoustical Ceilings &lt;https://app.buildingconnected.com/goto/66f6f43a83654f004120461119234aa03ddjmr&gt;  	
-Project Details
-Location: 425 Urban Plaza, Floors 5-7, Kirkland, WA 98033, United States of America
-A lite refresh of the existing office spaces on Levels 5-7 to convert existing built out space to meet Google Standards. Scope of work includes but is not limited to security, AV, ...
-Sender Details
- &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Matthew Chiles
-Project Manager • (425) 746-1000 • mchiles@foushee.com
- &lt;https://bc-prod.imgix.net/avatars/579943cda046bf0b0077d441/28c742f6-b1a5-4ef5-85f0-f97bf919ba6c_fousheelogo.jpg?auto=format&amp;rect=2,1,535,169&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Foushee
-3240 118th Avenue Southeast, Bellevue, WA 98005, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.UFP6rU1NKUoTzUG_75EvdQ.l7yWJ0PLHkFWyaB0SvLjSlDtvAnEXGFhb5zDI-7gWvre8D8k3khtciyMOD6UXzwFX7OMmGWDFuwoQReIU8gcvFRb5fOV9PhhaIppocYKxz13GPbyjtymi7QL1KQ4F3e0X8hVVe626peICz2DZn4OebjSslD3qbhBE8AniCjsX9ixVWiWqzDX8VcE6ejOuGNF5INTfKRdn5s5by8Jsi5qY8zMeJc13MfadXs3XYLJ53zeGQCb7_8hNdPUywdIil0FEe8552617N5WHFAGdC1z6J9_IFPI61o5HfP2H7kF2Tp8C48JFjILU92DfuyA3UEi2APdwIiyPVEwLWRPUsVmJHPZpwX347SVW5ewb9hDMv3E4VL6VNYN9jhD8GOSbYAGxkNuY2DFyAUgtXpuYCa4ReVVnn8ruSsi7G2rvlNiSBgGK0TImI302U7yNLZ2bUGJI9KP4A5O1yg-A67yHHyCdtRjOM0qMFZsVMKGtSTlHp11Q-WWNVod7Xdn1qRkGk-83Bhz-ENUcn5bCMH8raHUSqj3m9XYDWYFyU28hM0ahSh_UjuTGBA6Rsy9W6I6a-0L&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Lake Stevens Library - Lake Stevens, WA Invitation to Bid</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>October 9, 2024?</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>**Sno-Isl Lake Stevens Library</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1350938814&amp;oimg=1x1pic.gif&gt; 
- &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350938814&amp;sPassportKey=1CD5CFD9D6644B2514C0FC858735750FD2934322&amp;sBidId=776861&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1350938814&amp;sPassportKey=1CD5CFD9D6644B2514C0FC858735750FD2934322&amp;sBidId=776861&amp;st=116&amp;e=1&gt; 
-If this link does not work, please go to https://securecc.smartbidnet.com/LAHV &lt;https://securecc.smartbidnet.com/LAHV?st=102&gt;  and enter the access key: 539f34ef8413182 	
-Yes, I'll Bid All Codes &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350938814&amp;sPassportKey=1CD5CFD9D6644B2514C0FC858735750FD2934322&amp;sBidId=776861&amp;iR=1&amp;st=103&amp;e=1&gt;  | No, I Won't Bid this Job &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350938814&amp;sPassportKey=1CD5CFD9D6644B2514C0FC858735750FD2934322&amp;sBidId=776861&amp;iR=0&amp;st=104&amp;e=1&gt;  | Click Here to View the Project &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1350938814&amp;sPassportKey=1CD5CFD9D6644B2514C0FC858735750FD2934322&amp;sBidId=776861&amp;st=105&amp;e=1&gt;  	
-You are being invited by	 
-  &lt;http://securecc.smartbidnet.com/Files/System_1537/images/Ferguson230x80.png&gt; 	 	 From: Xander Macatangay 
-Phone: (425) 974-8400 
-Fax: 	
-________________________________
-ATTN: Estimating Dept. 
-          (or Estimating Department) 
-Company Name: Mehrer Drywall Inc. * (Seattle, WA) 
-Address: 2657 20th Ave. W. 
-Seattle, WA - 98199- 0737 
- 	 Fax: (206) 285-2092 
-Phone: (206) 282-4288 
-Trade Codes: 
-09250
-09500
-09900
-09970
-09540
-INVITATION TO BID	 
- 	 Title: 
-Lake Stevens Library - Lake Stevens, WA 
- 	 Location: 
-114 &amp; 128 99th Ave Ne - Lake Stevens, WA 98258- 	 	 
- 	 Bid Due Date:  October 9, 2024 12:00 PM   (PT) 
- 	 Contact: 
-Xander Macatangay 	Phone: 
-(425) 974-8400 	Fax: 
- 	 Architect: 
-BuildingWork, Seattle, WA 	Owner: 
-Sno-Isle Intercounty Rural Library District (Sno-Isle Libraries) 	Bid Project Status: 
-Open to Bid 	 	 
-Project Description: 
-Ferguson Construction is requesting a bid for the above-referenced project.
-This project is a public works project, so it requires prevailing wages. Ferguson Construction is bidding this project against other general contractors.  
-There is a LEED Silver certification requirement.
-Scope of work includes (but not limited to) earthwork, site improvements, asphalt, landscaping, irrigation, site concrete, concrete pavement, chain link fence, concrete foundations, concrete shear-walls, precast concrete panels, structural steel, steel stairs, galvanized steel ladders, mass timber framing, architectural wood casework, hold-downs, fall protection anchors, roof membrane, roof hatch, insulation, metal siding, wood siding, aluminum sunshades, skylights, glazing, doors, folding glass partitions, automatic door openings light gauge framing, drywall, flooring, ACT,  acoustic panels, restroom accessories, restroom partitions, roller-shades, MRL traction elevators, fire protection equipment, design-build fire sprinkler, HVAC, plumbing, electrical, and low voltage.
-All questions and clarifications must be submitted by September 30thth at 1:00 PM PDT.
-If you have any questions, please contact Xander Macatangay at xanderm@fergusonconstruction.com &lt;mailto:xanderm@fergusonconstruction.com&gt;  or 425.974.8400.
-Please submit all bids and proposals to bids@fergusonconstruction.com &lt;mailto:bids@fergusonconstruction.com&gt; .
-PLEASE LOG IN USING THE INFORMATION ABOVE TO ACCEPT/REJECT THE INVITE AND TO DOWNLOAD PLANS
-By clicking on any of the links in this email to access the Projects Details, you are also accepting ConstructConnect´s
-Terms of Use &lt;https://www.constructconnect.com/terms-of-use&gt;  and Privacy Policy &lt;https://www.constructconnect.com/privacy-policy&gt;  .
-To Unsubscribe from receiving invitations, please Click Here &lt;https://securecc.smartbidnet.com/External/Unsubscribe.aspx?DId=1350938814&amp;PId=10869843&amp;CType=1&amp;st=106&amp;e=1&gt;  
-This is an automated email communication so replies to this address will not be answered.
- &lt;http://em.smartinsight.co/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjBg10kM5SlSecUKpi6Zs2uTmybke-2F-2F5vM-2Bjvltp2dwd273PWpnTWJG5se7KevCKu9-2BBSmeZkBnZqzyWLqmqdSHEY5ph9UIg3UCGVQ-2BtIeOE99u-2BwNQU-2BitnhQ5YitlwQy321ZVl39gz4UAXKviFl6K2FC6A-2F-2FjTvcxnK7ZqTIi-2FM4Dwcyybk2owh4lVNcol-2F0NrQT7JPVUNnhxfQK9dJuINS7S-2FqiepEseBGjLaC1KOCq2RLA3CuqDbk-2BDCgBgj3w8OUDXOvTne9s21cUVNGSOmVdjLBx-2BVJAcrnaH3Ipcpw-3D-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>FW: Bid viewed: Northwest Dental Arts &amp; Urgent Care Chiropractor</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>September 27, 2024?</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-________________________________
-From: BuildingConnected &lt;team@buildingconnected.com&gt;
-Sent: Friday, September 27, 2024 10:53:02 AM (UTC-08:00) Pacific Time (US &amp; Canada)
-To: Heather Mehrer &lt;heather@mehrer.com&gt;
-Subject: Bid viewed: Northwest Dental Arts &amp; Urgent Care Chiropractor
- &lt;https://s3.amazonaws.com/static.buildingconnected.com/email/success@2x.png&gt;   Deacon Construction, LLC viewed your bid!
-Northwest Dental Arts &amp; Urgent Care Chiropractor &lt;https://click.pstmrk.it/3s/app.buildingconnected.com%2Fopportunities%2F66e8bf054d55c7e1d5369fd4/FwMB/8k24AQ/AQ/04750e71-8e80-4ef8-9238-cc0065a22314/1/ebVYMgbMUL&gt; 
-Submitted on September 27th, 2024 at 10:00am PDT
-Bid value:
-$31,750
-Trade:
-Acoustical Ceilings
-Viewed on:
-September 27th, 2024 at 10:53 am PDT
- &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&gt; 	Steven Fields
-steven.fields@deacon.com
-Follow up with Deacon Construction, LLC
-Send message &lt;https://click.pstmrk.it/3s/app.buildingconnected.com%2Fopportunities%2F66e8bf054d55c7e1d5369fd4%2Fmessages%2Fnew/FwMB/8k24AQ/AQ/04750e71-8e80-4ef8-9238-cc0065a22314/2/CZ4_Htlvjb&gt; 	 
-&lt;https://click.pstmrk.it/3s/app.buildingconnected.com%2Fopportunities%2Fpipeline%3Ffollowup%3Dsetfollowup%26opportunityId%3D66e8bf054d55c7e1d5369fd4/FwMB/8k24AQ/AQ/04750e71-8e80-4ef8-9238-cc0065a22314/3/3ILE9d754J&gt; 
-Set follow-up reminder
- &lt;https://click.pstmrk.it/3s/www.buildingconnected.com%2Fbid-board%2F/FwMB/8k24AQ/AQ/04750e71-8e80-4ef8-9238-cc0065a22314/4/lnG-cZ5gZ-&gt; 	 
-www.buildingconnected.com &lt;https://click.pstmrk.it/3/www.buildingconnected.com/FwMB/8k24AQ/AQ/04750e71-8e80-4ef8-9238-cc0065a22314/5/H4dPatdIsb&gt;   |  Click here for help &lt;https://click.pstmrk.it/3s/buildingconnected.zendesk.com%2Fhc%2Fen-us%3Fsolvvy%3Dtrue/FwMB/8k24AQ/AQ/04750e71-8e80-4ef8-9238-cc0065a22314/6/PJnKbUNDqE&gt; 
-© Copyright 2024 BuildingConnected.﻿com.﻿ All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
-Unsubscribe from Bid Viewed emails &lt;https://click.pstmrk.it/3s/app.buildingconnected.com%2F_%2Femail-unsubscribes%2F54cad2d7f7fda105003f9267%2Fbb-proposal-read-confirmation/FwMB/8k24AQ/AQ/04750e71-8e80-4ef8-9238-cc0065a22314/7/0g9-X3FUbJ&gt; 
- &lt;https://ea.pstmrk.it/open?m=v3_1.Y7LUasRqOwC4m-5zgp4pfg.YAv4LJyD3YzDHlA-c3vsaPhMYz0qTrER8KD6kxJLuG6Bn_EP5hh5LFFVviYYXPPtV2XRJD_LgLOVjlAnOIzejYPiHNUFRmgEn2s8rgAgE_vra304404PLBQc398qJpHVzP-l-DHwW1BSeE2es8feeLWCt-d9y-vmEEQeM1xao1-by6SKdBfgorZHjCtYbEPRIlNvAB29nj_qwf9euM2wvo3noJdP1KTLItmA5vGd7FKaIWNq8FZnoQx_DmpyW0_zyFz8dNO_5fp_87DbgPoevnlKcQfjgvs8bfnZ4dWIsK4UC_FBysprNYWNPZnGxCXhuPylTjf1PUMmhf4Do9wPSXhDLlGT9-oK93hxdcQihPg0spH0vz6Q8ROCMRLRS9fZkgV64ZY6cTCXxIlnH8D8sESi2il65wtkKI1FeRbQ7zCZExV04v-U_bFRdYsY3UAASA78WIlV_Z_tS2sfU-2BynJf9O7FXuR_9ZjupLTfjjp8My4EfPxYpiUukxQY9gndXJ7bKKIH9nQyYaIJCArJAahE1453K6UTlEsO_osMHEWKXroFiIquhfJmz8FGxpOoFsV2PLb5kP_vEGOgTYPKyjfdP_60TRjrRTqPhH2Ma-0UwcP5DPpy15a9cuK_mNaHHBoJB61BIh3g3gD9YmiHwA&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>FW: Matterport Link for Virtual Walkthrough + Site Walk - 233...</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>September 27, 2024?</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2333 SNBL Office</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Foushee sent your company a</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-________________________________
-From: Matthew Chiles (Foushee) &lt;team@buildingconnected.com&gt;
-Sent: Friday, September 27, 2024 10:20:41 AM (UTC-08:00) Pacific Time (US &amp; Canada)
-To: Heather Mehrer &lt;heather@mehrer.com&gt;
-Subject: Matterport Link for Virtual Walkthrough + Site Walk - 233...
- &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
-Matthew Chiles of Foushee sent your company a message about
-2333 SNBL Office: Acoustical Ceilings
-Matterport Link for Virtual Walkthrough + Site Walk
-Attention All Bidders,
-We have included a link below to the Matterport Virtual Scan of the entire building. The location of this project is on the 2nd floor for reference.
-If you would like to perform an in-person site walk, we can have the space available on Wednesday, 10/2/24 between the hours of 6am and 8am. Please send a notice of intent to walk the space prior to arrival.
-Copy and paste the below links in your browser for Access to the Matterport Space:
-*	Project Location: Floor 2 - https://my.matterport.com/show/?m=aeW9QajfYtQ
-*	Floor 1 - https://my.matterport.com/show/?m=L52eUYcMG8s
-Thank you,
-Reply to Matthew &lt;https://app.buildingconnected.com/goto/66f6e967545d1b0046a2af85192347fbdd5jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66e98bfb23630161bc5aa94a/bid&gt; 	 
-Already know if your company will bid on this RFP? Let Matthew Chiles know.
-Bidding &lt;https://app.buildingconnected.com/goto/66f6e967545d1b0046a2af8a192347fbddfjmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66f6e967545d1b0046a2af8a192347fbddfjmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66f6e967545d1b0046a2af8a192347fbddfjmn?state=UNDECIDED&gt; 	 
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 2333 Seaway Boulevard, Everett, WA 98203, United States of America
-Bid Due: October 4, 2024
-2,500 SF Commercial Office Tenant Improvement consisting of conference rooms, open office workstations, a kitchenette, and private offices.
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66f6e967545d1b0046a2af85192347fbdd5jmr&gt; 	 
-Sender Details
- &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Matthew Chiles
-Project Manager • (425) 746-1000 • mchiles@foushee.com
- &lt;https://bc-prod.imgix.net/avatars/579943cda046bf0b0077d441/28c742f6-b1a5-4ef5-85f0-f97bf919ba6c_fousheelogo.jpg?auto=format&amp;rect=2,1,535,169&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Foushee
-3240 118th Avenue Southeast, Bellevue, WA 98005, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.zNKzoAczdKhcI4FuqgJ1Eg.jG8G98N-CX6dQw1BqfitFmFTHr29_Eigf37o0Yfxi1Tiprw_NSYjDz6IiMjAwdP6Mh5i3TeqYQVM9zZBZkmcefWpXN64AouG1mSXCOKo4JSb8ew5KJQM1BCnvqX4aBFu4uhDT5I-19orQd05BSMG2gRiz0XdR3XwxoJMUf5brzXU9JYkkz2WPLXqdkxy2Wd0mqpHweXHUdzGYiueCF37h_ap2NE3_q4cdrfrs4z3xDy031lWR4JwBAZOdt2d6XzUwsAklVCWJ_K2E9fOo_NcEfeIIKCk6CYCMv48gE2sJsbymSUdoCPIRoGq7mS-7B-AHfEvtPoGn5IK_NpJ0YykgUjke2gaitn-5xROM9xqmDNG_vAj2i4pQVSsADhkdomuYzXblmLQMF8fY5IMQ55dH1ZF5YKzm52sJ3AoXGoMtf0zzjShy8sPI_fWuGhRTjm3stKavHszB7_yWmq0-uLBcjCcd8PmU9-5tP51SsGStpAq2Ky2r-hRXq9tUGpZSFouFRAV0WT-7AXSuM5uVpQHXxDhZC6a1yHvlhSkUJ5wYOl2WCAozDbUCGd-6EzR7pbN&gt; </t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bid_requests_calendar_new.xlsx
+++ b/bid_requests_calendar_new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,25 +533,86 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Issue for Bid Drawings Released - Amazon SEA129 Cafe Refresh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>October 10, 2024?</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Amazon SEA129 Cafe Refresh</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GLY Construction</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Rebecca Kline of GLY Construction sent your company a message about
+Amazon SEA129 Cafe Refresh: Gypsum Board
+Issue for Bid Drawings Released
+Updated drawings have been uploaded for the SEA129 Cafe Refresh project. The documents are dated 9/27/24. 
+Documents include:
+*	Furniture Specification Package
+*	Cut Sheets - Food Service Equipment
+*	Cut Sheets - Light Fixtures
+*	Bid Drawings
+*	Architectural specifications
+*	Exhibit E Kuiper ITAR Attachment
+MEP drawings are still under review. They are expected to be released 10/11. 
+The bid due date to GLY has been extended to 10/16. 
+Thank you, 
+Rebecca Kline
+Reply to Rebecca &lt;https://app.buildingconnected.com/goto/66fb14824e25a90048908faa19244c81f9ajmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66edbd0f13add10c150aabb7/bid&gt; 	
+Already know if your company will bid on this RFP? Let Rebecca Kline know.
+Bidding &lt;https://app.buildingconnected.com/goto/66fb14824e25a90048908faf19244c81fa8jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fb14824e25a90048908faf19244c81fa8jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fb14824e25a90048908faf19244c81fa8jmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 6464 185th Avenue Northeast, Redmond, WA 98052, United States of America
+Bid Due: October 10, 2024
+Tenant improvement work on Levels 01 of an existing two-story building including construction of non-structural partitions, finishes and fixtures.
+Associated mechanical, electrical,...
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66fb14824e25a90048908faa19244c81f9ajmr&gt; 	
+Sender Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Rebecca Kline
+rebecca.kline@gly.com
+ &lt;https://bc-prod.imgix.net/avatars/654d0c4ee86259004a0f0cd7/dbf4aa7b-44ff-4ac6-8973-1eb28fcd6d0f_GLY_cmyk123c_3.jpg?format=auto&amp;rect=0,0,891,891&amp;h=36&amp;w=36&gt; 		GLY Construction
+14432 Southeast Eastgate Way, Suite 300, Bellevue, WA 98007, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.yQqsIiWKQQR6EqHKqdUyUw.WPReyzKvFTST13UCvLoXUepT5NSNWNPoDzdLxIcA6Gu93YiAIZU8r9TkjkNCua_YnZieIcegT_C6LnVuYLWaYtFOZ6vKACP4maLjzPpfirp6wIhPzbHAdJML43TdHbt6R6_VH42rB9Fn1V433XxOyF6Hmqv-bIoTHfxQ8V6lvKUZhWjuvx6FofbK6bWxOY9-ALXrg-xkq7LMjAlFJCSBkpuKnVS8S6ZTH7jVY-RNDgMmAdL4TvOP3exCTTUq7heqDP_t9R1yABuIxacs_eNpcUjf2WjVH08unS8aie8LYgKAPgJ4Fomlrr0GKxwQNE2abUr94G0RGkA1QLiCkcDko6Kgd24UqYioJU10hs8_igql_pK8xZTH0yPmSm8irw5mMX_9ILjz8xIuarUggAW9uuxOtFm1urB3qZUd87feIkiiJvHtTaOL6TqocAEX0exQzYZ3XAU9Fu1dD8G6YaTGhEzRmy-cPQFy3SAJwDuD4-z6t8XpMoXwNcz0tSAPa7KcnwX40Krm0QCysQXnwTqaqbTo9xLRSnsSEXZ9VoUXOhzTCxJEYd7Dof_pgox6H7iY&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>FW: Issue for Bid Drawings Released - Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>GLY Construction</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -597,28 +658,28 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Issue for Bid Drawings Released - Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>October 10, 2024?</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>GLY Construction</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Rebecca Kline of GLY Construction sent your company a message about
@@ -658,28 +719,28 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Bid Invite: Seattle Public Library - University Branch Pr...</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>&amp;Seattle Public Library - University Branch Pr...</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Lydig Construction</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lydig Construction Inc.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/55b6df039ccd240a0031738c.png?auto=format&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
@@ -707,28 +768,28 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Bid Invite: Seattle Public Library - University Branch Pr...</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>**&amp;Seattle Public Library - University Branch Pr...</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Lydig Construction</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Lydig Construction Inc.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/55b6df039ccd240a0031738c.png?auto=format&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
@@ -756,28 +817,28 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>FW: BID DATE EXTENSION - Lobby Enhancements at Fourth &amp; Madison</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Lobby Enhancements at Fourth &amp; Madison</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Lobby Enhancements</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sellen Construction</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 BRIAN PETERSON
@@ -821,20 +882,20 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Mango - Bellevue Square Mall, Bellevue, WA</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>&amp;None</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">Good morning,
 We are currently bidding on a project at Bellevue Square in Washinton for a retail store MANGO. Please let me know if you are interested in bidding.
@@ -853,28 +914,28 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Abbott partitions takeoff - Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>September 24, 2024?</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Abbott Construction</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Raymond Woodard of Abbott Construction sent your company a message about
@@ -907,28 +968,28 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>FW: Abbott ceiling quantities - Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Abbott Construction</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -966,28 +1027,28 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Abbott ceiling quantities - Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>September 24, 2024?</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Abbott Construction</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Raymond Woodard of Abbott Construction sent your company a message about
@@ -1019,28 +1080,28 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Bids Due Today!! Reformation - Bellevue Square - Bellevue...</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Reformation - Bellevue Square - Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Weekes Construction</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Amber Newland of Weekes Construction sent your company a message about
@@ -1087,28 +1148,28 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>FW: Bids Due Today!! Reformation - Bellevue Square - Bellevue...</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Reformation - Bellevue Square - Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Weekes Construction</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -1158,24 +1219,24 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Bids Due Today!! Reformation - Bellevue Square - Bellevue...</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Reformation - Bellevue Square - Bellevue, WA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Weekes Construction</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Amber Newland of Weekes Construction sent your company a message about
@@ -1217,24 +1278,30 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements Graham, Washington (Pivotal Construction)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>10/07/2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>&amp;None</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Government / Public 	
+Square Footage: 	
+1,792</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
  &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pyYCB0TcmctpxtiBdUtjVCY-3DYVD9_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUguJY4M4OYHMhNUTs1MruFqHJa6NRTOE1UPYogc8-2BjXSIBMxioj8vH1AllXBKVimqW7gq5yQIkzEbSxIcEIOK7MQmoHvsMZIIFHDe1SHz2UVGshZho5vDSthm5WnPg1LAexhSV0G9-2B-2FWKLPcJMPpxpbXaj0fDb8UdQO0nWSMjHl8UKDr6bJsWKmX-2FReKJRKXqfQ69Tl7uaZiV-2FmmoLgOp3tegZYxjsFvKUVfdu9LEoffdYkjADF-2FmadCZdLKk0ZsV3tw3sWsWmsjwP4DaK1ZPq0wbZJF1nhiHfiEGX6WpzU6rahomQ9setTh-2BTaRV4HYbfTc2qH9UdH-2FIpkqFN166oTFNhNgVr2QwNXyKEGjQ-2Fl3-2FUhH6OqWuz9fPBNvUasao3Pc3tTkqDc-2FggZR8qOlVZ45b9YlG-2BKrz8aCIy3M0BmQ3g-3D-3D&gt; 	
@@ -1277,24 +1344,30 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements Graham, Washington (Pivotal Construction)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>10/07/2024</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>&amp;None</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Government / Public 	
+Square Footage: 	
+1,792</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
  &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pyYCB0TcmctpxtiBdUtjVCY-3D693B_Pr30EbW2cHRrFtWMCqfnZMgDtBBudX3AOI7a4n2xPvTkkwUbY-2FGfNaMPP490Z8STXrlaujtJU7oCuXFqWg5c50uCP1jRC6zbniTs-2Bi59fuQP9T-2F549GsgzXM2ScaDifYQC5Ikkss8ubtnRzlgtywa8cD9BgK1qNW5M9oNSsnWaHPM-2F1OR2AK55V9eT1VmaJziC4dwNOysXmliPAMYVHDsBA8mPY6JffIUd8KK1S2GyhST0bmHIDwFTQeCI4bU5aA11s3-2BwiFMGNjD4WvayD1xRJIRWyFa24UU9hCNMquQ0-2FxlgnlTUqW8sFOarkPwI5-2BQfiZdAxcgN2-2BYDzRvGrjX-2B-2F3Uj-2BANQAvddwwsFOvouMKvWYMuLAZBDTIxDyf8yDuo7JJBDGYZYy4-2B7YqHVdXUN-2Fr435bloR8sz3A-2F-2BJBVjOXGo604xWaDvoNQF8iF8pIfK8OH2IesJbl11Jq5evDt4s13DMiG5U-2FbmZ5XKXkESI-3D&gt; 	
@@ -1337,24 +1410,30 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements Graham, Washington (Pivotal Construction)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>10/07/2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>&amp;None</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Government / Public 	
+Square Footage: 	
+1,792</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
  &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pyYCB0TcmctpxtiBdUtjVCY-3D-XM0_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdhw00TrfSgyC-2FdI5dcu5nB2Krfz67-2F-2FY8MZ0D46lOZN9joR97QehYIw5N30rCsMF-2FpA1I9t0yGo-2B9vbJGnrtuV0oXBywCXpqlpUfgaw00-2Bl8Rrzd43jgO2RCXpY5tURshaLnQDYHKtS8p5N4RFHN7KLtqHzR-2BljTsFwgt0I76qfyMqbgBna3DUQ93xtsvnSdjA-3D-3D&gt; 	
@@ -1397,24 +1476,24 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Matheson Business Court Buildout  Administrative Office of the Courts  Bid</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Matheson Business Court Buildout Administrative Office of the Courts .</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351557972&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351557972&amp;sPassportKey=CDD62DA5D7D4CECBD38AD0FBA352E77F908D78AC&amp;sBidId=777782&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351557972&amp;sPassportKey=CDD62DA5D7D4CECBD38AD0FBA352E77F908D78AC&amp;sBidId=777782&amp;st=116&amp;e=1&gt; 
@@ -1442,24 +1521,24 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Matheson Business Court Buildout  Administrative Office of the Courts  Bid</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Matheson Business Court Buildout Administrative Office of the Courts .</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351557973&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351557973&amp;sPassportKey=526181BFE7FC9971D968509B43B934B677B32655&amp;sBidId=777782&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351557973&amp;sPassportKey=526181BFE7FC9971D968509B43B934B677B32655&amp;sBidId=777782&amp;st=116&amp;e=1&gt; 
@@ -1487,24 +1566,24 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Bid Invite: MANGO At Bellevue Project</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>October 8, 2024?</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>&amp;MANGO At Bellevue Project</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/5b980fbb0707b30012d610f9/f39813f4-d2f9-4afb-99bd-a169d585f508_360x360.png?format=auto&amp;rect=2,2,357,357&amp;h=200&amp;w=200&gt; 	
@@ -1532,28 +1611,28 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>FW: Bid Invite: Frontier Middle School Portable Improvements ...</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Pivotal Construction</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 PAUL GEORGESON
@@ -1594,28 +1673,28 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>FW: Bid Invite: Frontier Middle School Portable Improvements ...</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Pivotal Construction</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 PAUL GEORGESON
@@ -1656,24 +1735,24 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Taylor / West Weber Park District Pavillion Bid Reminder Notice</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>&amp;None</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351559493&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351559493&amp;sPassportKey=FA2CDE8E9A6269D3F1FBD9628ABC42F176345BE2&amp;sBidId=778371&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351559493&amp;sPassportKey=FA2CDE8E9A6269D3F1FBD9628ABC42F176345BE2&amp;sBidId=778371&amp;st=116&amp;e=1&gt; 
@@ -1701,24 +1780,24 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Taylor / West Weber Park District Pavillion Bid Reminder Notice</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>&amp;None</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351559492&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351559492&amp;sPassportKey=902616357B5EB6314FC742049B95BB84DCDB1C0F&amp;sBidId=778371&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351559492&amp;sPassportKey=902616357B5EB6314FC742049B95BB84DCDB1C0F&amp;sBidId=778371&amp;st=116&amp;e=1&gt; 
@@ -1746,28 +1825,28 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Bid Invite: Frontier Middle School Portable Improvements ...</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>**Frontier Middle School Portable Improvements</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Pivotal Construction</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 	
@@ -1795,1343 +1874,6 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Bid Invite: Frontier Middle School Portable Improvements ...</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>October 3, 2024?</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>**Frontier Middle School Portable Improvements</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Pivotal Construction</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
- &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 	
-Steven Barci from Pivotal Construction has invited you to bid on
-Frontier Middle School Portable Improvements: Drywall &amp; Framing
-View this RFP &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0519244409972istb&gt; 	
-Already know if Mehrer Drywall will bid on this RFP? Let Steven Barci at Pivotal Construction know:
-Bidding &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0619244409974istbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0619244409974istbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0619244409974istbws?state=UNDECIDED&gt; 	
-Project Details
-Location: 22110 108th Avenue East, Graham, WA 98338, United States of America
-Job Walk: October 3, 2024
-Bid Due: October 4, 2024
-A project consisting of portable improvements for the Bethel School District. Please submit your bids reflecting prevailing wages.
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0519244409972istb&gt; 	
-Client Details
- &lt;https://bc-prod.imgix.net/avatars/65c3c1f3c7b98c0059a9fa30/eaf0a2f6-4a0e-431c-8d58-f36ca07c4c59_steven.jpg?format=auto&amp;rect=0,0,1073,1073&amp;h=200&amp;w=200&gt; 		Lead: Steven Barci
-Estimator • +1 425-344-0351 • sbarci@pivotal-gc.com
- &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 		Pivotal Construction
-Redmond, WA 98052, United States of America 
-According to the BuildingConnected network, Mehrer Drywall performs Drywall &amp; Framing. If this is incorrect please click "Not Bidding", which allows you to choose the option "I don't do Drywall &amp; Framing".
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.oNz-NJgaYDquzd0FtDvrsw.Z6TNrwX05JLVQqJwul1nPxUCIN-PM492QydwBuDTFa9DT9JluJz8xibHE7YvPT_Mi7LXOLu3Ioi162Pj4dbAKQ5dczmSnY50AmSTQiSJ_fmLzF4dfNQKY_2NMK3VEudAZ9m9opKrdwXk8JpSZqzbHKB8mdA-gst0fwWuIuoBRt8dJSh-qs5mv2SPRLYFByJ-ALXfE1E7Jdy2jA1m1h51hT-64zPuMNCHcWZJDS3QH0IRghs4R26WvflUVHEd7Fub9r2E2UnqpvoqB-g5q2KBt1GmdQ2FLMSHZvm45u2aVQefCIhmIzQU_cKh9WmudTsDF__jZd0-qeAYTZsbR0qzbsyvNW4hYKaV0DA4YGwVWOr7espm4nC-N7_pYWsw-p6e_TLU__JYs9JRDVST2Af4vUzVdYJwkKMFvaY9F9yaZayjB7NUzW0WcitCQB1hC7Z-8qcWXdU0AmXFbaHIJI7-5-Y-JwJxZ1hMD_nT7QIFx-7HNRpvn6TuDFX6MluRAUpz9A_7empnJbrvr5rttHttJzqxGScTeoOINNdHqHtcD3Zdnr-i37gPVPdkjbOpszEqmlacIoJHG6EljmiIsR2LRg&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Bid Invite: Frontier Middle School Portable Improvements ...</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>October 3, 2024?</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>**Frontier Middle School Portable Improvements</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Pivotal Construction</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
- &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 	
-Steven Barci from Pivotal Construction has invited you to bid on
-Frontier Middle School Portable Improvements: Acoustical Ceilings
-View this RFP &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d419244408002istb&gt; 	
-Already know if Mehrer Drywall will bid on this RFP? Let Steven Barci at Pivotal Construction know:
-Bidding &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d519244408004istbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d519244408004istbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d519244408004istbws?state=UNDECIDED&gt; 	
-Project Details
-Location: 22110 108th Avenue East, Graham, WA 98338, United States of America
-Job Walk: October 3, 2024
-Bid Due: October 4, 2024
-A project consisting of portable improvements for the Bethel School District. Please submit your bids reflecting prevailing wages.
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d419244408002istb&gt; 	
-Client Details
- &lt;https://bc-prod.imgix.net/avatars/65c3c1f3c7b98c0059a9fa30/eaf0a2f6-4a0e-431c-8d58-f36ca07c4c59_steven.jpg?format=auto&amp;rect=0,0,1073,1073&amp;h=200&amp;w=200&gt; 		Lead: Steven Barci
-Estimator • +1 425-344-0351 • sbarci@pivotal-gc.com
- &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 		Pivotal Construction
-Redmond, WA 98052, United States of America 
-According to the BuildingConnected network, Mehrer Drywall performs Acoustical Ceilings. If this is incorrect please click "Not Bidding", which allows you to choose the option "I don't do Acoustical Ceilings".
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.HgGeIjtJiEnon0Tm6BXGaQ.wrfIB23N1wqAIdhVKjhIhP3vrbNYYaBoxdgzxP2C6XvD5fUfxDOS2wIvILcEUky6ZFHY67Pce7NPsZPz821ZzoDGT0I9Y3CJdddcDBlHgeKfeSY1_qGpDMWDRWwOQ3Ns5rPTgYjC28Bo0q_uULPn7WqnXNyxjuYSsknnMR0qdA7OsuA-Kc9b5GGcxlEd-gaz5MmoowHL02hckalpu_xa_SAU_WWIiOk3ad6dpV62luN0zDUqkk5YVQVUCB_aW-MSU4BceQaDZVTSVzKPp-GC56IHskfjq6GCEBgVCYZo1ZUoZPikym7HZ7Hj4tt-M3Wq0QaYreWQPIkALUo7-e_HGvgvrB7a1GmPY3RlRxgnScm4sOIoS13NXi4ijpSuneciJXg7GbWAATqraZl129dj1Z_iljkaA4ttpjoOy7YZf50DWndlqN5OPZ8sMHZX9ze5xbFa0ZNKEKvvnKSE6HUmnCx90ftFHgP8udF9bFHtkgiQNV51zkTcTa4ySzPwOX0FcdnK6GIlbAw_xzjL-uyfN109iWAkLXi3WSmQRq3HZ3IC9kFBc0OZKWzn_70UUYC1393G1yvonGmDF1hc1_oPB69gpXugwEugycYz2PCtdBU&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>FW: Plan Revision - H&amp;R Block 45708 Seattle, WA</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>September 30, 2024?</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>H&amp;R Block 45708 Seattle, WA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-________________________________
-From: Tanya Moore (Horizon Retail Construction) &lt;team@buildingconnected.com&gt;
-Sent: Monday, September 30, 2024 11:38:48 AM (UTC-08:00) Pacific Time (US &amp; Canada)
-To: Heather Mehrer &lt;heather@mehrer.com&gt;
-Subject: Plan Revision - H&amp;R Block 45708 Seattle, WA
- &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
-Tanya Moore of Horizon Retail Construction sent your company a message about
-H&amp;R Block 45708 Seattle, WA: Acoustical Ceilings
-Plan Revision
-ATTN BIDDERS: 
-A plan revision dated 9/11/24 has been uploaded with a revised scope of work.
-Please have revised bids to us by end of business 10/11/24.
-Thank you!
-Tanya Moore
-Project Coordinator
-262-865-6160
-TanyaM@horizonretail.com
-Attachments:
-H&amp;R Block 45708 Seattle, WA- Revised Bid Set 09-11-24.pdf &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c4e192443a5419jmr&gt; 
-H&amp;R Block 45708 Seattle, WA Scope of Work.pdf &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c4e192443a5419jmr&gt; 
-Reply to Tanya &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c4e192443a5419jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/6697d9e31080c9e806239e3f/bid&gt; 	 
-Already know if your company will bid on this RFP? Let Tanya Moore know.
-Bidding &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c55192443a5420jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c55192443a5420jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c55192443a5420jmn?state=UNDECIDED&gt; 	 
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 3238 Northeast 45th Street, Seattle, WA 98105, United States of America
-Bid Due: October 11, 2024
-You are invited to bid the H&amp;R Block 45708 located in Seattle, WA 98105.Please send all correspondence to TanyaM@HorizonRetail.com
-The following trades are required for this ...
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c4e192443a5419jmr&gt; 	 
-Sender Details
- &lt;https://bc-prod.imgix.net/avatars/66d8635f9defe0005790d65e/6295b725-72c9-4dfe-a1ef-5e3eaece0525_IMG_8950.JPG?auto=format&amp;rect=0,117,822,822&amp;h=36&amp;w=36&gt; 		Tanya Moore
-tanyam@horizonretail.com
- &lt;https://bc-prod.imgix.net/avatars/57a49d65877fc80a0011c6fc/f977e346-389b-460a-9879-578da698bb3a_HRC Logo.jpg?auto=format&amp;rect=0,0,665,162&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Horizon Retail Construction
-9999 East Exploration Court, Sturtevant, WI 53177, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.vnZNzMUsoLE7bQ6_n6JNUQ.50eLUTwIFuPE_WZ31FoKm0jGSElbcmXJQvskk7X2sZGBFn38AEGA3AkX4Dobnu40xxr10KAYsAOUvfuhth-laB8DVlVSMfAlNCG1nVkVdOptWrN82V0f2c6VPEGaRBuUknTdqI0x3HzdOSxYfSsraH66R7N0OX8LMttiN0BQk4KKTQS1UbhWs3GD2bNR3ixJsywMi8t6IuNPOJM33m4ZGjm47V9xP5ewZZtwgiXbsPirls88-_94_6qVNf2wqaraKpIr4ypd9qlBEWZzCGVZf3uc_hXiMyeW7PAt4g04Ph_RshTe-h_LzwPMx-er7qbfxaGjXnx9lVbKPwlWH8MHPUFzr8dNav4G03PQKmv0fU8iBiPVgUB5sDLDMTiLUI2r2eiN85HTxFHTmC170r_EfOM-NHY0JeulDgenUEJDfhmkE9-2mhP1AqltATvbKq2PVMaBsZVKFp6U3ngwmMneGUDsgKN8bDLCto9mud_qugTQF5UsRkGWOKZQ4beMnaALYwLvAN05vRFhVPXHkaKW4HjTKTv6I9RBRlS3Dhv3rOVqBdhp24O6WxVa8IK2zId9&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Plan Revision - H&amp;R Block 45708 Seattle, WA</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>October 11, 2024?</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>H&amp;R Block 45708 Seattle, WA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
-Tanya Moore of Horizon Retail Construction sent your company a message about
-H&amp;R Block 45708 Seattle, WA: Drywall &amp; Framing
-Plan Revision
-ATTN BIDDERS: 
-A plan revision dated 9/11/24 has been uploaded with a revised scope of work.
-Please have revised bids to us by end of business 10/11/24.
-Thank you!
-Tanya Moore
-Project Coordinator
-262-865-6160
-TanyaM@horizonretail.com
-Attachments:
-H&amp;R Block 45708 Seattle, WA- Revised Bid Set 09-11-24.pdf &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d473192443a303ejmr&gt; 
-H&amp;R Block 45708 Seattle, WA Scope of Work.pdf &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d473192443a303ejmr&gt; 
-Reply to Tanya &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d473192443a303ejmr&gt; 	
-Already know if your company will bid on this RFP? Let Tanya Moore know.
-Bidding &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d47c192443a3047jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d47c192443a3047jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d47c192443a3047jmn?state=UNDECIDED&gt; 	
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 3238 Northeast 45th Street, Seattle, WA 98105, United States of America
-Bid Due: October 11, 2024
-You are invited to bid the H&amp;R Block 45708 located in Seattle, WA 98105.Please send all correspondence to TanyaM@HorizonRetail.com
-The following trades are required for this ...
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d473192443a303ejmr&gt; 	
-Sender Details
- &lt;https://bc-prod.imgix.net/avatars/66d8635f9defe0005790d65e/6295b725-72c9-4dfe-a1ef-5e3eaece0525_IMG_8950.JPG?auto=format&amp;rect=0,117,822,822&amp;h=36&amp;w=36&gt; 		Tanya Moore
-tanyam@horizonretail.com
- &lt;https://bc-prod.imgix.net/avatars/57a49d65877fc80a0011c6fc/f977e346-389b-460a-9879-578da698bb3a_HRC Logo.jpg?auto=format&amp;rect=0,0,665,162&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Horizon Retail Construction
-9999 East Exploration Court, Sturtevant, WI 53177, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.SJ2P33wUO-bJe82OqrEKzw.bYq41pZfFIMWYHqTGQbLYhhGnvEyUYiwbDF1kJa_Ymi5K1FA7jsMbmHicyWZQ0iO71dxFUtbjJW3W-rDxdkvkdJmsB688Us6g_cVdghO5f_b8burcy-qir4Jpdu-Bq-oHHIIJFOpx-LZfW3AjbGJqhdCjyr8881x2POdmFXgmKx1kiRDl92wiSMZ-eldyvUNaROlGWz-JBQRdD-GbMrH4SoL9LEsFZg4GuzhWSHSkKyt721izAzwvCedBOsLktBNqcFSFO6b6bFR6rS5plWsO0Lc2IkDwg565J9BMmoeIq_NRaMcTlgV0ao8GJ83GMehHbWokvAkNXLcpXG-7kSVjOS7G0d9Po926fgjXGFxne3u45W06DYl0tWcpgcllBADA5WZ8co9t9edujviZF_TRbZg0uA84_AMwLAAiK86ktJ-WlISi0JC7O-tpMBvi_ZJo7wOdTm802WC6NV8StSuR8m4SGb79EDdf8LQyd4fdKGrda1ee_vqeU-83TcQLWvlIzPD6mbkF97WdDmwmBTcCzgVZCoDNTUgllCsNV0juIbQl_uzZe5j8rQJn7LG004j&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Timely Project Evaluations</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Hi,
-For all of your projects, as an estimation firm, we provide accurate and reliable estimates. You and our group of knowledgeable professionals will work together to guarantee that your project is completed on time and under budget. We provide comprehensive estimates that take materials, labor, and other project-related costs into account.
-To assist you in selecting the best options for your project, we also provide guidance and advice.
-Sincerely,                          
-Chloe Woods
-Project Estimator
-(832) 603-4694
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>H&amp;R Block 45708 Seattle, WA (31-24-0313) - New BidPackage Message - 31-24-0313 - H&amp;R Block 45708 Seattle, WA - Plan Revision</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>**H&amp;R Block 45708 Seattle, WA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;https://www.plansandspecs.com/UserFiles/Image/Horizon Retail W INFO.jpg&gt; 
-Bid Message 
-Horizon Retail Construction Inc.
-9999 E Exploration Ct
-Sturtevant, WI 53177
-Phone:(262)638-6000
-Coordinator: Tanya Moore, (262) 865-6160, TanyaM@HorizonRetail.com
-Estimating Contact 
-Mehrer Drywall Inc 
-P. (206)282-4288 
-F.Fax (206)285-2092 
-09260 Metal Stud &amp; Drywall - 
-09510 Accoustical Treatment - 
-Update Bidding Status:
-Will Bid &lt;https://www.plansandspecs.com//go.aspx?ID=5445515&amp;bldata=contact111097%3AAE-2A-30-AE-92-EB-84-16-71-52-57-06-AC-B3-9A-B9&amp;bs=WB&amp;BPRedirect=True&gt;  Will Not Bid &lt;https://www.plansandspecs.com//go.aspx?ID=5445515&amp;bldata=contact111097%3AAE-2A-30-AE-92-EB-84-16-71-52-57-06-AC-B3-9A-B9&amp;bs=NB&amp;BPRedirect=True&gt;  
-To access the project documents without logging in, copy this link to your browser. 
-https://www.plansandspecs.com/short.aspx?id=Km9UHmSu
-All documents are available at the StratusVue site www.PlansandSpecs.com &lt;https://www.plansandspecs.com/&gt; .   Upon login, click "My Bid Packages."
-________________________________
-H&amp;R Block 45708 Seattle, WA 
-3238 NE 45th St, Seattle, WA 98105
-Description:   Plan Revision 
-ATTN BIDDERS:
-A plan revision dated 9/11/24 has been uploaded with a revised scope of work.
-Please have revised bids to us by end of business 10/11/24.
-Thank you!
-Tanya Moore
-Project Coordinator
-262-865-6160
-TanyaM@horizonretail.com 
-If you have any questions, please contact Support@stratusvue.com &lt;mailto:Support@stratusvue.com&gt; or Phone at 847.876.1003 
- &lt;https://u20078023.ct.sendgrid.net/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5eHtv-2FjebF4CnC5oDXp75rO7pfCrzRHtt-2FkR8xbkZ2FhdUSOZaOtyaIZyc5gjiKYDNqGIJomzgJeDE5HArtPPckZtziYNJCR9QpDh3QgpWOR6a-2B-2BY0xpxuULjcGHL0dXQ3Xg60ibgiy138LlpQBbwuti9YWz-2BjhybuVYr-2Ba3vWfZBHRfgdz69PRPjdTqG4gug-3D-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bid Invite - Sterling Oreilly- Lakewood </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estimating,
-A bidmail invite has been sent, you can also click on the dropbox link for quick access to the bid docs
-Subs bids are due 10/02/24 
-Sterling - Culp RFP Documents
-https://www.dropbox.com/scl/fo/02iitca826haa14xmfdhj/ANwldP70_r3tdgRRQqkGq_4?rlkey=9sl9nesdvucywgw77ivn5wd0z&amp;st=sf53qal3&amp;dl=0 &lt;https://www.dropbox.com/scl/fo/02iitca826haa14xmfdhj/ANwldP70_r3tdgRRQqkGq_4?rlkey=9sl9nesdvucywgw77ivn5wd0z&amp;st=sf53qal3&amp;dl=0&gt; 
-This project is a take over from a General that had not completed scope. Refer to the Plan Mark Up Notes, Work Completed to Date marked up Sheets and the Attic Stock List of what has been procured and or installed. 
-Existing Building: former Go-Kart racing tenant, Costco before that. Proposed Use: Industrial / Warehouse (for future Amazon-type fulfillment center tenant, TBD). Pending / Incomplete Scopes of Work: Site Work (not completely finished by the previous GC). 
-Pending Site Work items include: Complete the Final 4 and 6 Base Course fine grading and compaction prior to asphalt topping and Curb &amp; Gutter installation. New Landscaping and Irrigation. Complete all work in the Right-of-Way. Complete all curb and gutter work. Faade Renovation. 
-Interior Shell Work. PROJECT DOCUMENTATION PROVIDED (please click this link to access): Bid Forms (RFP): Invitation to Bid and Form for General Bid Latest Drawings Sets: Please use the RFI SET of drawings for your bid; this set incorporates some RFIs from the previous GC. Work Completed to Date: Marked-up drawings and narrative by the Project Consultants indicating the scopes of work items completed to date, including Architectural and Civil mark-ups. Attic Stock List: List of equipment that has already been procured, currently being stored inside the building. These items shall not be part of the bid; only their installation / implementation as needed. ALTERNATE 1: A fire suppression system shall be included as an alternate. ALTERNATE 2: The Owner has requested the following items to be bid out and included as an Alternate: 1. Uniform roof insulation throughout. 2. Grade-level loading doors on the north end of the building with access into the yard area (requires relocating some of the landscaping to allow for access). 3. White-wash interior walls and uniform column painting (15 up from floor yellow, white to the roof). 4. Expand width of western facing grade-level loading doors to 14 height. 5. Remove all stains on visible watermarks on existing skylights. 6. Sack and fill exterior concrete wall cracks and re-paint, and re-caulk and seal all concrete tilt-up panel joints using CONFLEX XL(tm) TEXTURED HIGH BUILD ACRYLIC COATING CF12-800 SERIES (or equal). 
-Morgan Schuff PM 949-433-1760
-Rick Dunn Estimator 801-514-4229
-Thank you,
-Kim Hartshorn
-khartshorn@culpco.com &lt;mailto:khartshorn@culpco.com&gt; 
-949-727-3552 Office
-949-323-6181 Cell
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bid Invite - Sterling Oreilly- Lakewood </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estimating,
-A bidmail invite has been sent, you can also click on the dropbox link for quick access to the bid docs
-Subs bids are due 10/02/24 
-Sterling - Culp RFP Documents
-https://www.dropbox.com/scl/fo/02iitca826haa14xmfdhj/ANwldP70_r3tdgRRQqkGq_4?rlkey=9sl9nesdvucywgw77ivn5wd0z&amp;st=sf53qal3&amp;dl=0 &lt;https://www.dropbox.com/scl/fo/02iitca826haa14xmfdhj/ANwldP70_r3tdgRRQqkGq_4?rlkey=9sl9nesdvucywgw77ivn5wd0z&amp;st=sf53qal3&amp;dl=0&gt; 
-This project is a take over from a General that had not completed scope. Refer to the Plan Mark Up Notes, Work Completed to Date marked up Sheets and the Attic Stock List of what has been procured and or installed. 
-Existing Building: former Go-Kart racing tenant, Costco before that. Proposed Use: Industrial / Warehouse (for future Amazon-type fulfillment center tenant, TBD). Pending / Incomplete Scopes of Work: Site Work (not completely finished by the previous GC). 
-Pending Site Work items include: Complete the Final 4 and 6 Base Course fine grading and compaction prior to asphalt topping and Curb &amp; Gutter installation. New Landscaping and Irrigation. Complete all work in the Right-of-Way. Complete all curb and gutter work. Faade Renovation. 
-Interior Shell Work. PROJECT DOCUMENTATION PROVIDED (please click this link to access): Bid Forms (RFP): Invitation to Bid and Form for General Bid Latest Drawings Sets: Please use the RFI SET of drawings for your bid; this set incorporates some RFIs from the previous GC. Work Completed to Date: Marked-up drawings and narrative by the Project Consultants indicating the scopes of work items completed to date, including Architectural and Civil mark-ups. Attic Stock List: List of equipment that has already been procured, currently being stored inside the building. These items shall not be part of the bid; only their installation / implementation as needed. ALTERNATE 1: A fire suppression system shall be included as an alternate. ALTERNATE 2: The Owner has requested the following items to be bid out and included as an Alternate: 1. Uniform roof insulation throughout. 2. Grade-level loading doors on the north end of the building with access into the yard area (requires relocating some of the landscaping to allow for access). 3. White-wash interior walls and uniform column painting (15 up from floor yellow, white to the roof). 4. Expand width of western facing grade-level loading doors to 14 height. 5. Remove all stains on visible watermarks on existing skylights. 6. Sack and fill exterior concrete wall cracks and re-paint, and re-caulk and seal all concrete tilt-up panel joints using CONFLEX XL(tm) TEXTURED HIGH BUILD ACRYLIC COATING CF12-800 SERIES (or equal). 
-Morgan Schuff PM 949-433-1760
-Rick Dunn Estimator 801-514-4229
-Thank you,
-Kim Hartshorn
-khartshorn@culpco.com &lt;mailto:khartshorn@culpco.com&gt; 
-949-727-3552 Office
-949-323-6181 Cell
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Bid Invite: KCME Office - CT Scanner Room Remodel Project</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>&amp;KCME Office - CT Scanner Room Remodel Project</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Deacon Construction, LLC</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
- &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
-Steven Fields from Deacon Construction, LLC has invited you to bid on
-KCME Office - CT Scanner Room Remodel
-View the RFP for Metal Framing &amp; GWB » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f6192442a1632istb&gt; 
-View the RFP for Acoustical Ceilings » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f7192442a1635istb&gt; 
-View the RFP for Painting » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f8192442a1637istb&gt; 
-Already know if Mehrer Drywall will bid on this RFP? Let Steven Fields at Deacon Construction, LLC know:
-Bidding &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f9192442a163bistbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f9192442a163bistbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f9192442a163bistbws?state=UNDECIDED&gt; 	
-Project Details
-Location: 908 Jefferson Street, Level 2, Seattle, WA 98104, United States of America
-Expand existing X-ray room in the King County Medical Examiner's office for CT Scanner and Associated Equipment.
-Please send all bids to steven.fields@deacon.com
-Client Details
- &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Lead: Steven Fields
-steven.fields@deacon.com
- &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 		Deacon Construction, LLC
-8343 154th Ave NE #210, Redmond, WA 98052, USA 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.UZX1AfDQ7Bnh0cepIAHM7w.dzsapuoUsuR4VAS3p9i1CFJExjo-Of-7VdSPHOR5gUikYppsY6Lgk69peJBzeUaI4lcDUzNDUVONmE49tr7iGEJNavZ-GqE7BJSxuS8f_es0Fmd576Sf77fqystmfbgpP90mvc9hdDSELywCjmwvv32AdOp7MjRuPEQLBWIsug20R2pxDs_QKo_FldCuatCZqvoVXUojhBh4bn4pR8XhOInaGx_aKmkJ54imLSCqUZa3JbWpiiAzWigSUHrg5pR84n6ILRQu7N8uD6HCHEOvX8zzJlYHvJJsdbvc4cEvmp8xnDAgT4GJN2nj7Pvzz1JZZu-TZioBAfOuUVqPNvKwnGOLHD3bIf4ycJaIon5KTaJYps9KixQEcSIAOm0t6TjwfnJGmoE7dUEyJJBFHfAOwf9u13kZzNHDH1GHwio5jaQtxXYmggmHwdWagvx_HDc0GWvIsvE9-AHyELMtLVU03l21A37gwHg8BLxRY5Wz-DUobI3Vmh8hHNFgOjniV2W4txhzcEsYrRcj7RTjpC-hDgI5MasECwWrLueVy0oMJ5zJSsXwhP475FrmCl4x2wf3icCpOW6wHExRG6cSvwv-RhsZqC3ZnIpkt5EboUTSHVo&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Bid Invite: KCME Office - CT Scanner Room Remodel Project</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>**&amp;KCME Office - CT Scanner Room Remodel Project</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Deacon Construction, LLC</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
- &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
-Steven Fields from Deacon Construction, LLC has invited you to bid on
-KCME Office - CT Scanner Room Remodel
-View the RFP for Metal Framing &amp; GWB » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5fd192442a1648istb&gt; 
-View the RFP for Acoustical Ceilings » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5fe192442a164bistb&gt; 
-Already know if Mehrer Drywall will bid on this RFP? Let Steven Fields at Deacon Construction, LLC know:
-Bidding &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5ff192442a164distbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5ff192442a164distbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5ff192442a164distbws?state=UNDECIDED&gt; 	
-Project Details
-Location: 908 Jefferson Street, Level 2, Seattle, WA 98104, United States of America
-Expand existing X-ray room in the King County Medical Examiner's office for CT Scanner and Associated Equipment.
-Please send all bids to steven.fields@deacon.com
-Client Details
- &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Lead: Steven Fields
-steven.fields@deacon.com
- &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 		Deacon Construction, LLC
-8343 154th Ave NE #210, Redmond, WA 98052, USA 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.I6CgoJ_Tz1W6aLvUWgHTUA.RGe1iGrDcdj1zZVsU8QLV07z0XUgxOEjgNfrOXQzZuq92BCswnGGHeGZyoqh-iaB117tfNBAOf7MznrDYOpCcPyHlggbcU7pekZDW2mkUlsEaNFkWJzEbt1JGJONKbaLVlyN97JuYONZu40b6m_IBxOfrD81xBeF8Twj9z5IhlotbZSEewYK8yMY0_qKTk47XoOYBJA30Hsuhzpdz5jnIrZfBK-mgLESWhuGHfGAsQA6nD6ji4YcBM0cNBg3QuQzeFhFgHp95h4fl-vNMmdEVzfVjFWIBuDPucIGG2TxNOP0gPTW9TZCRWuebI8bBNdKsjqW7zYqJyF2Zf8RJ111wQJecQGJQGn4UVqyuFX7568LwssZ1KdV0_mBFqyPWj5BlzU1SS7yDhsYo5pzP6QBUcXyqOaduiMI9Nil4vrGGl_yatzvZyCTtsMpRKHacp6NpzmLi-Fy2oVwMbTZk8c_uKQekpwuQi009ui3_6HRDDjqCXSMo6QZFzzy_hj4_os5rO7V1k-FKkPGWwpGE8FLF7NlvzvMZRChqlkxEMVEM06ldQqR0Wv2jTpV7e3toX96Ah6jyofcy-YmZEBryfoVFw&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>** Addendum 5 Additional Documents ** - Sno-Isl Lake Stev...</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>October 4, 2024?</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Swinerton Builders</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
-Michael Kopson of Swinerton Builders sent your company a message about
-Sno-Isl Lake Stevens Library: Painting
-** Addendum 5 Additional Documents **
-All,
-Please see additional addendum 5 documents, also available in the files tab:
-*	Drawings
-*	Specifications
-*	Substitution Requests
-Thank you,
-Swinerton Project Team
-Attachments:
-Addendum 5.3 LAK Lake Stevens Library Project -Drawings.pdf &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt; 
-Addendum 5.2 LAK Lake Stevens Library Project -Specifications.pdf &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt; 
-Addendum 5.1 LAK Lake Stevens Library Project -Substitution Requests.pdf &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt; 
-Reply to Michael &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66d78abb17ced3a85e552ab3/bid&gt; 	
-Already know if your company will bid on this RFP? Let Michael Kopson know.
-Bidding &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a62d192441c2561jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a62d192441c2561jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a62d192441c2561jmn?state=UNDECIDED&gt; 	
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 128 99th Avenue Northeast, Lake Stevens, WA 98258, United States of America
-Bid Due: October 4, 2024
-Prevailing Wage Rates
-Apprentice Requirements 
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt; 	
-Sender Details
- &lt;https://bc-prod.imgix.net/avatars/5bcf8fab2b722a002cdf85a8/889b7984-4a4e-4bde-adde-51b9277ad7ef_Kopson_Mike.jpg?auto=format&amp;rect=313,503,1900,1902&amp;h=36&amp;w=36&gt; 		Michael Kopson
-Senior Estimator • +1 425-458-7747 • +1 425-229-5098 • mkopson@swinerton.com
- &lt;https://bc-prod.imgix.net/avatars/58e3ad316d95ab0b00b236bc/7aa7ba6b-8b41-487b-894f-d54474a65a72_New Swin Logo.PNG?auto=format&amp;rect=0,0,176,120&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Swinerton Builders
-170 120th Ave NE, Suite 100, Bellevue, WA 98005, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.b1pGhBJxv0WrNC0z2izDgQ.87oGq3TPLaoxLTj0K_Ws-MgwTbrxeinYV554AUvOeWBkxYRZBGBD1BkNV0jBDqgZxIocFb3c5QhghUmSyNtewNRrntIYGfSa_VeLSjECh0_4FeFeBkgz69ttsm9fKYmVEu6Pw6MxvhpxDXIeluH22ausi8l6Wfjp2ctlkeybZOYoPr_bebDo3eXeSTkZ1679n05GIFZk3h9oXvUa0ML_Rq-7AH5PB7lWEDrgtszX40mg2anCf8iJwX-j5iHjwtj0pMSLi5iZEBllV1YPOx18XukdT0cgw3JzIL6ZbEe-xIMH4xoszKlXIniGRL8chnjPgfM1-OFb_HkO0h-KLwGqFqpQWk3ChpURhYP9Vp8zUs9uV0zOPGuNAWDoW9yaN5TnoR8vQtDNXEjGn6Fr7OPD7QOBOFUquogfroDIhF-VKWNJFn967CaRQwm_g8XEqnYk7q2X8GtOCgOX6EwGEbhg-hwqWEm6KtPLcDbYKXNtX34DQ1vPVJ6JVWX7U8IbuI-nPbE06-5fsmcVAvED47PhJRMONvawwv617h64VCsKtxUWEd2Aud8YADEb-tTmTqbv&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>FW: ** Addendum 5 Additional Documents ** - Sno-Isl Lake Stev...</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>September 30, 2024?</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Swinerton Builders</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-________________________________
-From: Michael Kopson (Swinerton Builders) &lt;team@buildingconnected.com&gt;
-Sent: Monday, September 30, 2024 11:05:40 AM (UTC-08:00) Pacific Time (US &amp; Canada)
-To: Heather Mehrer &lt;heather@mehrer.com&gt;
-Subject: ** Addendum 5 Additional Documents ** - Sno-Isl Lake Stev...
- &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
-Michael Kopson of Swinerton Builders sent your company a message about
-Sno-Isl Lake Stevens Library: Wall Panels
-** Addendum 5 Additional Documents **
-All,
-Please see additional addendum 5 documents, also available in the files tab:
-*	Drawings
-*	Specifications
-*	Substitution Requests
-Thank you,
-Swinerton Project Team
-Attachments:
-Addendum 5.3 LAK Lake Stevens Library Project -Drawings.pdf &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt; 
-Addendum 5.2 LAK Lake Stevens Library Project -Specifications.pdf &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt; 
-Addendum 5.1 LAK Lake Stevens Library Project -Substitution Requests.pdf &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt; 
-Reply to Michael &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66d78a56c56d14a1bc0ed0bb/bid&gt; 	 
-Already know if your company will bid on this RFP? Let Michael Kopson know.
-Bidding &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199c7192441bf7dcjmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199c7192441bf7dcjmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199c7192441bf7dcjmn?state=UNDECIDED&gt; 	 
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 128 99th Avenue Northeast, Lake Stevens, WA 98258, United States of America
-Bid Due: October 4, 2024
-Prevailing Wage Rates
-Apprentice Requirements 
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt; 	 
-Sender Details
- &lt;https://bc-prod.imgix.net/avatars/5bcf8fab2b722a002cdf85a8/889b7984-4a4e-4bde-adde-51b9277ad7ef_Kopson_Mike.jpg?auto=format&amp;rect=313,503,1900,1902&amp;h=36&amp;w=36&gt; 		Michael Kopson
-Senior Estimator • +1 425-458-7747 • +1 425-229-5098 • mkopson@swinerton.com
- &lt;https://bc-prod.imgix.net/avatars/58e3ad316d95ab0b00b236bc/7aa7ba6b-8b41-487b-894f-d54474a65a72_New Swin Logo.PNG?auto=format&amp;rect=0,0,176,120&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Swinerton Builders
-170 120th Ave NE, Suite 100, Bellevue, WA 98005, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.1qTilOawV00o9fRroIBgaA.AhP_Y7_gce2Rt5ZVxRuuo5j5aEwGBT24cgNPCMh6c-3u3zvFcPAs7ObDBz_2FAuGflryBmiCKxHtTeXZoOWi6Dx-N_I-iMh1RvhvqaOfrMENNtOBEGAJ8IBY0bc9ejW_ONjgMgbbNfMl1qOETiG_p8rxo1usB6Mk3s5gg-hdSxT1wrl4Hz7QWW3DMHRshHJaJWnGGLHaBKDFGcrVUBVQsdZtxkLTNZQ9z5iqTMETvHWzBjKqRrc4ZvohJJm0VG-XfLHk6lahg7mGFgJ-t1Wxaq6oHBe-N3CzzQl7dSbh497LgxzhhFyTYfadxqO5KTbVAov4d_4zdVgi9rcIk8z5ZVI_MCoCKPLbg9yzndWObq3FKn2Yt94dqNLkeXvR-H77kjetHucmDqRw0VSAljZDwpZAl6zk37S-qiO9WKcT3Sibg1bBhQW6iMXwHWjmQm1F6OK3SLJyksAkfJ-PH0Kb1t7R6V0brNAznDY_eimen62L3x3o2jo9Bm07XSieDjMWkIfazDFjqQXoJevhWZSk1EMKHu5FTdOPTBH08o6fA-vndX9MA_YhsRohNAT2n675&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>** Addendum 5 Additional Documents ** - Sno-Isl Lake Stev...</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>October 4, 2024?</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Swinerton Builders</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
-Michael Kopson of Swinerton Builders sent your company a message about
-Sno-Isl Lake Stevens Library: ACT
-** Addendum 5 Additional Documents **
-All,
-Please see additional addendum 5 documents, also available in the files tab:
-*	Drawings
-*	Specifications
-*	Substitution Requests
-Thank you,
-Swinerton Project Team
-Attachments:
-Addendum 5.3 LAK Lake Stevens Library Project -Drawings.pdf &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 
-Addendum 5.2 LAK Lake Stevens Library Project -Specifications.pdf &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 
-Addendum 5.1 LAK Lake Stevens Library Project -Substitution Requests.pdf &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 
-Reply to Michael &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 	
-Already know if your company will bid on this RFP? Let Michael Kopson know.
-Bidding &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a45192441b6266jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a45192441b6266jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a45192441b6266jmn?state=UNDECIDED&gt; 	
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 128 99th Avenue Northeast, Lake Stevens, WA 98258, United States of America
-Bid Due: October 4, 2024
-Prevailing Wage Rates
-Apprentice Requirements 
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 	
-Sender Details
- &lt;https://bc-prod.imgix.net/avatars/5bcf8fab2b722a002cdf85a8/889b7984-4a4e-4bde-adde-51b9277ad7ef_Kopson_Mike.jpg?auto=format&amp;rect=313,503,1900,1902&amp;h=36&amp;w=36&gt; 		Michael Kopson
-Senior Estimator • +1 425-458-7747 • +1 425-229-5098 • mkopson@swinerton.com
- &lt;https://bc-prod.imgix.net/avatars/58e3ad316d95ab0b00b236bc/7aa7ba6b-8b41-487b-894f-d54474a65a72_New Swin Logo.PNG?auto=format&amp;rect=0,0,176,120&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Swinerton Builders
-170 120th Ave NE, Suite 100, Bellevue, WA 98005, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.gF7erzjPQNwcgZc7q-XXNw.9mS8yPlXPSIm8hkhqt70Ks-tue-JWWiQ3xHAunGsoJhSrIksH3MON8dsdQ1gj8BILeVjvUyO5x-YsmzG1jkosJ43XArcajYetFV1JDP2vtyCBgzTHOjD4dgH5Huu4UCLWlbadL1HcP5JY2XgEVGzmonhWdXhyn-D0b_GL5Utw3arKUO4DRvd_03o2W-DFnOh-7gR_EXSW3FS9Jo8akVo3ZmVOST3BM-Q0KEVYCRJitO5mP9JG9phz-lRJQIJq6mc3zfyc0XHP72QHN3x58o7sHbtiIBe057G53clEq_V0OjJUKYl6c_LuKTpUYFENDBuwdFgW8UhII5X91tfGgHePbI9ogKDuH815eDvNBWT73z8MNmkQD6adxy9J5xXRvcm6QcVJFvOrL4FsaO2g51JD8mOanEqPWSkgKm6lyJF4Ha4Yen05kqhvtMUWjUcsTdIyMHBWBMhkst8cU-sNZOMEr8qp6Gd3j_cs0M8wMNR8F-LsYYBZlrOE3TvWeFpBgfVvaO1q_zdwzt4EKEIPkcSYFYEoomN-RSAG4cC5xcvyhTd93aeLahPnFwpF4VGTzYa&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>RFI Responses Posted : Pet Supplies Plus - Burlington</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>October 1, 2024?</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Wilcox Construction, Inc.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilcox Construction, Inc. 	 &lt;https://opr.pipelinesuite.com/365/&gt; 	
-Estimating 
-234 5th Ave South 
-Edmonds, WA 98020
-PHONE: 425-774-4185
-FAX: 425-774-4187 	
-9/30/2024 	RFI Responses Posted 	
-Mehrer Drywall, Inc.
-ATTN: Rudy Smith
-Wilcox Construction, Inc. has added the following RFI Responses Posted for:
-Project: 	Pet Supplies Plus - Burlington 	Address: 	199 Cascade Mall Drive, Space No. D01A
-Burlington, WA 98233 	
-Bid Date: 	October 1, 2024 5:00 PM 	
-________________________________
-Summary: 	RFI responses have been posted and can be found in the OPR. Please make any necessary changes to your bid before the due date if affected.  	
-________________________________
-You have not responded to let us know if you are bidding or not. Please use the Response Link to let us know.
-Yes &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz-2FeI-2BQevr7PBfZ7Db7x0mTGlCYIa-2BjgBO7G64krxM19dw-3D-3Dtk9f_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUgtpGH-2F-2BlbgAIJCruw8hB3vxA4DwT2gwktJURIKiVh-2FDrAxqhT2nPp-2F4zHVf6ACPkEAlOtwUDDsHEJX1H3pjkPFDQrvxe3QDMLd8LpBxgY-2BTvm1TxSho-2BkCTlcErE3O4VOkLMAzy87O0qjMOy-2F-2BL0k3h6IjNZnDu-2BrDOFDTEp7qjyotkGl3UuLKwe9iqYerbvV6AP9q5DKxM4ERknyGuNutwYDqoh-2BMSdJRJQ-2BxveZ3uAWCxyhJNsZcsye1zhYQcOhKBjeyAGDvM-2BPzDyACxU-2FF-2Bn7feegVosRrhgeYbECYwfNfEk7sTuVD-2BuG-2BDaY-2FUUJA-3D&gt; 		No &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz-2FeI-2BQevr7PBfZ7Db7x0mTGaMS-2B2ohS3G82eib4u3aYEg-3D-3D98ti_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUgtpGH-2F-2BlbgAIJCruw8hB3vxA4DwT2gwktJURIKiVh-2FDrAxqhT2nPp-2F4zHVf6ACPkEAlOtwUDDsHEJX1H3pjkPFDQrvxe3QDMLd8LpBxgY-2BTvm1TxSho-2BkCTlcErE3O4VOkLMAzy87O0qjMOy-2F-2BL0k3h6IjNZnDu-2BrDOFDTEp7qjyoltvMB6zTPafOUzhX2sTkTjKWnu6r-2B31xxh4T-2Bxv6qvYC9Hk9oWjULdrwnd2WGsPEfw7bLLsT-2ByuF90mQC-2Fys8aimF7QRJVknmA4luK1HVZgs6xLwCTZk01m2G-2BwWHql-2B2nuC60OoYnE76nyuCCR0U-3D&gt; 		Unsure &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz-2FeI-2BQevr7PBfZ7Db7x0mTG-2F9vIOtG0uSGs8MaXG-2FFjwQ-3D-3Do8fK_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUgtpGH-2F-2BlbgAIJCruw8hB3vxA4DwT2gwktJURIKiVh-2FDrAxqhT2nPp-2F4zHVf6ACPkEAlOtwUDDsHEJX1H3pjkPFDQrvxe3QDMLd8LpBxgY-2BTvm1TxSho-2BkCTlcErE3O4VOkLMAzy87O0qjMOy-2F-2BL0k3h6IjNZnDu-2BrDOFDTEp7qjylJr3LgOAN5vxCkop-2BQL6Kdz4fEHm6CvGCvtaE9zxQYFDX2Hp-2FPZdYAy2fpymqqEq2SJvpt0gydpxv5EZoVYNQWtbAiPI5OMpdCB1ueBmPso2SdjKpZ4fL-2BPd-2FSmZheLb71J0mf4Yq4UIGFAedvvynE-3D&gt; 	
-View Files and Project Details &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz-2FeI-2BQevr7PBfZ7Db7x0mTG0-2FL57VRdvPFdzYXlbEscAQ-3D-3DzEOW_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUgtpGH-2F-2BlbgAIJCruw8hB3vxA4DwT2gwktJURIKiVh-2FDrAxqhT2nPp-2F4zHVf6ACPkEAlOtwUDDsHEJX1H3pjkPFDQrvxe3QDMLd8LpBxgY-2BTvm1TxSho-2BkCTlcErE3O4VOkLMAzy87O0qjMOy-2F-2BL0k3h6IjNZnDu-2BrDOFDTEp7qjygCaNSEGz2-2BAVbT2-2BIhqJJMoxE9wvVKeTGeC4XLqtCD5UMhTBXZfc7ZVisE2ksGVSz67IMTJ1ei6fEsLWevYW-2B1-2BjoXL4oYVaUKfecf3hN-2FJlEOW6YwSlBpRWLcxEJGcDWOOXUQef-2F-2Fna2hIIuTishM-3D&gt; 	
-Note: If you are unable to click on the above link, you can login at HTTPS://WILCOXCONSTRUCTION.PIPELINESUITE.COM
-HTTPS://WILCOXCONSTRUCTION.PIPELINESUITE.COM	 
-Project ID:	 302593	 
-Security Key:	 T2PH!LMwb	 	
-	 &lt;http://go.pipelinesuite.com/ls/click?upn=u001.D2FyDCcMgY5dp8-2BK-2BsliKm5-2FJVlJdS6fW066JmMpiuc-3DOFgo_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUgtpGH-2F-2BlbgAIJCruw8hB3vxA4DwT2gwktJURIKiVh-2FDrAxqhT2nPp-2F4zHVf6ACPkEAlOtwUDDsHEJX1H3pjkPFDQrvxe3QDMLd8LpBxgY-2BTvm1TxSho-2BkCTlcErE3O4VOkLMAzy87O0qjMOy-2F-2BL0k3h6IjNZnDu-2BrDOFDTEp7qjynOO33DxWB-2FYhEI3hP9E9h6hwCgV5kbyfjjSrmjh02I1wigBDMKwP773tIg0I5KOg0-2FB0JO0JwzdU1PNrtuSv71ZoY-2BaoSwHLW8aVe04S12XfoqvCkIe57UoB3g6A8DN12HSU53hBZv9SjcH9zv-2BSi4-3D&gt;  
-Bid Management Software © 2002-2024
- &lt;http://go.pipelinesuite.com/wf/open?upn=u001.rglcKlOpDZ4bvRET4xN-2F-2BMvcWFVCo9lUt6ZhIbvXMU2PrGmrkIQF-2Fada5zkAMhRqRI965-2FAFtrMnoHmwt-2BrV5IDN5CDapwadrmiSA3qt6WUJ5MOm5JVj7JQDdQH8nH1esMxdbrGHLEshrCUW5gnr3Mbbb6QfRY2mi-2B9qpa86nTzZSdIM-2B5GIcs9BEyiBUuFRkxl14719YMJSsFSv9byQXOoqCqN6hWOwaZn-2B91alJwE8RopKDfEysMRJD-2FX7GjZNRzvySNvOVqTpOaGMMF1eyv9WsMDkrABePQaDwCVEXCEjX-2F-2FlXFWnip9JA-2BOaK7h-2B4iZvgD1Mnxl7pccTyqmwtmapXiZHKa5GmCcI1UlO4p8-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>RFI Responses Posted : Pet Supplies Plus - Burlington</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>October 1, 2024?</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Wilcox Construction, Inc.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilcox Construction, Inc. 	 &lt;https://opr.pipelinesuite.com/365/&gt; 	
-Estimating 
-234 5th Ave South 
-Edmonds, WA 98020
-PHONE: 425-774-4185
-FAX: 425-774-4187 	
-9/30/2024 	RFI Responses Posted 	
-Mehrer Drywall, Inc.
-ATTN: Rudy Smith
-Wilcox Construction, Inc. has added the following RFI Responses Posted for:
-Project: 	Pet Supplies Plus - Burlington 	Address: 	199 Cascade Mall Drive, Space No. D01A
-Burlington, WA 98233 	
-Bid Date: 	October 1, 2024 5:00 PM 	
-________________________________
-Summary: 	RFI responses have been posted and can be found in the OPR. Please make any necessary changes to your bid before the due date if affected.  	
-________________________________
-You have not responded to let us know if you are bidding or not. Please use the Response Link to let us know.
-Yes &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz-2FeI-2BQevr7PBfZ7Db7x0mTGlCYIa-2BjgBO7G64krxM19dw-3D-3DjRuD_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFZYj32tDHOOtCCP3UkJru-2BDPMPHk-2Bt0gPA20gr-2BaT8pnL0k6joZLVV-2BMBXz16YRBc3qXrfZOOcreolnLUfBlSz4wL2XyHxXxdTOol9N1NKCWIAvI9v-2FKzBYIPHOnSvw7TRQZnsaLM1U-2BJAfFy7FDUqCfpO9HrBk3jH9AkOrKwCRr9nfMsxEzhbgLGYLFYwsge8mIc6VGWCr2JyEdsBk-2Fvdi9YVkcJYD1CvMNlRedqJ1Dz04ZWDgf7pHpw7E3FikY1q4L0n2aB1AIGyolYmzUI4xCiJRPUDkmbcSKrR26khsC8Ydjz3wq1kLx2Wkeu1mB-2BY-3D&gt; 		No &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz-2FeI-2BQevr7PBfZ7Db7x0mTGaMS-2B2ohS3G82eib4u3aYEg-3D-3D6834_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFZYj32tDHOOtCCP3UkJru-2BDPMPHk-2Bt0gPA20gr-2BaT8pnL0k6joZLVV-2BMBXz16YRBc3qXrfZOOcreolnLUfBlSz4wL2XyHxXxdTOol9N1NKCWIAvI9v-2FKzBYIPHOnSvw7TRQZnsaLM1U-2BJAfFy7FDUqCfpO9HrBk3jH9AkOrKwCRr4RmGO4okqGRiWO1Mzf9FRrLLdlse5cjo2TeVe1yznWKvt1eAzMyzq4YxbISLnrdbbx9-2FnEa8YL0Sz5qNZ8y-2BsznDVANregRGZugYbtZmFVJCaexGIJCXWeDtL0Qn78wwcGiREv9ieOhI4Jve-2Bcgv94-3D&gt; 		Unsure &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz-2FeI-2BQevr7PBfZ7Db7x0mTG-2F9vIOtG0uSGs8MaXG-2FFjwQ-3D-3DbQh-_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFZYj32tDHOOtCCP3UkJru-2BDPMPHk-2Bt0gPA20gr-2BaT8pnL0k6joZLVV-2BMBXz16YRBc3qXrfZOOcreolnLUfBlSz4wL2XyHxXxdTOol9N1NKCWIAvI9v-2FKzBYIPHOnSvw7TRQZnsaLM1U-2BJAfFy7FDUqCfpO9HrBk3jH9AkOrKwCRr4-2BUQXStyllIMbKgui60h-2BA5L4Jr58G1WyPJK4-2FvvmiB-2BPG3XSDsjJfInTKKNI3zUrhboO3o5PjZbTyw-2FyclI-2FV1f7rDe7tesJhfOAi1V1TVhCkl6BaT5tzbPAgV8E6hkmiofIIEe2Z-2B8FXgUEgzVZU-3D&gt; 	
-View Files and Project Details &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz-2FeI-2BQevr7PBfZ7Db7x0mTG0-2FL57VRdvPFdzYXlbEscAQ-3D-3DJXEZ_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFZYj32tDHOOtCCP3UkJru-2BDPMPHk-2Bt0gPA20gr-2BaT8pnL0k6joZLVV-2BMBXz16YRBc3qXrfZOOcreolnLUfBlSz4wL2XyHxXxdTOol9N1NKCWIAvI9v-2FKzBYIPHOnSvw7TRQZnsaLM1U-2BJAfFy7FDUqCfpO9HrBk3jH9AkOrKwCRrwVrvzvPevUI4k6zQAGcyoNbSDEOAKB1aRve6IjeNIY2K81GmQ-2B1CCjqBc7rpuNTOnkkHoRKoEPNTkOxuQieD5E2D6sAe-2BCm548ni-2BxaSSKsKEWOaTgqr2ZRQ864ls8utNnMIvnyMGPGmbOZoCI-2BbGk-3D&gt; 	
-Note: If you are unable to click on the above link, you can login at HTTPS://WILCOXCONSTRUCTION.PIPELINESUITE.COM
-HTTPS://WILCOXCONSTRUCTION.PIPELINESUITE.COM	 
-Project ID:	 302593	 
-Security Key:	 T2PH!LMwb	 	
-	 &lt;http://go.pipelinesuite.com/ls/click?upn=u001.D2FyDCcMgY5dp8-2BK-2BsliKm5-2FJVlJdS6fW066JmMpiuc-3D5H6P_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFZYj32tDHOOtCCP3UkJru-2BDPMPHk-2Bt0gPA20gr-2BaT8pnL0k6joZLVV-2BMBXz16YRBc3qXrfZOOcreolnLUfBlSz4wL2XyHxXxdTOol9N1NKCWIAvI9v-2FKzBYIPHOnSvw7TRQZnsaLM1U-2BJAfFy7FDUqCfpO9HrBk3jH9AkOrKwCRr3EIANal463W1NsJnHRjdPbgZsHowq4Ld4fRbQaMyqUpKy0c8hxdegoQITx2BlmI9rWnrVlluuWZwnDf7Hjp57IwxxjZVQfgHfjSZtBAn-2FkOnd6-2FL1S-2FkfUaR2XiUZxXeGeBM-2BSml-2FfUgPgTXxV2yEE-3D&gt;  
-Bid Management Software © 2002-2024
- &lt;http://go.pipelinesuite.com/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUiIgocOj-2BZLMf-2BFML6l6CuvffJb-2Bs5WxwCCd5-2FQQNrDxjahT5s6NqN6teR-2Bc3qlCy3p4-2F-2F10BRO7WeBAgTN67WKzkhy5tpKRvy68bIE-2F7vCIMVI8HcCR5WxjOAZESiE3H4VSycKq65u6jGCJATng7X1CIB-2BxfZT8-2FWj7-2FJhOLYQxwB-2F90rBvTTEcHgtZCWcTFAR-2FQeVOfN9d9B-2BtQUpZhvNp1iAR95-2BQ1VJq1KktCZwVjZdpTNZsmbEeGT7P4HSDKUR4owMibPbrg-2BRM3E6Ik-2BIub4q1iuQ42tRSUpGVUnVJ4SFrJjlU8NoRhw2LdQoJtc-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>RFI Responses Posted : Pet Supplies Plus - Burlington</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>October 1, 2024?</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Wilcox Construction, Inc.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilcox Construction, Inc. 	 &lt;https://opr.pipelinesuite.com/365/&gt; 	
-Estimating 
-234 5th Ave South 
-Edmonds, WA 98020
-PHONE: 425-774-4185
-FAX: 425-774-4187 	
-9/30/2024 	RFI Responses Posted 	
-Mehrer Drywall
-ATTN: Kurt Mehrer
-Wilcox Construction, Inc. has added the following RFI Responses Posted for:
-Project: 	Pet Supplies Plus - Burlington 	Address: 	199 Cascade Mall Drive, Space No. D01A
-Burlington, WA 98233 	
-Bid Date: 	October 1, 2024 5:00 PM 	
-________________________________
-Summary: 	RFI responses have been posted and can be found in the OPR. Please make any necessary changes to your bid before the due date if affected.  	
-________________________________
-You have not responded to let us know if you are bidding or not. Please use the Response Link to let us know.
-Yes &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz8kt2rB4KQNAtjhuWrkwFpxqu-2FW3QpNX0YGpqCNvBeWLQ-3D-3D8NjT_HT7OMOFQiTcnPmYL7QFDE-2BN-2F-2Bk4CKgchy-2F-2FJLsbp4TvYLudZmqqyyECheNAV5FVit-2FCT48SWGqWFcAQRzoaxrx8xwiJEE6Kzjb-2BIFBk2oLFupnga-2FNOANqKJ1ywRo4OEwnM8Fd1ZyIxSx4d2qcMTfiNGMqpjhxd4Bghj998QHijU8qG97TYXWrFeP1aNNsTUOKDKYSVXKTxZSXEY-2BBMBAXcgoVU6pzqAsBjsgp7BKA6V-2Fyjs4lZFbBunVoHJYHo9BpYTZ17mxkqkxiY0baqzhOfdEIbQbjyxa-2B0MtpWpeI3nFobxYcG7mnT5n0OOQQDAWx-2BGav-2BVd5tj-2F0Kq10Qx66BHBRQ19U0N6fVx-2Ffv-2BfnM-3D&gt; 		No &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz8kt2rB4KQNAtjhuWrkwFpxVDDsA-2Fe97wZJqbarz9GrJw-3D-3DP5AO_HT7OMOFQiTcnPmYL7QFDE-2BN-2F-2Bk4CKgchy-2F-2FJLsbp4TvYLudZmqqyyECheNAV5FVit-2FCT48SWGqWFcAQRzoaxrx8xwiJEE6Kzjb-2BIFBk2oLFupnga-2FNOANqKJ1ywRo4OEwnM8Fd1ZyIxSx4d2qcMTfiNGMqpjhxd4Bghj998QHijU8qG97TYXWrFeP1aNNsTUOKDKYSVXKTxZSXEY-2BBMBAXQ7H-2F2TiiwBX9HJBhgZca-2FwCrT9aHLYVvqpFowFAUbEsUb0mLz58ExLSANk6p0I9ycsTf6gTJvI0XDUel6IjE9gL2tbXRwhBO1K0eyPvXERpB8CUf0Jc9jRHWr3VYe22PuJClEA-2Bn-2FeVqjsXVDifNw-3D&gt; 		Unsure &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz8kt2rB4KQNAtjhuWrkwFpxDQ-2BtI3ZQD8k7aQ13WDhkiQ-3D-3DTOm7_HT7OMOFQiTcnPmYL7QFDE-2BN-2F-2Bk4CKgchy-2F-2FJLsbp4TvYLudZmqqyyECheNAV5FVit-2FCT48SWGqWFcAQRzoaxrx8xwiJEE6Kzjb-2BIFBk2oLFupnga-2FNOANqKJ1ywRo4OEwnM8Fd1ZyIxSx4d2qcMTfiNGMqpjhxd4Bghj998QHijU8qG97TYXWrFeP1aNNsTUOKDKYSVXKTxZSXEY-2BBMBAawpo5m96UyhW1Yjd6YIbR6qVfMeK4iXytBdHQwY-2FCO2foD0TZ91fSQptddMbU9p8HlSeUBrTtVNfTUpBVbKMjGm23pes81CoNZAs2UwjDXkmYzZfFouD7M0GkwBIU6SrnTR0Kqa0bmjp57EEGs7wEU-3D&gt; 	
-View Files and Project Details &lt;http://go.pipelinesuite.com/ls/click?upn=u001.B429M1W6BhjsWqgibptfJAWs9RYjYWXhqGtZwRinV-2B4Av10ceLxXoVua8ytfr7snS3p8incpVObt-2BhtqjIjJS6B23WbofFQm8nZ3rXebXz8kt2rB4KQNAtjhuWrkwFpx31chqBg-2Bw155ubCz5zGacQ-3D-3DnEVO_HT7OMOFQiTcnPmYL7QFDE-2BN-2F-2Bk4CKgchy-2F-2FJLsbp4TvYLudZmqqyyECheNAV5FVit-2FCT48SWGqWFcAQRzoaxrx8xwiJEE6Kzjb-2BIFBk2oLFupnga-2FNOANqKJ1ywRo4OEwnM8Fd1ZyIxSx4d2qcMTfiNGMqpjhxd4Bghj998QHijU8qG97TYXWrFeP1aNNsTUOKDKYSVXKTxZSXEY-2BBMBAU8YvGRjquvrVqBylB2uCJz2MeF1JniTyc9Lx47dxTxFZ-2FV2VzNx1tBKXTqu-2B2LEOSgWHuG37q9YfBwOE3zxT5HoDAQ6jUpaEJKVN6vVeDQLLaB46M-2Baq3-2BO7aNN6-2Bs-2BiSxZ-2B9BEdvvzlDMszNEeezY-3D&gt; 	
-Note: If you are unable to click on the above link, you can login at HTTPS://WILCOXCONSTRUCTION.PIPELINESUITE.COM
-HTTPS://WILCOXCONSTRUCTION.PIPELINESUITE.COM	 
-Project ID:	 302593	 
-Security Key:	 W#gp6qFRc	 	
-	 &lt;http://go.pipelinesuite.com/ls/click?upn=u001.D2FyDCcMgY5dp8-2BK-2BsliKm5-2FJVlJdS6fW066JmMpiuc-3Dz04G_HT7OMOFQiTcnPmYL7QFDE-2BN-2F-2Bk4CKgchy-2F-2FJLsbp4TvYLudZmqqyyECheNAV5FVit-2FCT48SWGqWFcAQRzoaxrx8xwiJEE6Kzjb-2BIFBk2oLFupnga-2FNOANqKJ1ywRo4OEwnM8Fd1ZyIxSx4d2qcMTfiNGMqpjhxd4Bghj998QHijU8qG97TYXWrFeP1aNNsTUOKDKYSVXKTxZSXEY-2BBMBAfmd1TkiHoCYsKNf0J3uobDC-2BHJXguYWWQCQCcap5uwraDnTyD8YRjgat1Hoz11HtzkIGrvt1X-2FxpIBQNbIozwpVPs3RIOFreTjbZyIkF16rqUkh5JN86yYuEean13iWe6HCuZYff8ef4TMYNjDvfxI-3D&gt;  
-Bid Management Software © 2002-2024
- &lt;http://go.pipelinesuite.com/wf/open?upn=u001.aK4PFhjIUQKpwICXA-2FTqgNSPaLaOWD9sqcgSYBQQl-2BODeBg99pr3XYvdpnZHaUYbYeS1JayefjiMfo7lyKvfoMGqk-2F88rl97WzoxyGBGJMwTtPGzYUaotcOHBZIscTFs1E1XG8RCUSofH6rnkmU93KUQ-2BepdbpQ1dwmwa2Mn0VNYqwXS-2FHKdhhJ9BWoU4j1tfMOP-2Fn4maFU-2BP23b13KvkuSiCz-2F4eM0tSrE5oyv3qeW7xigBE1NQzOF9e2CnC-2B-2Bkq1JTwFfONCEZCFIz7-2B3JVEGCDym-2FAi9LrHHtUrt9LqH0zZ3yMjw4cILgKs9h6UsNdWXPWe6CaB2Ju11oLc1i434Z3C39IJJXb6sCq5YbJKA-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Scope Sheet - SEA ATCT and S46 TRACON Major Mechanical Mod</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>TMG Construction</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
-Joe Rodenbeck of TMG Construction Corporation sent your company a message about
-SEA ATCT and S46 TRACON Major Mechanical Mod
-Scope Sheet
-Team,
-Please see the attached scope sheets for use in your proposal preparation. As a reminder, we are requesting that all subcontractor proposals be submitted to us by Wednesday, October 9th at 12:00 PM.
-Thank you,
-Joe Rodenbeck
-Attachments:
-28 31 11 - SEA ATCT and TRACON - Fire Alarm Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-31 00 00 - SEA ATCT and TRACON - Earthwork Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-02 20 00 - SEA ATCT and TRACON - Demo Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-05 12 00 - SEA ATCT and TRACON - Structural Steel Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-03 30 00 - SEA ATCT and TRACON - CIP Concrete Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-05 50 00 - SEA ATCT and TRACON - Misc. Metals Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-07 54 00 - SEA ATCT and TRACON - Roofing Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-07 81 00 - SEA ATCT and TRACON - Fireproofing Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-09 20 00 - SEA ATCT and TRACON - Drywall &amp; ACT Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-22 00 00 - SEA ATCT and TRACON - Plumbing Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-09 60 00 - SEA ATCT and TRACON - Flooring Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-23 00 00 - SEA ATCT and TRACON - Mechanical Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-23 09 23 - SEA ATCT and TRACON - Mechanical Controls Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-26 00 00 - SEA ATCT and TRACON - Electrical Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-23 00 01 - SEA ATCT and TRACON - Temp Heating &amp; Cooling Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-26 41 13 - SEA ATCT and TRACON - Lightning Protection Scope.pdf &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt; 
-Reply to Painting &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddee19243fd100ejmr&gt;  Reply to Drywall &amp; ACT &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddef19243fd100ejmr&gt;  	
-Already know if your company will bid on this RFP? Let Joe Rodenbeck know.
-Bidding &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddf519243fd1015jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddf519243fd1015jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fae08752f29e003b23ddf519243fd1015jmn?state=UNDECIDED&gt; 	
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 2440 South 166th Street, SeaTac, WA 98158, United States of America
-Sender Details
- &lt;https://bc-prod.imgix.net/avatars/57eec5a6a731980f0010bf1b/de872c9f-abad-4430-a55f-d3b393a7238a_Rodenbeck, Joe_social media.jpg?auto=format&amp;rect=36,31,902,902&amp;h=36&amp;w=36&gt; 		Joe Rodenbeck
-Program Manager • +1 571-550-0043 • jrodenbeck@tmgworld.net
- &lt;https://bc-prod.imgix.net/avatars/57c9859a8b71250f002f2c8f/b5f5a79e-5779-4bd9-b632-6f104a151d66_blueTMG copy.jpg?auto=format&amp;rect=10,65,2335,1769&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		TMG Construction Corporation
-741 Miller Drive Southeast, Suite D-3, Leesburg, VA 20175, United States of America 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.7N8ICWJ44_NAQ9F5UELFaw.rIrDGcp_CSPoTm0bEkXKcPm5HKwW1gkzc0gfK2yDpHnTlkOydt6he2M3zeYqbMeTgjuWvaCVJmIO-9M1f0o_h75s6CXtgqbj0Kz8_0_Q8DcCFWn2dVClt6_ziTfbI7F1kV32xB4DD-7esqinzYpmjRVMtOOCIR8nQd_dQ6YuAgu-xyDSmFy1YmBI27Pd5EzueuzNemKe7sCSGRKBZo8q_UH9YR7Nfj29KgUJ-auMpA6ydw3KO2zjLC2u62dd75wHcD8wil8_aOhGCktQSEAXZa4O-dk2pAoDhs08sVjVHpzkkNa7mGxdmK497CrnOnPAxOlBV7xWb--EPzhYaORobj8WRbR13SQQsoKxJzGvyZOT745XgMmhnmC5csjkqwgagFiunc7VjQn7fpCuLoaiaEtcJYiOcn0uTvQeTdofsSI6HFXBEEYA0sbLhiZtlNKLJ8fgFvRnRzFR2aT1743yRuljexXXTx_3NTLwacZNSiRQDH9tFX07jt_jEI1w4aXhYn6hod1jOxcgKrqBTOsLE0758S6bGFPa9JDW-cExwsUJDFuAjSx4TPJeABJ5yYpZBe9sMNVSVmzwT2kD_QG0cQ&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>KC Health Through Housing Sidney Wilson House REBID</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>October 8, 2024?</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hi Subs and suppliers
-This is a REBID of the project we bid on 8/22/24.     It is rebidding on Tuesday, October 8, 2024 at 1:30 PM.
-There are TWO bid items SIDNEY WILSON HOUSE and FEDERAL WAY  and (3) alternates. Please look at the 00 40 00 Bidding Schedule.
-There is a 15% SCS requirement.  Also a MCWA work agreement.
-Here is a LINK to the current bid documents:  https://ws.onehub.com/folders/d744nqzh &lt;https://ws.onehub.com/folders/d744nqzh&gt;          
-Thanks,
-Jaci McIsaac
-Estimator / Project Manager
-Phone: 425-640-5050
-Cell: 425-931-7070
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>FW: Russco Inc. has closed American Red Cross-Seattle, WA</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>September 30, 2024?</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-________________________________
-From: BuildingConnected &lt;team@buildingconnected.com&gt;
-Sent: Monday, September 30, 2024 10:16:43 AM (UTC-08:00) Pacific Time (US &amp; Canada)
-To: Heather Mehrer &lt;heather@mehrer.com&gt;
-Subject: Russco Inc. has closed American Red Cross-Seattle, WA
- &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
-Russco Inc. has closed
-American Red Cross-Seattle, WA: Acoustical Ceilings
-Message from client:
-Our team was Not Awarded with the contract for this project. We greatly appreciate the time, effort, and collaboration you extended during the bid process.
-We look forward to potential opportunities in the area where we can work together in the near future.
-Update the outcome to “Client not awarded” and archive this opportunity.
-&lt;https://click.pstmrk.it/3s/app.buildingconnected.com%2Fopportunities%2F66b11223d6b3fab535b615b9%2Fset-outcome-and-redirect-to-overview%3Foutcome%3DOTHER%26otherReason%3DCLIENT_NOT_AWARDED/FwMB/rV64AQ/AQ/8f98c86c-b2a3-4819-9cfa-ee6fb8d6d6e8/1/XKDV4mLye-&gt; Update outcome and archive &lt;https://click.pstmrk.it/3s/app.buildingconnected.com%2Fopportunities%2F66b11223d6b3fab535b615b9%2Fset-outcome-and-redirect-to-overview%3Foutcome%3DOTHER%26otherReason%3DCLIENT_NOT_AWARDED/FwMB/rV64AQ/AQ/8f98c86c-b2a3-4819-9cfa-ee6fb8d6d6e8/1/XKDV4mLye-&gt; 	 
-Client details
- &lt;https://bc-prod.imgix.net/avatars/5b11a1a7e65bdf000f143e41/e2ed7cb7-986b-4245-91df-07354bc59c49_Company Logo.jpg?auto=format&amp;rect=0,0,2602,646&amp;fit=fill&amp;bg=fff&gt; 	
-Russco Inc.
-565 Commerce Dr 2, Suite 2, Suite 2, Fall River, MA 02720, USA
- &lt;https://bc-prod.imgix.net/avatars/5c63193da59cef0013179e73/3cd392f5-9560-41a4-840b-ea044aace4a1_huuigyug.jpg?auto=format&amp;rect=0,0,200,200&gt; 	
-Monica Sahali Bethala
-mshahali@russcoinc.com • +1 508-674-5280 ext. 141
-www.buildingconnected.com  |  Click here for help &lt;https://click.pstmrk.it/3s/buildingconnected.zendesk.com%2Fhc%2Fen-us%3Fsolvvy%3Dtrue/FwMB/rV64AQ/AQ/8f98c86c-b2a3-4819-9cfa-ee6fb8d6d6e8/2/PdVokHF9SP&gt; 
-@ Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
-Unsubscribe &lt;https://click.pstmrk.it/3s/app.buildingconnected.com%2F_%2Femail-unsubscribes%2F54cad2d7f7fda105003f9267%2Fbb-project-close-notification/FwMB/rV64AQ/AQ/8f98c86c-b2a3-4819-9cfa-ee6fb8d6d6e8/3/BcbODU2cNc&gt;  from Project Close emails
- &lt;https://ea.pstmrk.it/open?m=v3_1.WbSSlnEK4F1IK3hNPx3TLw.A8H1e9Z63Z7LTUrE9dozq6lHiJKYuF8gyEmw7_pp65A2Ssj9jRUFJuxpamw9KR-WGWFHSCzWtpi6dBc3LGmGPlN-EgxajEJxvB75mBxAJDNY_vvlOqbf4e-x5rDwRxjbOvf4qXKRUMkdo-gMqkdP8OGt7HhS7XqDjfEG3CyNQQSY9h_fbjkGKDEgYN1R5g9COtsSGz9kVxrMtohvNMHqCANbhqiwpaWANIsFeGpHpGJ4_oZ1nmyLcNShOClDNttkDCQMH0--OPYEdcun0mjp3TSbg9EbBW9pRTTWlSM3P4-CX__2dovjrR3be1DBaUBvVkGhxd4xMYhoqjBzfigromkaGHgHc9RVP47AJLJvW2iWgcM0I3hToURwtZcASTMmkx_OSJzh1NH290aoZ_BBdiJl3LmOV7oQAJ70gFuWeX5IHyAPaQxuICGQs88GuE4hUENLOxxl6VQlrMxSD7fopApY5knY2B67eq6s2KhJiMhB55bxGIlMPS0nGvy5JSQkhqbZ6FEC5D-DxSkUjSkYCu4WbdjENqk6eMhGijkZbYnkh1lFiasSL2b5o6EVz-MJasnLQUfDhwUJ6CLRLsF09T9Li3bZiQFHZyGKrD0csxAGxDBC9QiMojZiPEofdEnuGoGzDo2Ni9wOQ6eTrGDCSQ&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Walmart Remodel # 3217-276 - Othello, WA Invitation to Bid - 20WEEK PROJECT</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>October 22, 2024?</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351474588&amp;oimg=1x1pic.gif&gt; 
- &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474588&amp;sPassportKey=C1BFED8F1470C94D2637B2F0CA1ECD4B64E8D454&amp;sBidId=779559&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351474588&amp;sPassportKey=C1BFED8F1470C94D2637B2F0CA1ECD4B64E8D454&amp;sBidId=779559&amp;st=116&amp;e=1&gt; 
-If this link does not work, please go to https://securecc.smartbidnet.com/LETI &lt;https://securecc.smartbidnet.com/LETI?st=102&gt;  and enter the access key: 7ecb7d1cf915182 	
-Yes, I'll Bid All Codes &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474588&amp;sPassportKey=C1BFED8F1470C94D2637B2F0CA1ECD4B64E8D454&amp;sBidId=779559&amp;iR=1&amp;st=103&amp;e=1&gt;  | No, I Won't Bid this Job &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474588&amp;sPassportKey=C1BFED8F1470C94D2637B2F0CA1ECD4B64E8D454&amp;sBidId=779559&amp;iR=0&amp;st=104&amp;e=1&gt;  | Click Here to View the Project &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474588&amp;sPassportKey=C1BFED8F1470C94D2637B2F0CA1ECD4B64E8D454&amp;sBidId=779559&amp;st=105&amp;e=1&gt;  	
- &lt;http://securecc.smartbidnet.com/Files/System_440/images/image005.png&gt; 
-3330 E. Louise Dr. Suite 300 Meridian, ID 83642 
-Phone (208) 362-3040 Fax (208) 362-3113
-www.esiconstruction.com 
-&lt;http://www.esiconstruction.com&gt; 
-INVITATION TO BID
-To: Mehrer Drywall (Seattle, WA) 
-Fax: (206) 285-2092 
-Trade Codes: 
-09110
-09250
-09510
-09910
-Phone: (206) 282-4288 
-Project Title: 	 Walmart Remodel # 3217-276 - Othello, WA 	
-Location:	 1860 EAST MAIN STREET - Othello, WA 99344- 	
-Bid Due Date:	 October 22, 2024 12:00 PM   (MT) 	
-ESI Contact:	 Tyler Caviness ,  tylercaviness@esiconstruction.com 	
-Project Description:	 Description: 
-SALES FLOOR: MOVE LOCATION OF ELECTRONICS DESK AND ADD DIGITAL DISPLAY BOARDS.CLEAN, PREPARE AND PAINT WALLS.REPAIR AND REPLACE FLOOR FINISHESINTERIOR WALLS: CLEAN, PREP AND PAINT EXTERIOR SURFACES: CLEAN, PREP AND PAINT. SIGNAGE: INSTALL/REPLACE EXTERIOR SIGNS, REVIEW CURRENT PICKUP SIGN LOCATION AND EVALUATE NEED FOR RELOCATION. REPLACE AND INSTALL EXTERIOR SIGNAGE REMOVE ROOF TOP EQUIPMENT ADD NEW ROOF TOP EQUIPMENT NEW EXTERIOR FIRE PUMP ROOM RESTROOMS: FAMILY RESTROOM, REFURBISH CUSTOMER RESTROOMS, REPLACE SINKS AND ACCESSORIES,RESTROOMS: NEW PLUMBING FIXTURES, ACCESSORIES AND FINISHES CUSTOMER SERVICE: REMODEL AS NOTED. NEW FINISHES AND ADD DIGITAL DISPLAYS CUSTOMER CHECK OUT AREA: REVISE LOCATION OF CASH REGISTERS AND OTHER EQUIPMENT,ADD SELF CONTAINED REFRIGERATED CASES PHARMACY: REMOVE THE OLD ONE AND ADD NEW PHARMACY, AS SHOWN. PHOTO LAB: RELOCATE ENTRY VESTIBULE: NEW VESTIBULE EXPANSION BREAK ROOM: REMODEL, INSTALL FIXTURES,NEW FINISHES 
-GARDEN CENTER : PAINT AND CLEAN GROCERY: REMODEL,REMOVE REFRIGERATED CASES AND EQUIPMENT. ADD REFRIGERATED CASES, EQUIPMENT, DIGITAL DISPLAYS AND NEW FINISHES ONLINE PICK UP: RELOCATE EXISTING OPERATIONS TO SALES FLOOR. IMPLEMENT PICKUP 2.0 AND REMODEL EXISTING PICKUP AREA. FIRE PUMP ROOM: INSTALL EXTERIOR FIRE PUMP ROOM AT REAR OF STORE. 
-Schedule: 
-Start: 1/26/2025 
-Ends: 6/15/2025 
-Please send any RFI’s to zackwalsh@esiconstruction.com 	
-Addenda:	 Acknowledge all Addenda on your bid form	 
-Tax:	 Clarify if tax is included and breakout as a separate line item	 
-Bid Submission:	 Upload all bids to Smartbid or email them to the contact specified in project description to ensure your bid received	 
-Accessing Bid Documents:	 To access the bid documents, click on the orange tab at the top of this invitation OR use the weblink, username, and password at the top left of this invitation. DO NOT contact the owner or architect for any reason, all RFI must go through ESI.	 
-Post Bid:	 Email for bid results: bidresults@esiconstruction.com &lt;mailto:bidresults@esiconstruction.com&gt;  DO NOT SEND BIDS TO THIS ADDRESS! See Bid submission above	 
-By clicking on any of the links in this email to access the Projects Details, you are also accepting ConstructConnect´s
-Terms of Use &lt;https://www.constructconnect.com/terms-of-use&gt;  and Privacy Policy &lt;https://www.constructconnect.com/privacy-policy&gt;  .
-To Unsubscribe from receiving invitations, please Click Here &lt;https://securecc.smartbidnet.com/External/Unsubscribe.aspx?DId=1351474588&amp;PId=10101886&amp;CType=1&amp;st=106&amp;e=1&gt;  
-This is an automated email communication so replies to this address will not be answered.
- &lt;http://em.smartinsight.co/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjBg10kM5SlSecUKpi6Zs2uTmybke-2F-2F5vM-2Bjvltp2dwd7swyI-2FkMl9GyHoUlhLmgdqoUf9h-2B8PRWY4WBtt5AduMekwKIUXLkqgYTiQSEdN6d9a5nupqiPVJ6-2FUgHh4pN-2FeynsKRe-2FC-2FUziWlemasFvIPK3lXpXiDrwRiRyFSv1Zk9sQYo3mGLnQTP2ukFzqhwNTNnccXY-2Fpu7Dh3Km8v5-2Fu9nMuOiygLh-2FVCb2NC7xKTgdk3sO8jsGU0oLDDzpAq8VyhCE1YZ-2BX0fJT-2FHe6CrhO464q3gcI9n9PuQ6pXJcCaI7rAD47coZeJylNwpybpUI-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Walmart Remodel # 3217-276 - Othello, WA Invitation to Bid - 20WEEK PROJECT</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>October 22, 2024?</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351474589&amp;oimg=1x1pic.gif&gt; 
- &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474589&amp;sPassportKey=FE1DFB384766BDC67852454C5956380154C8611E&amp;sBidId=779559&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351474589&amp;sPassportKey=FE1DFB384766BDC67852454C5956380154C8611E&amp;sBidId=779559&amp;st=116&amp;e=1&gt; 
-If this link does not work, please go to https://securecc.smartbidnet.com/LETI &lt;https://securecc.smartbidnet.com/LETI?st=102&gt;  and enter the access key: 127ecc1cf915182 	
-Yes, I'll Bid All Codes &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474589&amp;sPassportKey=FE1DFB384766BDC67852454C5956380154C8611E&amp;sBidId=779559&amp;iR=1&amp;st=103&amp;e=1&gt;  | No, I Won't Bid this Job &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474589&amp;sPassportKey=FE1DFB384766BDC67852454C5956380154C8611E&amp;sBidId=779559&amp;iR=0&amp;st=104&amp;e=1&gt;  | Click Here to View the Project &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474589&amp;sPassportKey=FE1DFB384766BDC67852454C5956380154C8611E&amp;sBidId=779559&amp;st=105&amp;e=1&gt;  	
- &lt;http://securecc.smartbidnet.com/Files/System_440/images/image005.png&gt; 
-3330 E. Louise Dr. Suite 300 Meridian, ID 83642 
-Phone (208) 362-3040 Fax (208) 362-3113
-www.esiconstruction.com 
-&lt;http://www.esiconstruction.com&gt; 
-INVITATION TO BID
-To: Mehrer Drywall (Seattle, WA) 
-Fax: (206) 285-2092 
-Trade Codes: 
-09110
-09250
-09510
-09910
-Phone: (206) 282-4288 
-Project Title: 	 Walmart Remodel # 3217-276 - Othello, WA 	
-Location:	 1860 EAST MAIN STREET - Othello, WA 99344- 	
-Bid Due Date:	 October 22, 2024 12:00 PM   (MT) 	
-ESI Contact:	 Tyler Caviness ,  tylercaviness@esiconstruction.com 	
-Project Description:	 Description: 
-SALES FLOOR: MOVE LOCATION OF ELECTRONICS DESK AND ADD DIGITAL DISPLAY BOARDS.CLEAN, PREPARE AND PAINT WALLS.REPAIR AND REPLACE FLOOR FINISHESINTERIOR WALLS: CLEAN, PREP AND PAINT EXTERIOR SURFACES: CLEAN, PREP AND PAINT. SIGNAGE: INSTALL/REPLACE EXTERIOR SIGNS, REVIEW CURRENT PICKUP SIGN LOCATION AND EVALUATE NEED FOR RELOCATION. REPLACE AND INSTALL EXTERIOR SIGNAGE REMOVE ROOF TOP EQUIPMENT ADD NEW ROOF TOP EQUIPMENT NEW EXTERIOR FIRE PUMP ROOM RESTROOMS: FAMILY RESTROOM, REFURBISH CUSTOMER RESTROOMS, REPLACE SINKS AND ACCESSORIES,RESTROOMS: NEW PLUMBING FIXTURES, ACCESSORIES AND FINISHES CUSTOMER SERVICE: REMODEL AS NOTED. NEW FINISHES AND ADD DIGITAL DISPLAYS CUSTOMER CHECK OUT AREA: REVISE LOCATION OF CASH REGISTERS AND OTHER EQUIPMENT,ADD SELF CONTAINED REFRIGERATED CASES PHARMACY: REMOVE THE OLD ONE AND ADD NEW PHARMACY, AS SHOWN. PHOTO LAB: RELOCATE ENTRY VESTIBULE: NEW VESTIBULE EXPANSION BREAK ROOM: REMODEL, INSTALL FIXTURES,NEW FINISHES 
-GARDEN CENTER : PAINT AND CLEAN GROCERY: REMODEL,REMOVE REFRIGERATED CASES AND EQUIPMENT. ADD REFRIGERATED CASES, EQUIPMENT, DIGITAL DISPLAYS AND NEW FINISHES ONLINE PICK UP: RELOCATE EXISTING OPERATIONS TO SALES FLOOR. IMPLEMENT PICKUP 2.0 AND REMODEL EXISTING PICKUP AREA. FIRE PUMP ROOM: INSTALL EXTERIOR FIRE PUMP ROOM AT REAR OF STORE. 
-Schedule: 
-Start: 1/26/2025 
-Ends: 6/15/2025 
-Please send any RFI’s to zackwalsh@esiconstruction.com 	
-Addenda:	 Acknowledge all Addenda on your bid form	 
-Tax:	 Clarify if tax is included and breakout as a separate line item	 
-Bid Submission:	 Upload all bids to Smartbid or email them to the contact specified in project description to ensure your bid received	 
-Accessing Bid Documents:	 To access the bid documents, click on the orange tab at the top of this invitation OR use the weblink, username, and password at the top left of this invitation. DO NOT contact the owner or architect for any reason, all RFI must go through ESI.	 
-Post Bid:	 Email for bid results: bidresults@esiconstruction.com &lt;mailto:bidresults@esiconstruction.com&gt;  DO NOT SEND BIDS TO THIS ADDRESS! See Bid submission above	 
-By clicking on any of the links in this email to access the Projects Details, you are also accepting ConstructConnect´s
-Terms of Use &lt;https://www.constructconnect.com/terms-of-use&gt;  and Privacy Policy &lt;https://www.constructconnect.com/privacy-policy&gt;  .
-To Unsubscribe from receiving invitations, please Click Here &lt;https://securecc.smartbidnet.com/External/Unsubscribe.aspx?DId=1351474589&amp;PId=15259410&amp;CType=1&amp;st=106&amp;e=1&gt;  
-This is an automated email communication so replies to this address will not be answered.
- &lt;http://em.smartinsight.co/wf/open?upn=u001.8ZOmvSz5OiX8MnF9OVIaVXwbAPjwO0rZzqDi2ZIdSiZTliUUXR53tPJ8plg7eFYjT65O1pSPm5TqSyo19eTlJmTDoN5ckCph2QfAeJ1tq4YjM7Pcq20E-2FRVmFm1ADZPXu1mhAEd8FTnOhpyAH7sli9azXX2gMFh3qsHwkONPs5K8TK2vdu2eVCzTfaNiAC1QG8kSu26xATsz7UGgDTrU2JAYaUKlt1FrEgIKfyLIcZ2VKidLn4r8Xex-2FTxEHDfQPp2IWWK3JMX18KVECV05Y3qLoYr1y7tdPbddhEeQ3CXtF20lFtzsaHfYPOXlc32E8TyjoqXe24eZU57wFJmE62LVdLbOOnPYQ4Sc3nhCSWZ8-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Walmart Remodel # 3217-276 - Othello, WA Invitation to Bid - 20WEEK PROJECT</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>October 22, 2024?</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351474587&amp;oimg=1x1pic.gif&gt; 
- &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474587&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351474587&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;st=116&amp;e=1&gt; 
-If this link does not work, please go to https://securecc.smartbidnet.com/LETI &lt;https://securecc.smartbidnet.com/LETI?st=102&gt;  and enter the access key: 788029e4a83d4 	
-Yes, I'll Bid All Codes &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474587&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;iR=1&amp;st=103&amp;e=1&gt;  | No, I Won't Bid this Job &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474587&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;iR=0&amp;st=104&amp;e=1&gt;  | Click Here to View the Project &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351474587&amp;sPassportKey=17B6AD1422386269EF88561CA3B743C121FD1955&amp;sBidId=779559&amp;st=105&amp;e=1&gt;  	
- &lt;http://securecc.smartbidnet.com/Files/System_440/images/image005.png&gt; 
-3330 E. Louise Dr. Suite 300 Meridian, ID 83642 
-Phone (208) 362-3040 Fax (208) 362-3113
-www.esiconstruction.com 
-&lt;http://www.esiconstruction.com&gt; 
-INVITATION TO BID
-To: Mehrer Drywall (Seattle, WA) 
-Fax: (206) 285-2092 
-Trade Codes: 
-09110
-09250
-09510
-09910
-Phone: (206) 282-4288 
-Project Title: 	 Walmart Remodel # 3217-276 - Othello, WA 	
-Location:	 1860 EAST MAIN STREET - Othello, WA 99344- 	
-Bid Due Date:	 October 22, 2024 12:00 PM   (MT) 	
-ESI Contact:	 Tyler Caviness ,  tylercaviness@esiconstruction.com 	
-Project Description:	 Description: 
-SALES FLOOR: MOVE LOCATION OF ELECTRONICS DESK AND ADD DIGITAL DISPLAY BOARDS.CLEAN, PREPARE AND PAINT WALLS.REPAIR AND REPLACE FLOOR FINISHESINTERIOR WALLS: CLEAN, PREP AND PAINT EXTERIOR SURFACES: CLEAN, PREP AND PAINT. SIGNAGE: INSTALL/REPLACE EXTERIOR SIGNS, REVIEW CURRENT PICKUP SIGN LOCATION AND EVALUATE NEED FOR RELOCATION. REPLACE AND INSTALL EXTERIOR SIGNAGE REMOVE ROOF TOP EQUIPMENT ADD NEW ROOF TOP EQUIPMENT NEW EXTERIOR FIRE PUMP ROOM RESTROOMS: FAMILY RESTROOM, REFURBISH CUSTOMER RESTROOMS, REPLACE SINKS AND ACCESSORIES,RESTROOMS: NEW PLUMBING FIXTURES, ACCESSORIES AND FINISHES CUSTOMER SERVICE: REMODEL AS NOTED. NEW FINISHES AND ADD DIGITAL DISPLAYS CUSTOMER CHECK OUT AREA: REVISE LOCATION OF CASH REGISTERS AND OTHER EQUIPMENT,ADD SELF CONTAINED REFRIGERATED CASES PHARMACY: REMOVE THE OLD ONE AND ADD NEW PHARMACY, AS SHOWN. PHOTO LAB: RELOCATE ENTRY VESTIBULE: NEW VESTIBULE EXPANSION BREAK ROOM: REMODEL, INSTALL FIXTURES,NEW FINISHES 
-GARDEN CENTER : PAINT AND CLEAN GROCERY: REMODEL,REMOVE REFRIGERATED CASES AND EQUIPMENT. ADD REFRIGERATED CASES, EQUIPMENT, DIGITAL DISPLAYS AND NEW FINISHES ONLINE PICK UP: RELOCATE EXISTING OPERATIONS TO SALES FLOOR. IMPLEMENT PICKUP 2.0 AND REMODEL EXISTING PICKUP AREA. FIRE PUMP ROOM: INSTALL EXTERIOR FIRE PUMP ROOM AT REAR OF STORE. 
-Schedule: 
-Start: 1/26/2025 
-Ends: 6/15/2025 
-Please send any RFI’s to zackwalsh@esiconstruction.com 	
-Addenda:	 Acknowledge all Addenda on your bid form	 
-Tax:	 Clarify if tax is included and breakout as a separate line item	 
-Bid Submission:	 Upload all bids to Smartbid or email them to the contact specified in project description to ensure your bid received	 
-Accessing Bid Documents:	 To access the bid documents, click on the orange tab at the top of this invitation OR use the weblink, username, and password at the top left of this invitation. DO NOT contact the owner or architect for any reason, all RFI must go through ESI.	 
-Post Bid:	 Email for bid results: bidresults@esiconstruction.com &lt;mailto:bidresults@esiconstruction.com&gt;  DO NOT SEND BIDS TO THIS ADDRESS! See Bid submission above	 
-By clicking on any of the links in this email to access the Projects Details, you are also accepting ConstructConnect´s
-Terms of Use &lt;https://www.constructconnect.com/terms-of-use&gt;  and Privacy Policy &lt;https://www.constructconnect.com/privacy-policy&gt;  .
-To Unsubscribe from receiving invitations, please Click Here &lt;https://securecc.smartbidnet.com/External/Unsubscribe.aspx?DId=1351474587&amp;PId=725176&amp;CType=1&amp;st=106&amp;e=1&gt;  
-This is an automated email communication so replies to this address will not be answered.
- &lt;http://em.smartinsight.co/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjBg10kM5SlSecUKpi6Zs2uTmybke-2F-2F5vM-2Bjvltp2dwd9J-2BuLVGH202sH7gU5sdF3WJ3Y8api0QxDnXh0AJ8-2Bcv6-2FST7WUvmfMTytk3iZSofOqRTva1kPl0sjsr8uMpB5SUMhgopWyqMTnqC6wSMFaicwOZ4CqQF6v-2FlI9B5R6HNZnZs6-2BbWlV1XdBbmqg-2FOuWL-2BcqxjJXLjMM57Y43p-2FUqgU6bmJAPjjkgnRVReOo9m9-2Bn0H-2BtPlZwweuC3ITt6MyvJ5-2BejzzNhJ24p9aRWOmMl0gFDWuaiZjKwZOCEGrm0w-3D-3D&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>FW: Pepsi Equipment</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>September 27, 2024?</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please see the attached and below. Thanks!
-Linda McMaster
-Office and JC Administrator
-TCL Partners
-16000 Mill Creek Blvd, STE #103
-Mill Creek, WA. 98012
-(425) 316-3500 direct
-(425) 320-3904 fax 
-From: Benjamin Mitton &lt;bmitton@northpointkc.com&gt; 
-Sent: Friday, September 27, 2024 3:03 PM
-To: Carl Merisko &lt;cmerisko@tclpartners.com&gt;
-Cc: Andrew Burrer &lt;aburrer@northpointkc.com&gt;; Brian Merisko &lt;bmerisko@tclpartners.com&gt;; Linda McMaster &lt;lmcmaster@tclpartners.com&gt;
-Subject: Re: Pepsi Equipment
-Carl,
-Please see the attached updated Bid Clarification form attached with answers to your questions 36-41 . I have also uploaded the spec for the in rack cooling system.
-Cascade Building 3 TI Bid Package &lt;https://northpointkc-my.sharepoint.com/:f:/p/bmitton/EgE497DKWK9CoGRRrpGCXYABYXCqDjUZgAsvFXfyoq2m2Q?e=mM0H0G&gt; 
-Let me know if there is anything else you have questions on.
-Thanks,
-Benjamin Mitton
-Development Associate
-C 801.822.8370
-www.BeyondTheContract.com &lt;https://www.beyondthecontract.com/&gt; 
- &lt;https://www.beyondthecontract.com/&gt; 
-3315 N. Oak Trafficway | Kansas City, MO 64116
-View Privacy Policy &lt;https://www.beyondthecontract.com/privacy-policy/&gt; 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>FW: Questions and Answers #2 - Rebid - FAA Seattle TRACON(S46...</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>September 30, 2024?</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Rebid - FAA Seattle TRACON(S46) and Seattle ATCT (SEA) Major Mechanical Upgrades</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-________________________________
-From: John Stalder (E Corp) &lt;team@buildingconnected.com&gt;
-Sent: Monday, September 30, 2024 9:46:02 AM (UTC-08:00) Pacific Time (US &amp; Canada)
-To: Heather Mehrer &lt;heather@mehrer.com&gt;
-Subject: Questions and Answers #2 - Rebid - FAA Seattle TRACON(S46...
- &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
-John Stalder of E Corp sent your company a message about
-Rebid - FAA Seattle TRACON(S46) and Seattle ATCT (SEA) Major Mechanical Upgrades : Drywall &amp; Framing
-Questions and Answers #2
-All,
-Additional questions and answers have been sent out. Please review.
-Please provide bids to me on Oct October 9th at Noon or earlier.
-Thanks
-John Stalder
-E-Corp
-801-771-0933x111
-Attachments:
-QA #2_Major Mechanical Upgrades Seattle TRACON - Submitted 09-26-2024.pdf &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e519243d31468jmr&gt; 
-Reply to John &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e519243d31468jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66db280cfe3e65005ae057fa/bid&gt; 	 
-Already know if your company will bid on this RFP? Let John Stalder know.
-Bidding &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227ec19243d31470jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227ec19243d31470jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227ec19243d31470jmn?state=UNDECIDED&gt; 	 
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 2440 South 166th Street, SeaTac, WA 98158, United States of America
-Bid Due: October 9, 2024
-3. Site Visit: A site visit is scheduled for Tuesday, September 10th, S46 from 0800-1000 and SEA from 1000-1200. 
-SCOPE OF WORK
-Detailed descriptions of the work to be performed can ...
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e519243d31468jmr&gt; 	 
-Sender Details
- &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		John Stalder
-Chief Estimator • +1 801-771-0933 ext. 111 • john@e-corp4u.com
- &lt;https://bc-prod.imgix.net/avatars/579789233b10f50a00f04669/2edfcdc2-4df8-414b-bd40-ee78fa06fa9a_E-Corp_logo_noblock.gif?auto=format&amp;rect=3,9,617,243&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		E Corp
-1598 N Hill Field Rd b, Suite B, Layton, UT 84041, USA 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.wLGspJHg63_LxHYxd79w5w.k11QygBOLDb1x7nxoSn_mgGZzaeTVK5LRoxOP09XiQJycq0hldmW8xF0UZx8IuxPsF6PjfYmOmNMZo8AzU_sFkRnuQg8J-FyTrRfsgQeuPixIMkD23HMnz7WBU_JbgtJZQpvb7AyznIvIqemOdnDn2SCj2VgbbHM8r1gSedDebcxn_4b4gFjFfIir_ugVQM67FZQbZ01JwThtPzKuwaj_6saXvbWrbDk78KH3lNwllGfSnY39az5LbmhBTpxAUzaLlY5k2pTxwsMhGUSQl1GXCEOJgNlZDfETCN95ZV-DxJ-jXMeHUTuSlRVlQtVW3HG0m7jNWdAqZRzt9qwxklTwK4tj0frnEC1-uJVMRagTF-pXyigVFqK8lXi0cFz51Hdk8U0VgkK0QtlKBad_pDgvMe7QQzrbjIxyGHtosKWpqIScPkwMW9775c1DkYPOvqhWwTJiJonij-tZ5CO75N8pdqV_iC5OY7eiLPW-1vStHo0rQrw6d4NeIe93ZAlfjiVtoJ80z5SvHWaM2pAyQY1pLPUoL5YgtoGOOQ7bnel0FoJYP8GL3SQmfvXB6Al3O8G&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Questions and Answers #2 - Rebid - FAA Seattle TRACON(S46...</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>October 9, 2024?</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Rebid - FAA Seattle TRACON(S46) and Seattle ATCT (SEA) Major Mechanical Upgrades</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
-John Stalder of E Corp sent your company a message about
-Rebid - FAA Seattle TRACON(S46) and Seattle ATCT (SEA) Major Mechanical Upgrades : Drywall &amp; Framing
-Questions and Answers #2
-All,
-Additional questions and answers have been sent out. Please review.
-Please provide bids to me on Oct October 9th at Noon or earlier.
-Thanks
-John Stalder
-E-Corp
-801-771-0933x111
-Attachments:
-QA #2_Major Mechanical Upgrades Seattle TRACON - Submitted 09-26-2024.pdf &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e019243d3145djmr&gt; 
-Reply to John &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e019243d3145djmr&gt; 	
-Already know if your company will bid on this RFP? Let John Stalder know.
-Bidding &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e719243d31468jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e719243d31468jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e719243d31468jmn?state=UNDECIDED&gt; 	
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 2440 South 166th Street, SeaTac, WA 98158, United States of America
-Bid Due: October 9, 2024
-3. Site Visit: A site visit is scheduled for Tuesday, September 10th, S46 from 0800-1000 and SEA from 1000-1200. 
-SCOPE OF WORK
-Detailed descriptions of the work to be performed can ...
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e019243d3145djmr&gt; 	
-Sender Details
- &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		John Stalder
-Chief Estimator • +1 801-771-0933 ext. 111 • john@e-corp4u.com
- &lt;https://bc-prod.imgix.net/avatars/579789233b10f50a00f04669/2edfcdc2-4df8-414b-bd40-ee78fa06fa9a_E-Corp_logo_noblock.gif?auto=format&amp;rect=3,9,617,243&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		E Corp
-1598 N Hill Field Rd b, Suite B, Layton, UT 84041, USA 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.XQ9dArqQwdmyFqzcjofPgw.fZxjeTW8y8qgpgqmv_Wqjuly9N4ySV91gKcaNbWtgBzLmQ7DHmkWzYRh3ghxNGNt5ATpnxqHnI0LoBVg0Y_l-9EPvRdIxrpiTIXm-_J5llzJdX-XPE5p1WHQVaaZlGu9YPc3Uv5D7fooyvVqvKUfqRKvrQqMUNDd0rFCqNruMHDxCnNxeEkCpFrANZYnalhaXkyup8n_3q0R6l2GJoWi4Xf7mXQpAKXRv9EbRS53s2oj0AJ53vgjyS6_im6lR8N8cBIQ9OiHlwpHB8hp59m4nLADXXwed56fsy0vWj7zeHz8j0taXAlCNPoMeZXkkEhEVERy1ZzAnHwDtGQMRWNRUqUA2pcyIt7Fq8z2sIDrk65vyySkzqFuz81d981NMi_uiCaLCFsMTPW9l6zRz-1a6uZ8vmltl6K05rSfMaJ8LJ1i6ittzBbh2E6ZHwVPozwb5t6UB_JfDFNY9MOwRLiQdFggRoZtd1i6orZBW9AOVo0pHsLxL1kujBEI7EQxJG6q0xy2wKzHHe003ZYMvMQUd9MgaBD_SEmXB9VRWI6vP7w&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Questions and Answers #2 - Rebid - FAA Seattle TRACON(S46...</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>October 9, 2024?</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Rebid - FAA Seattle TRACON(S46) and Seattle ATCT (SEA) Major Mechanical Upgrades</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">	
-John Stalder of E Corp sent your company a message about
-Rebid - FAA Seattle TRACON(S46) and Seattle ATCT (SEA) Major Mechanical Upgrades : Drywall &amp; Framing
-Questions and Answers #2
-All,
-Additional questions and answers have been sent out. Please review.
-Please provide bids to me on Oct October 9th at Noon or earlier.
-Thanks
-John Stalder
-E-Corp
-801-771-0933x111
-Attachments:
-QA #2_Major Mechanical Upgrades Seattle TRACON - Submitted 09-26-2024.pdf &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e819243d3146cjmr&gt; 
-Reply to John &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e819243d3146cjmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66db280cfe3e65005ae057fa/bid&gt; 	
-Already know if your company will bid on this RFP? Let John Stalder know.
-Bidding &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227ed19243d31475jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227ed19243d31475jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227ed19243d31475jmn?state=UNDECIDED&gt; 	
-You will no longer receive messages for this bid package if you select Not Bidding above
-Project Details
-Location: 2440 South 166th Street, SeaTac, WA 98158, United States of America
-Bid Due: October 9, 2024
-3. Site Visit: A site visit is scheduled for Tuesday, September 10th, S46 from 0800-1000 and SEA from 1000-1200. 
-SCOPE OF WORK
-Detailed descriptions of the work to be performed can ...
-View all files and project details » &lt;https://app.buildingconnected.com/goto/66fad5c7ed82b1005db227e819243d3146cjmr&gt; 	
-Sender Details
- &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		John Stalder
-Chief Estimator • +1 801-771-0933 ext. 111 • john@e-corp4u.com
- &lt;https://bc-prod.imgix.net/avatars/579789233b10f50a00f04669/2edfcdc2-4df8-414b-bd40-ee78fa06fa9a_E-Corp_logo_noblock.gif?auto=format&amp;rect=3,9,617,243&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		E Corp
-1598 N Hill Field Rd b, Suite B, Layton, UT 84041, USA 
-www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
-© Copyright 2024 BuildingConnected.com. All Rights Reserved.
-925 Mission St, San Francisco, CA 94103
- &lt;https://ea.pstmrk.it/open?m=v3_1.57MWBI8837NN-kH6KjHNnQ.qUHB6rcsq-L-Q5VUxjVGCGsFwIotBbtdkP_Kz0W3Ro4zCZRx17PAMZWTOx104bOe-seWyk0y9hvpDre74j9oB7nonbZTJtIykl74r_yEdMh1nBgbb8WAClIsyEMZtkvBe_IV6taPwosHMf4XMheNDU6Ere8Qm1KtRULn1-wZCaTe5w4eJvIDtDbS2fXr-aL-nkYxHozf5uXWph-ye1BUAA2YD7-xTCxPUQFqFJUNiP29C-pbQN-JfXDrICsuwj6CfOLPg8pigB3FWRQFdYBYEUEGRdqt7GB-0dLtlohYM8WZWQ_vzTA0sQ2bwxYvk8Ix3rVRC0x7QgwQBNCPT1lkpqs4TG8Yxq7uZpik9m0Byp1ZocbextAFkLQy-0K-PPr888rKJHPEYxre0ALAFQvo5iH8U174Wla9-G1ZqjWrpzlQr9jULtXo7DbT7UKKOeo6dghzVbmUupeL_ruYr2AoP_sMeT-PD10Yaf9O45WdM3QP1KUwdnLNaQyb21GwRccMoQj-lNdfyEq2spnAfd0NDkCkWLD74pcsI5qUq2rKuw0&gt; </t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bid_requests_calendar_new.xlsx
+++ b/bid_requests_calendar_new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,25 +463,632 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Softball Fields Restroom &amp; Concession Building: Invitation to bid on MTS Softball Restrooms and Concession Building</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>October 15, 2024?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&amp;MTS Softball Restrooms and Concession Building</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Washington Patriot Construction LLC</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ ͏ ‌     ﻿ 
+ &lt;https://braze-images.com/appboy/communication/assets/image_assets/images/64402e8dcb7e3b0050676047/original.png?1681927821&gt; 
+Bid Due: Tuesday, October 15, 2024 at 12:00 pm
+Washington Patriot Construction LLC
+Softball Fields Restroom &amp; Concession Building
+ &lt;https://storage.procore.com/v4/d/us-east-1/pro-core.com/prostore/20210426225235_production-us02_562950019250924.jpg?sig=080d53ab4dc2cbd67b813d194ddd94a8848c34301b5444b2f0055d4a75e872b4&gt; 
+Invitation to Bid
+Neil Shaw from Washington Patriot Construction LLC has invited you to bid on project Softball Fields Restroom &amp; Concession Building.
+View in Procore &lt;https://click.procore.com/f/a/YlkhpayOIcjOVP8x1ww1Vw~~/AAQRxQA~/RgRo3bVRP0SAaHR0cHM6Ly91czAyLnByb2NvcmUuY29tLzU2Mjk0OTk1MzQzNjY2MS9jb21wYW55L3BsYW5yb29tL3JvdXRlX3RvX2JpZF9zaGVldC81NjI5NDk5NTk0MTk2ODY_ZnJvbV9lbWFpbD1pbml0aWFsP2xpZD01ZGd4dHJma2piYXZXA3NwY0IKZvhRMPtmGMo0NlIPYmlkc0BtZWhyZXIuY29tWAQAAANw&gt;  
+Download Documents &lt;https://click.procore.com/f/a/ceWfXAwPibJ0fsntFz6YgQ~~/AAQRxQA~/RgRo3bVRP0SdaHR0cHM6Ly9zdHJlYW1pbmctdXMwMi5wcm9jb3JlLmNvbS9kb3dubG9hZD91dWlkPWIzN2JkZWE0MjU1NDFiY2EwZGY0MjU4OGU5Mzk2OTRiYTJmMmZjNTEyNDUwZDE4MTYwMWJjNjA1YmY5NjM0ZGYmY29tcGFueV9pZD01NjI5NDk5NTM0MzY2NjEmbGlkPWJpZHozYXA4cjhkZlcDc3BjQgpm-FEw-2YYyjQ2Ug9iaWRzQG1laHJlci5jb21YBAAAA3A~&gt;  
+Bid Submission via email
+To submit a bid, reply to this email with an attachment.
+Let Washington Patriot Construction LLC know if you intend to bid on this project:
+Will Bid &lt;https://click.procore.com/f/a/-akPNckCwzeBK2hdmdn3_w~~/AAQRxQA~/RgRo3bVRP0SRaHR0cHM6Ly91czAyLnByb2NvcmUuY29tL3dlYmNsaWVudHMvaG9zdC9jb21wYW5pZXMvNTYyOTQ5OTUzNDU4NzI1L3Rvb2xzL2N0L2JpZC1ib2FyZC81NjI5NDk5NTk0MTk2ODYvYmlkX2ltcG9ydD9pbnRlbnQ9d2lsbF9iaWQmbGlkPWNzNG56aGw2MmxqdlcDc3BjQgpm-FEw-2YYyjQ2Ug9iaWRzQG1laHJlci5jb21YBAAAA3A~&gt;  
+Will Not Bid &lt;https://click.procore.com/f/a/1q9kHrnnGjHEpAiI_u_VJQ~~/AAQRxQA~/RgRo3bVRP0TTaHR0cHM6Ly91czAyLnByb2NvcmUuY29tLzU2Mjk0OTk1NDc5NjM1Ni9wcm9qZWN0L3B1YmxpYy9iaWQvNTYyOTQ5OTU5NDE5Njg2L2ludGVudHMvcHVibGljX3NldF9iaWRfaW50ZW50P2JpZF91dWlkPTVjOWQ0NTQ1ZDA0OWNiMTIyYTYwZjI1M2Q2ZjY0MzllY2JmZjFlNWJmMjZhNWE4ZjA2ZDMzZGE0ZjhhZjIwM2Mmd2lsbF9iaWQ9ZmFsc2UmbGlkPXplZDg5cW5tMGRtNlcDc3BjQgpm-FEw-2YYyjQ2Ug9iaWRzQG1laHJlci5jb21YBAAAA3A~&gt;  
+Project Name
+Softball Fields Restroom &amp; Concession Building
+Bid Package Name
+MTS Softball Restrooms and Concession Building
+Project Information
+Construct a new 526sf concession building with restrooms and support spaces located near the Muckleshoot Tribal School Softball Fields.
+Instructions for Bidding
+     For help with submitting a bid, please visit Procore's bidding support page &lt;https://click.procore.com/f/a/wlmggHYt0WP0c-ntjwSfuQ~~/AAQRxQA~/RgRo3bVRP0RjaHR0cHM6Ly9zdXBwb3J0LnByb2NvcmUuY29tL3Byb2R1Y3RzL29ubGluZS91c2VyLWd1aWRlL3Byb2plY3QtbGV2ZWwvYmlkZGluZy90dXRvcmlhbHMvc3VibWl0LWEtYmlkVwNzcGNCCmb4UTD7ZhjKNDZSD2JpZHNAbWVocmVyLmNvbVgEAAADcA~~&gt; .
+Project Scope: 
+Division 03: Place concrete foundation. 
+Division 04: 8" CMU at 16" O.C.
+Division 08: Install (6) Hollow Metal Doors and hardware. Install (1) roll up door.  
+Division 09: Provide FRP wall finish in the kitchen, men &amp; women's restroom. Provide 6" rubber wall base in all rooms. Install acoustical ceiling. Install Hardie board soffit.
+Division 22: Tie in to existing water main. Install toilets, sinks, hand dryers, wall heater, and water heater. 
+Division 23: Install metal vents.
+Division 26: Tie in electrical and install lighting and panels.  
+Division 31: Excavate and backfill. 
+Special Notes: 
+*	Examples: prevailing wage rates, apprenticeship utilization, MWBE, etc.
+Bid Instructions:
+*	There are XX bid alternatives, please include these as applicable. 
+*	Other specific instructions
+*	List Certificate of Insurance requirements. Share a sample copy with other contract documents. 
+Questions
+*	Please email all questions to Project Manager Neil Shaw at nshaw@wapatriot.com &lt;mailto:nshaw@wapatriot.com&gt; . 
+*	Please submit questions as soon as possible. 
+Job Walk:
+Contact Neil Shaw if you are interested in a site visit. 
+Special Instructions to all bidders
+1.	All drywall/metal stud, mechanical and electrical bidders shall include firestopping/safing at their respective penetrations. Sound caulking and fire caulking shown at the bottom of GWB will be by GWB subcontractor. Sound insulation by insulation subcontractor.
+2.	All cutting and patching required for completion of a scope of work shall be included in the bid by each respective subcontractor or specific areas of work that you are excluding shall be defined and highlighted by plan sheet or spec for reference and pick-up by WA Patriot.
+3.	Access doors for plumbing valves, meters, testing ports, and clean-outs are by Mechanical, Plumbing, or Electrical.
+4.	WA Patriot’s schedule will be coordinated with its subcontractors. Once the opportunity for schedule comments have passed this schedule will become a part of the subcontract.
+5.	Subcontracts are required to pick-up their own debris and clean-up after its work on a daily basis. This project will not tolerate exclusions of this requirement.
+6.	Wage requirements and obligations to meet state and federal laws apply.
+7.	Core drilling as required by your scope of work.
+8.	Protection of existing site features and existing site as necessary to complete your scope of work. The existing site concrete will be protected by WA Patriot for access only. 
+	Access over site concrete shall be dictated by the protection provided. Any abuse of site features by not coordinating with WA Patriot or using the temporary access areas provided shall be at the subcontractors cost. 
+9.	All subcontractors responsible for attending preconstruction meetings (initial, preparatory, and follow-up).
+10.	Daily fill out and review of pre-task planning sheets.
+11.	All subs required to read, follow and sign that they understand WA Patriot’s Accident Prevention Plan and site specific plan (SSSP) and will follow it.
+12.	All subs required to provide their own job specific safety plan and comply with WA Patriot’s safety program.
+13.	Shop drawings, submittal product data, and subcontractor schedule will be requested and must be complied with.
+14.	For any incomplete scope of work or design element related to your scope of work; provide price and state assumption or show price separately so GC can add or leave out price based on coordination with you.
+15.	Completely filled out WA Patriot subcontractor pricing cover sheet (if requested).
+16.	Value engineering ideas.
+17.	All substitution requests must be submitted prior to bid or else the specifications must be met.
+18.	Acceptance of this document with the terms of your subcontract.
+19.	COI Requirements: 
+	1.	General liability: $1M each occurrence, $2M general aggregate
+	2.	Automobile liability: $1M
+	3.	Umbrella liability: $5M
+	4.	Workers comp: $1M
+The bidder shall bid in complete accordance with the General and Supplementary Conditions of the documents.  The bidder shall agree to enter into a contract with WA Patriot per the terms of WA Patriot's standard subcontract (copy available for review at main office).
+WA Patriot reserves the right to reject any or all bids and to waive any informalities or irregularities in the bids received.
+Bid Documents
+1.	RFP - MTS Softball Restrooms
+2.	24-0912_MTS-Softball_Restroom-Civil
+3.	24-0913-MTS-Softball_Restrooms-Arch-Struct
+WA Patriot is an equal opportunity employer, including disability and protected veteran status. Annual goals are as follows: Minority - 7.2% | Female - 6.9% | Disability - 7% | Veterans - 5.5%.
+Client Details
+Neil Shaw – nshaw@wapatriot.com &lt;mailto:nshaw@wapatriot.com&gt; 
+Office: 253-853-2304, Mobile: 360-481-1594
+Washington Patriot Construction LLC - Gig Harbor, Washington 98332 United States
+View Bid Package &amp; Submit Bid in Procore &lt;https://click.procore.com/f/a/R1NzIaIGWYRgj91TKqJjpg~~/AAQRxQA~/RgRo3bVRP0SAaHR0cHM6Ly91czAyLnByb2NvcmUuY29tLzU2Mjk0OTk1MzQzNjY2MS9jb21wYW55L3BsYW5yb29tL3JvdXRlX3RvX2JpZF9zaGVldC81NjI5NDk5NTk0MTk2ODY_ZnJvbV9lbWFpbD1pbml0aWFsP2xpZD10bzQydjdyMm95M3RXA3NwY0IKZvhRMPtmGMo0NlIPYmlkc0BtZWhyZXIuY29tWAQAAANw&gt; 
+Join the Procore Construction Network to receive more bids for relevant work
+Get discovered and win more work by creating a business page on the Procore Construction Network. Claim your free account to easily build estimates, respond to bids, and manage your projects.
+ &lt;https://braze-images.com/appboy/communication/assets/image_assets/images/6442cdb64a35d2004f6bcef2/original.png?1682099638&gt; 
+Join Network &lt;https://click.procore.com/f/a/TF1sOVzvtzlTLRtKqJRxZQ~~/AAQRxQA~/RgRo3bVRP0QzaHR0cHM6Ly9wcm9jb3JlLmNvbS9uZXR3b3JrL3NpZ251cD9saWQ9cW5wb2psNWszZ3lnVwNzcGNCCmb4UTD7ZhjKNDZSD2JpZHNAbWVocmVyLmNvbVgEAAADcA~~&gt;  
+Learn More &lt;https://click.procore.com/f/a/-sSRDNF4-D6gebDBXfhpnA~~/AAQRxQA~/RgRo3bVRP0RgaHR0cHM6Ly9zdXBwb3J0LnByb2NvcmUuY29tL2ZhcS93aGF0LWlzLXRoZS1wcm9jb3JlLWNvbnN0cnVjdGlvbi1uZXR3b3JrP2xpZD10NHJ4MnZkMmN1eHMjQW5zd2VyVwNzcGNCCmb4UTD7ZhjKNDZSD2JpZHNAbWVocmVyLmNvbVgEAAADcA~~&gt;  
+ &lt;https://braze-images.com/appboy/communication/assets/image_assets/images/6442cf2fa844fe004cb9a87f/original.png?1682100015&gt; 
+support@procore.com &lt;mailto:support@procore.com&gt;  | http://support.procore.com &lt;https://click.procore.com/f/a/s7T1RGK0zffEY2pcGhoJBA~~/AAQRxQA~/RgRo3bVRP0QraHR0cDovL3N1cHBvcnQucHJvY29yZS5jb20_bGlkPWRma29zdHN5MWpraVcDc3BjQgpm-FEw-2YYyjQ2Ug9iaWRzQG1laHJlci5jb21YBAAAA3A~&gt; 
+This email address is unmonitored - Do not reply.
+To unsubscribe, please check your settings or talk to your company administrator.
+ &lt;https://click.procore.com/q/G11MfrJBvq4XxATB-71Dzg~~/AAQRxQA~/RgRo3bVRPlcDc3BjQgpm-FEw-2YYyjQ2Ug9iaWRzQG1laHJlci5jb21YBAAAA3A~&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bid Invite: MANGO at Bellevue, Bellevue Square Project</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&amp;MANGO at Bellevue, Bellevue Square</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ISC Contracting</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+ &lt;https://bc-prod.imgix.net/avatars/62a748bdc9bf6500666a7c16/a43cb008-39f4-42ac-972f-fa7c7eca460e_57894 ISC Contracting LOGO and AD Slick 2015 OL_Page_1.jpg?auto=format&amp;rect=216,162,386,386&amp;h=200&amp;w=200&gt; 	
+Tanya Hood from ISC Contracting has invited you to bid on
+MANGO at Bellevue, Bellevue Square
+View the RFP for Finishes - Painting » &lt;https://app.buildingconnected.com/goto/66fb2a2b03b4dc00462e6d7d192451cb982istb&gt; 
+View the RFP for Drywall &amp; Framing » &lt;https://app.buildingconnected.com/goto/66fb2a2b03b4dc00462e6d7e192451cb985istb&gt; 
+Already know if Mehrer Drywall will bid on this RFP? Let Tanya Hood at ISC Contracting know:
+Bidding &lt;https://app.buildingconnected.com/goto/66fb2a2b03b4dc00462e6d7f192451cb987istbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fb2a2b03b4dc00462e6d7f192451cb987istbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fb2a2b03b4dc00462e6d7f192451cb987istbws?state=UNDECIDED&gt; 	
+Project Details
+Location: 265 Bellevue Square, Bellevue, WA 98004, United States of America
+You are being invited to submit a proposal for work at MANGO at Bellevue, Bellevue Square, 265 Bellevue Square, Bellevue, WA 98004.
+MANGO is undergoing a significant expansion. We...
+Client Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Lead: Tanya Hood
+tanyahood@isccontracting.com
+ &lt;https://bc-prod.imgix.net/avatars/62a748bdc9bf6500666a7c16/a43cb008-39f4-42ac-972f-fa7c7eca460e_57894 ISC Contracting LOGO and AD Slick 2015 OL_Page_1.jpg?auto=format&amp;rect=216,162,386,386&amp;h=200&amp;w=200&gt; 		ISC Contracting
+1545 S Kingshighway Blvd, St. Louis, MO 63110, USA 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.l_hjdB11nqq7LH57Xg_cgA.HNCDDhyvmmVSQ10P3o1UhT_HeNZTT3U4ofODQXrB0Pxqh0XB7ZtNgWgS5gV_t14BuYU6PtgjlU7eInfeYJuempYl5WK7KjReM-f5sYzx8a2hHLjmBmNKfMFA297g_0QcyLYUG3JhezU8Zv0xnLw0W6L28h2bJRlbK7bOGC-DFh2kM2wQI54dVrGYOR3vRC3WaTQAWRXJfXlBX3JZmUyCaorFTbRsZvZpZymib0jaiu0WBCAvMhV6AFvGiHyDcfpufn0wU7fYikdV7KJGrjSLWHWkJXqxNO8iK1HXkKH65pPF8pst-mM_TRtvAWkdfzga-8kt8WpVRycS_ENQCozwBIAK5NUtsfApfwCHw1fZgjBUI_NviZblR5oDHgctDKouP8_LzEllQoEfYl4kDbRywB4b9r0wG5_lqerSBxfAFPsvuxX197SWp69yykV2i1lTwVSsBoUKm3yyfLFwxoPX8Q0hXcggS9I4zxNjbVmo-iFZfiNI78vsgpWUcWHuUWZTrPKwfyReHNMfXcHN1dCi0f5yJdLo9sv-nm-RkZwTJF7wH967Rt81UO-SlV8N2zUkSi_mnlYuyJkUV1ek3HRoiA&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bid Invite: Amazon Kuiper Cafe Refresh (SEA129) Project</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&amp;Amazon Kuiper Cafe Refresh (SEA129)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sellen Construction</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+ &lt;https://bc-prod.imgix.net/avatars/59dcebe7834880000e8cbd63/219950d9-f3d2-4416-8ad1-fdbbf5994f73_Logo.JPG?format=auto&amp;rect=2,0,459,460&amp;h=200&amp;w=200&gt; 	
+Scott Solberg from Sellen Construction has invited you to bid on
+Amazon Kuiper Cafe Refresh (SEA129)
+View the RFP for Drywall &amp; Framing » &lt;https://app.buildingconnected.com/goto/66fb295fc2124a003bbe937019245199c6eistb&gt; 
+View the RFP for Ceilings » &lt;https://app.buildingconnected.com/goto/66fb295fc2124a003bbe937119245199c70istb&gt; 
+Already know if Mehrer Drywall will bid on this RFP? Let Scott Solberg at Sellen Construction know:
+Bidding &lt;https://app.buildingconnected.com/goto/66fb295fc2124a003bbe937219245199c74istbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fb295fc2124a003bbe937219245199c74istbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fb295fc2124a003bbe937219245199c74istbws?state=UNDECIDED&gt; 	
+Project Details
+Location: United States of America
+Client Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Lead: Scott Solberg
+Project Manager • +1 360-701-4002 • scott.solberg@sellen.com
+ &lt;https://bc-prod.imgix.net/avatars/59dcebe7834880000e8cbd63/219950d9-f3d2-4416-8ad1-fdbbf5994f73_Logo.JPG?format=auto&amp;rect=2,0,459,460&amp;h=200&amp;w=200&gt; 		Sellen Construction
+227 Westlake Ave N, Seattle, WA 98109, USA 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.wBcQqC80GvBefzIwSSvd3w._QmTtY1yvo0sXDGfTmUUdR2OAaaC2Ruhcq0R2nW4HNsx3MZGesSozOo14k8MEvw8tEWUGNtX7D5_dS_ATwGcpp3eQ9QEEFhDNADS2P16W9IxAC49ln3tfql6kuWYQ_3vkbfygzGk11B3oXbnA3as_7uOPw_MaN7OzydymZxSSiWvonLrxZHW3cr8wcX_7wIAJsRgADv4akyWmI27KWvj-tISDlq4-pO3xpbzD5uXtNDIHY77klN59viruR4bS_PmBaQL8OfFw7_VETs0ewjMvu3oPXptKforKPhbzFM0ZQQtevacoZcHuflbexEhIkgskLcAs4lSLAOy1qNDApXrMBkCWJWN44WkrN8f51b8P1K5wGkcBlNQOAcTs0vPDPTo3jDLw7l4QKf9SSD_5yxo0DVX5ZWffmvbxj-qt3n5oYMwqDhi2v4a4DtdAAeT595dQfAumwW_QQexFSyn-wcuW0Sz_MK4Fr7f3_nxJlUt7u62ovJPDa2zCf8L1T6Yx8kqljJBqvEu3jGYqZdl8dxOQLT_E0DsaY-vg34f92VRnHnoOPxoz5IkYm-_QI7K5fycMJLXFcqOf7LI3WKaOm8aWw&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Invitation to Bid: Lake Stevens Library - Lake Stevens, WA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10/10/2024?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&amp;None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi all, you’re invited to submit a bid on the above noted project.  Please let us know if you intend to bid.  Thanks.
+Invitation to Bid:
+Lake Stevens Library
+Sno-Isle Libraries, Lake Stevens, WA
+Faber Construction invites you to submit a bid for your scope of work for the above noted PREVAILING WAGE project. 
+Bid Date: 10/10/2024 @ 2:00 pm PDT
+Schedule: Approximately 18 months from NTP.
+Summary (Estimate: 11.0M): 
+A new 15,000 SF public library with associated site and right of way improvements.  The building is framed with mass timber and structural steel.
+The project documents are available BXWA and on Dropbox:
+https://www.dropbox.com/scl/fo/pj3vercua75lyh5l7202l/ADzPepCRUxrQhkfnAk6g7jw?rlkey=0syncuhdv4nnpj9z8nhpoi1rs&amp;dl=0 &lt;https://www.dropbox.com/scl/fo/pj3vercua75lyh5l7202l/ADzPepCRUxrQhkfnAk6g7jw?rlkey=0syncuhdv4nnpj9z8nhpoi1rs&amp;dl=0&gt; 
+***Please check above link for additional information/documentation during bid period; notices of addenda will not be issued***
+Please indicate your intention to bid and direct any project related questions to: nathan@faberconstruction.com &lt;mailto:nathan@faberconstruction.com&gt; 
+Bidding subcontractors shall pay particular attention to this project’s INSURANCE REQUIREMENTS.  Please review and forward the Insurance Requirements (typically found in Division 00) to your insurance company for review and quotation.  These insurance requirements are binding to the GC and all subcontractors per the owner.  These insurance requirements are not negotiable subsequent to or after the bid closing.  Any/all costs associated with meeting these requirements need to be incorporated into your bid quotation.
+Regards,
+ &lt;http://www.faberconstruction.com/&gt; 
+Nathan Ginetz
+Estimator
+ph: 206.719.9018  | f: 360.354.0335 | e: nathan@faberconstruction.com &lt;mailto:nathan@faberconstruction.com&gt; 
+faberconstruction.com &lt;http://www.faberconstruction.com/&gt;  | facebook &lt;https://www.facebook.com/faberconstruction&gt;  | linkedin &lt;http://www.linkedin.com/company/faber-construction&gt; 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Job Walk - October 1st at 9AM - Comprehensive Life Resour...</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Comprehensive Life Resources Building TI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Colvos Construction</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Max Barton of Colvos Construction sent your company a message about
+Comprehensive Life Resources Building TI
+Job Walk - October 1st at 9AM
+All,
+If you are able to attend, there will be a job walk Tomorrow October 1st at 9AM.
+Site address is 737 Fawcett Avenue Tacoma WA 98402. Please let me know if you plan on attending.
+Thank you,
+Max Barton
+Colvos Construction
+Reply to Drywall &amp; Framing &lt;https://app.buildingconnected.com/goto/66fb212ebbba4c0043e3a5b519244f99bdajmr&gt;  Reply to Painting &lt;https://app.buildingconnected.com/goto/66fb212ebbba4c0043e3a5b619244f99bdajmr&gt;  Reply to ACT &lt;https://app.buildingconnected.com/goto/66fb212ebbba4c0043e3a5b719244f99bdajmr&gt;  	
+Already know if your company will bid on this RFP? Let Max Barton know.
+Bidding &lt;https://app.buildingconnected.com/goto/66fb212ebbba4c0043e3a5c219244f99be5jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fb212ebbba4c0043e3a5c219244f99be5jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fb212ebbba4c0043e3a5c219244f99be5jmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 737 Fawcett Avenue, Tacoma, WA 98402, United States of America
+Project scope encompasses the following: Selective demolition, New insulation at underside of roof at level 2, new exterior windows, new walls, doors, and glazing, new wall and flo...
+Sender Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Max Barton
+Estimator • +1 253-844-4640 • +1 253-886-8678 • mbarton@colvosconstruction.com
+ &lt;https://bc-prod.imgix.net/avatars/61aea1fde3a06700cbaf9018/d3e32b60-7837-4ffe-af5f-444476faae44_Colvos-Construction-02.png?auto=format&amp;rect=116,136,1775,1775&amp;h=36&amp;w=36&gt; 		Colvos Construction
+711 Court C, Tacoma, WA 98402, USA 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.Fq4_BcR2fZxTkjEjdHL3nQ.WbBmn3mDw_qZKOikycbC8_h_wdHc1iXAbNgHZ5MZILfxHQzL2qBTkb2XGpUP6tmRTMUeOmqVT4M70HSV4MKCJ_Ze3m3bn32AxrRbC4XxiwlFQ0ccv6bmvkuzniRPeqfDS8AP2mWbvkqSeS4xJ1pEleeA-ZT7C7GPhik2cPMBtfwRCBVTQ_s1F109x2NZZjFpAmXXuWvobc8SqkFUF8766R1cIErdBdnLlmEx0QK-UFiUL_Q5zaOPy6QveqFJcI-xHSFhDtFE56a5OSGUePiCocvEdpPWtnJnPn9cWz9_0lHmc3n1O7847vrAVrdYgHgKZ1jGGRqvvIsPlFw_CLucxVbL4jEu98oKluLR-8ScGHpjHTateAJYlIBzaPgwH1hwP08gDn1H2rYnzfSaUTGWXj_8-Y0EuqxlRJeIkLcYvFQL3NEoXA7Z2UpdCnlAA1iR8wy6OV3NjhSwLjeNLFqlvm1YyXH8i07nGMTtF11wiCuT0tntREXZ2xkHQqBtPguqLx2RgcM-UgAquG6XUVYatEcKnjixzzbVQsfAwrPkg1ZbSPKcTqJWNd-_44VhfCem&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chick-Fil-A #05553 - Kennewick, WA Addendum Notification</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>October 8, 2024?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chick-Fil-A #05553 - Kennewick, WA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351673381&amp;oimg=1x1pic.gif&gt; 
+ &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351673381&amp;sPassportKey=FB6218CF1FDFF35E58280BE3CF8AD5978C98BF91&amp;sBidId=779375&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351673381&amp;sPassportKey=FB6218CF1FDFF35E58280BE3CF8AD5978C98BF91&amp;sBidId=779375&amp;st=116&amp;e=1&gt; 
+If this link does not work, please go to https://securecc.smartbidnet.com/LETI &lt;https://securecc.smartbidnet.com/LETI?st=102&gt;  and enter the access key: 7e9b3c45ce15182 	
+Yes, I'll Bid All Codes &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351673381&amp;sPassportKey=FB6218CF1FDFF35E58280BE3CF8AD5978C98BF91&amp;sBidId=779375&amp;iR=1&amp;st=103&amp;e=1&gt;  | No, I Won't Bid this Job &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351673381&amp;sPassportKey=FB6218CF1FDFF35E58280BE3CF8AD5978C98BF91&amp;sBidId=779375&amp;iR=0&amp;st=104&amp;e=1&gt;  | Click Here to View the Project &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351673381&amp;sPassportKey=FB6218CF1FDFF35E58280BE3CF8AD5978C98BF91&amp;sBidId=779375&amp;st=105&amp;e=1&gt;  	
+ &lt;http://securecc.smartbidnet.com/Files/System_440/images/ESI_Logo.png&gt; 
+3330 E. Louise Dr. Suite 300 Meridian, ID 83642 
+Phone (208) 362-3040 Fax (208) 362-3113
+www.esiconstruction.com 
+&lt;http://www.esiconstruction.com&gt; 
+ADDENDUM NOTIFICATION 
+To:  Mehrer Drywall (Seattle, WA) 
+Fax: (206) 285-2092 
+Trade Codes: 
+05400
+07240
+09250
+09510
+09910
+Phone: (206) 282-4288 
+Project Title: 	 Chick-Fil-A #05553 - Kennewick, WA 	
+Location:	 7009 W Canal Drive - Kennewick, WA 99336- 	
+Bid Due Date:	 October 8, 2024 09:00 AM   (MT) 	
+ESI Contact:	 Sydnee Glynn ,  sydneeglynn@esiconstruction.com 	
+Message: 
+ATTENTION BIDDERS!
+Addendum 01 Drawings and Addendum 01 Narrative has been uploaded under the files Tab: 05. Addendum 01 Folder. Please review and revise bids as needed.
+Thank you!
+Addendums:	 Acknowledge all Addendums on your bid form	 
+Tax:	 Clarify if tax is included and breakout as a separate line item	 
+Bid Submission:	 Upload all bids to Smartbid or email them to the contact specified in project description to ensure your bid received	 
+Accessing Bid Documents:	 To access to bid documents, click on the orange tab at the top of this invitation OR use the weblink, username, and password at the top left of this invitation. DO NOT contact the owner or architect for any reason, all RFI must go through ESI.	 
+By clicking on any of the links in this email to access the Projects Details, you are also accepting ConstructConnect´s
+Terms of Use &lt;https://www.constructconnect.com/terms-of-use&gt;  and Privacy Policy &lt;https://www.constructconnect.com/privacy-policy&gt;  .
+To Unsubscribe from receiving invitations, please Click Here &lt;https://securecc.smartbidnet.com/External/Unsubscribe.aspx?DId=1351673381&amp;PId=10101886&amp;CType=1&amp;st=106&amp;e=1&gt;  
+This is an automated email communication so replies to this address will not be answered.
+ &lt;http://em.smartinsight.co/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjBg10kM5SlSecUKpi6Zs2uTmybke-2F-2F5vM-2Bjvltp2dwdwnMvuf8dGpYJcmGuxlii-2FiYyQE90N0oAXGrnDVHSfiO3ORwhTopq2OJJd2R-2FmF9Sf6mp0COWNXhttxuKkLb5fGfGnJhV-2BxOkY1gwvW6Ogqeg4nuifjYgQwlR35J5RP2M5tNd6e8CYND9YLNcRd-2FeOFJd2fEiqxJX-2FRk1X-2BaWbqOG3pNLAUCV3OCQFJlUr8qRU07WPBan0FFoReJZA79bTSIO0wudmQnQbe6SmFYRCjLb5hQtNVoENnl5bBCP31qpA-3D-3D&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chick-Fil-A #05553 - Kennewick, WA Addendum Notification</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>October 8, 2024?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chick-Fil-A #05553 - Kennewick, WA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351673380&amp;oimg=1x1pic.gif&gt; 
+ &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351673380&amp;sPassportKey=A51E95CE4D6FCD61CB381567FBC3A93575527A52&amp;sBidId=779375&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351673380&amp;sPassportKey=A51E95CE4D6FCD61CB381567FBC3A93575527A52&amp;sBidId=779375&amp;st=116&amp;e=1&gt; 
+If this link does not work, please go to https://securecc.smartbidnet.com/LETI &lt;https://securecc.smartbidnet.com/LETI?st=102&gt;  and enter the access key: 78547d76a83d4 	
+Yes, I'll Bid All Codes &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351673380&amp;sPassportKey=A51E95CE4D6FCD61CB381567FBC3A93575527A52&amp;sBidId=779375&amp;iR=1&amp;st=103&amp;e=1&gt;  | No, I Won't Bid this Job &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351673380&amp;sPassportKey=A51E95CE4D6FCD61CB381567FBC3A93575527A52&amp;sBidId=779375&amp;iR=0&amp;st=104&amp;e=1&gt;  | Click Here to View the Project &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351673380&amp;sPassportKey=A51E95CE4D6FCD61CB381567FBC3A93575527A52&amp;sBidId=779375&amp;st=105&amp;e=1&gt;  	
+ &lt;http://securecc.smartbidnet.com/Files/System_440/images/ESI_Logo.png&gt; 
+3330 E. Louise Dr. Suite 300 Meridian, ID 83642 
+Phone (208) 362-3040 Fax (208) 362-3113
+www.esiconstruction.com 
+&lt;http://www.esiconstruction.com&gt; 
+ADDENDUM NOTIFICATION 
+To:  Mehrer Drywall (Seattle, WA) 
+Fax: (206) 285-2092 
+Trade Codes: 
+05400
+07240
+09250
+09510
+09910
+Phone: (206) 282-4288 
+Project Title: 	 Chick-Fil-A #05553 - Kennewick, WA 	
+Location:	 7009 W Canal Drive - Kennewick, WA 99336- 	
+Bid Due Date:	 October 8, 2024 09:00 AM   (MT) 	
+ESI Contact:	 Sydnee Glynn ,  sydneeglynn@esiconstruction.com 	
+Message: 
+ATTENTION BIDDERS!
+Addendum 01 Drawings and Addendum 01 Narrative has been uploaded under the files Tab: 05. Addendum 01 Folder. Please review and revise bids as needed.
+Thank you!
+Addendums:	 Acknowledge all Addendums on your bid form	 
+Tax:	 Clarify if tax is included and breakout as a separate line item	 
+Bid Submission:	 Upload all bids to Smartbid or email them to the contact specified in project description to ensure your bid received	 
+Accessing Bid Documents:	 To access to bid documents, click on the orange tab at the top of this invitation OR use the weblink, username, and password at the top left of this invitation. DO NOT contact the owner or architect for any reason, all RFI must go through ESI.	 
+By clicking on any of the links in this email to access the Projects Details, you are also accepting ConstructConnect´s
+Terms of Use &lt;https://www.constructconnect.com/terms-of-use&gt;  and Privacy Policy &lt;https://www.constructconnect.com/privacy-policy&gt;  .
+To Unsubscribe from receiving invitations, please Click Here &lt;https://securecc.smartbidnet.com/External/Unsubscribe.aspx?DId=1351673380&amp;PId=725176&amp;CType=1&amp;st=106&amp;e=1&gt;  
+This is an automated email communication so replies to this address will not be answered.
+ &lt;http://em.smartinsight.co/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjBg10kM5SlSecUKpi6Zs2uTmybke-2F-2F5vM-2Bjvltp2dwd5MjLU4BNVQ2nx5p0zM4oE6tNCRY8AuFTEhS3wX8SWQnKyl2pEoy8QSIIt95oV7NYYtlGp9oDIT7-2BvPt7baoKWsYwWDjzWZe12Z9ksyyAIQp-2F-2BbT-2FIcqqgz8hSuAo2sgQ3O6rpSOLXC37ln4yp8fDla8vhunCsCGM745AD6-2FKn21XbTIjW-2FUdkKBEjJKI9xj8CGCAVf35p-2F8StGm1AS-2Bk7QALQZ6GomkCSLaFFPe87-2F0neDZK900JtwD0H49aA6-2B7g-3D-3D&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INVITATION TO BID: 10/9/2024 at 1:30 PM - Anacortes Public Library Young Adults Interior Renovation</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10/9/2024?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anacortes Public Library Young Adults Interior Renovation</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+We plan to bid the Anacortes Public Library Young Adults Interior Renovation project on Wednesday 10/9/2024 @ 1:30 PM and welcome your proposal. A link to the bid documents is below. Check the link prior to bid time as I will add any addenda that are issued. Please send you proposal to bids@regencynw.com &lt;mailto:bids@regencynw.com&gt; . If you have questions about the project, please contact Brian Foote. brianf@regencynw.com &lt;mailto:brianf@regencynw.com&gt; . Thank you.
+ 10-09-2024 at 1 30 PM Anacortes Public Library Young Adults Interior Renovation &lt;https://regencynwconstruction-my.sharepoint.com/:f:/g/personal/lisa_regencynw_com/Eq8RAOcNw8FBgRIEHPUjTBUBSxNXWO6qg7G1wG30ne0z9g?e=CriYrc&gt; 
+Kind Regards,
+Lisa Marcus
+Project Engineer
+PO Box 6429
+Bellevue, WA 98008
+Direct: 425-890-4951
+Office: 425-883-1301
+Fax: 425-883-1302
+Disclaimer
+The information contained in this communication from the sender is confidential. It is intended solely for use by the recipient and others authorized to receive it. If you are not the recipient, you are hereby notified that any disclosure, copying, distribution or taking action in relation of the contents of this information is strictly prohibited and may be unlawful.
+This email has been scanned for viruses and malware, and may have been automatically archived by Mimecast Ltd, an innovator in Software as a Service (SaaS) for business. Providing a safer and more useful place for your human generated data. Specializing in; Security, archiving and compliance. To find out more Click Here &lt;http://www.mimecast.com/products/&gt; .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INVITATION TO BID: 10/9/2024 at 1:30 PM - King County Medical Examiner’s Office Scanner Room Remodel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10/9/2024?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>King County Medical Examiner</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello,
+We plan to bid the King County Medical Examiner’s Office Scanner Room Remodel project on Wednesday 10/9/2024 @ 1:30 PM and welcome your proposal. A link to the bid documents is below. Check the link prior to bid time as I will add any addenda that are issued. Please send you proposal to bids@regencynw.com &lt;mailto:bids@regencynw.com&gt; . If you have questions about the project, please contact Brian Foote. brianf@regencynw.com &lt;mailto:brianf@regencynw.com&gt; . Thank you.
+ 10-09-2024 at 1 30 PM King County Medical Examiner’s Office Scanner Room Remodel &lt;https://regencynwconstruction-my.sharepoint.com/:f:/g/personal/lisa_regencynw_com/EjadNyAUimpEvSoDpfPaebQBWSSb4lTMe454NVT0kN0r-A?e=yRiDQ8&gt; 
+Kind Regards,
+Lisa Marcus
+Project Engineer
+PO Box 6429
+Bellevue, WA 98008
+Direct: 425-890-4951
+Office: 425-883-1301
+Fax: 425-883-1302
+Disclaimer
+The information contained in this communication from the sender is confidential. It is intended solely for use by the recipient and others authorized to receive it. If you are not the recipient, you are hereby notified that any disclosure, copying, distribution or taking action in relation of the contents of this information is strictly prohibited and may be unlawful.
+This email has been scanned for viruses and malware, and may have been automatically archived by Mimecast Ltd, an innovator in Software as a Service (SaaS) for business. Providing a safer and more useful place for your human generated data. Specializing in; Security, archiving and compliance. To find out more Click Here &lt;http://www.mimecast.com/products/&gt; .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FASPS = Pre Bid Meeting Reminder - French American School...</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>October 1, 2024?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>French American School of Puget Sound</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cornerstone General Contractors, Inc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Sam Comer of Cornerstone General Contractors, Inc sent your company a message about
+French American School of Puget Sound | BID SET
+FASPS = Pre Bid Meeting Reminder
+Hello -
+Cornerstone thanks you for your interest in our French American School Project! Reaching out to remind you of the pre-bid meeting tomorrow Tuesday October 1st at 10am via zoom (link below). 
+Prebid meeting: Tuesday October 1, 2024 @ 10:00am VIA ZOOM
+Link: https://cornerstonegci.zoom.us/j/87896324123pwd=gXsnnbjajXllxRSYLau1WklPT6yPlz.1 
+Site visit: Tuesday October 8, 2024 @ 10:00am
+Please RSVP via email to Sam Comer sam@cornerstonegci.com. 
+Final Day for Quesitons: October 9, 2024 @ 4:00pm
+Please send all questions via email to Sam Comer sam@cornerstone.com.
+Reply to Framing &amp; GWB &lt;https://app.buildingconnected.com/goto/66fb1ae7ee483400460aef3619244e118a9jmr&gt;  Reply to Painting, Coatings &amp; Vinyl Wall Coverings &lt;https://app.buildingconnected.com/goto/66fb1ae7ee483400460aef3719244e118aajmr&gt;  Reply to Acoustical Finishes &amp; Specialty Ceilings &lt;https://app.buildingconnected.com/goto/66fb1ae7ee483400460aef3819244e118aajmr&gt;  	
+Already know if your company will bid on this RFP? Let Sam Comer know.
+Bidding &lt;https://app.buildingconnected.com/goto/66fb1ae7ee483400460aef4019244e118bcjmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fb1ae7ee483400460aef4019244e118bcjmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fb1ae7ee483400460aef4019244e118bcjmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 2225 South Walker Street, Seattle, WA 98144, United States of America
+WE ARE REQUESTING FINAL BIDS OF WHICH PROEJCT AWARD WILL BE BASED OFF OF.
+New construction of 32,000sf classroom building. Demolition has already been completed down to the foundati...
+Sender Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Sam Comer
+Senior Project Manager • +1 425-481-7460 • +1 425-765-0037 • sam@cornerstonegci.com
+ &lt;https://bc-prod.imgix.net/avatars/5a05b1fa918be00014e128f0/2d4d146b-ae63-4f7a-8e90-4eb3e982e4f6_CornerstoneLogoWebVert.jpg?auto=format&amp;rect=0,0,432,308&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Cornerstone General Contractors, Inc
+11805 N Creek Pkwy S #115, Suite #115, Bothell, WA 98011, USA 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.fqhu0fZdkGIpAi89qNkEIA.cpKExq7VpWBgJujFZkt5DbUwcGP9RcgPibdy4elOV-N1MMYYntOgO31aJfq0laJMlqG3Q5ORAUSNvEAfzTGWwkjcGZZrP8W5iUAMv0GOcukEpW5K4noFCuG8xVh3IOOkSSVECAF3wXGvQhG1E2DKkNCXiDvgYpzzYibaJ3z6I4pd2-U42_5WYcQ62BcsY3tZ01RSTD6rNHPtt-WuxVy79pAi2xVqNArpHGky-8fZnvdCAC3mzcrZhBhK363bIkloryBryhI1z0saZC676vKqMOD_wJykWpkErAuvpH9I_RVGia3vUmJ4Eq8wEvDMj8lNk43t7en6QW4ZM0M1U5cZrDA_ybHF07i0_R8Hj2jnkOe46dTB2BmwPzZveEMBSoorLLE7q50j8b1-gE0nrkawrs2xamMkUGrGS27FnClQAl525Rv5G989snbklNm-6C6EFl-WtGeHzaxEO-tHGgPeIJXC3mXMgf4b-E1gCiLdwM9Iq6l3slzjHVbJq253pve2JFhLB2kcoSQOkTyAWdjj9Rgjpf_qR3gjcZELzxmZU7nZFnAPduxq58G46ckTRdfFLZy3NsG826fmIykoRjH2MA&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SEA129 Cafe Refresh - Updated Drawings</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>**&amp;Amazon Kuiper Cafe Refresh (SEA129)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good afternoon,
+The updated architectural drawings have been released for the SEA129 Café Refresh project. 
+The following documents are now available:
+*	Furniture Specification Package
+*	Cut Sheets - Food Service Equipment
+*	Cut Sheets - Light Fixtures
+*	Bid Drawings
+*	Architectural specifications
+*	Exhibit E Kuiper ITAR Attachment
+The documents are available for download here: https://gly.filegenius.com/downloadPublic/2kkd3io6llke9fs &lt;https://gly.filegenius.com/downloadPublic/2kkd3io6llke9fs&gt;  
+The MEP drawings are still under review. They are expected by 10/11. 
+The bid due date has been extended to 10/16/24. 
+Thank you, 
+__
+Rebecca Kline
+GLY | Project Engineer
+425 393 5560 Mobile
+425 451 8877 Office
+www.gly.com &lt;http://www.gly.com&gt; 
+Main Office
+14432 SE Eastgate Way Suite 300, Bellevue, WA 98007
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Partial Renovation of B995 for Shop 26 Weld Repair, B995, PSNS Invitation t</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>October 15, 2024?</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>&amp;None</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Doyon Management Services - Partial Renovation</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>B995 for Shop 26 Weld Repair, B995, PSNS - - Bremerton, WA 98314- 
+Please review the project description below and confirm with the links above that you are interested in bidding this project. Project Documents are also provided in the links above. 
+We request pricing for this project on October 15, 2024 10:00 AM (PT) 
+I look forward to speaking more with you about this project, please contact me anytime to discuss details of the work. 
+Sincerely, 
+Mark Haley 
+Ph: (253) 388-3854 
+mark.haley@doyongovgrp.com 
+Project Description:
+FAR 52.236-27 Site Visit (Construction) (Feb 1995) 
+(a) The clauses at 52.236-2, Differing Site Conditions, and 52.236-3, Site Investigations and Conditions Affecting the Work, will be included in any contract awarded as a result of this solicitation. Accordingly, offerors or quoters are urged and expected to inspect the site where the work will be performed. 
+(b) An organized site visit has been scheduled for- 24 September 2024 at 12:00PM 
+(c) Participants will meet at- The front of Building 995 
+Scope of Work 
+Building 995 is an old bottling plant, located outside of the installation's perimeter fence.  It is currently used as a maintenance warehouse and a woodworking workshop.  This project will recon?gure parts of building 995 and the adjacent parking lot to meet the needs of a new facility user.  The facility will be used for maintenance and storage, including welding equipment. The project has three main areas of focus; renovating  parts of building 995, constructing a concrete pad adjacent to building 995, and erection of an almost 5,000 square foot tension fabric structure on the concrete pad.  
+Additional Project Information (if applicable): 
+Bid Project Status: Open to Bid 
+Owner: 
+Architect: 
+Prevailing Wage: This is a prevailing wage project. 
+Bonding: Provide a bond rate with your proposal. 
+Use Tax: Include all tax on materials and third-party rental equipment. 
+Scope Letters: Please send your scope letters two days before this bid is due. 
+Trade Codes: 
+Please confirm your Trade Codes with me, we have the following listed on you company’s profile: 
+09 20 00
+09 91 00
+By clicking on any of the links in this email to access the Projects Details, you are also accepting ConstructConnect´s
+Terms of Use &lt;https://www.constructconnect.com/terms-of-use&gt;  and Privacy Policy &lt;https://www.constructconnect.com/privacy-policy&gt;  .
+To Unsubscribe from receiving invitations, please Click Here &lt;https://securecc.smartbidnet.com/External/Unsubscribe.aspx?DId=1351663006&amp;PId=7966418&amp;CType=1&amp;st=106&amp;e=1&gt;  
+This is an automated email communication so replies to this address will not be answered.
+ &lt;https://u19563980.ct.sendgrid.net/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjBg10kM5SlSecUKpi6Zs2uTmybke-2F-2F5vM-2Bjvltp2dwd7hkWgoCg59grJ5jQ4-2BlXdvSD7KHTZpfush1T9WdEnOzbWcuNJUO2vQmV-2FZR7BKeG3XsKmmZJjQHN8CHvq6PI8EJYwVJiCT8VJv6vK7vtYXWNvVHX0TNe626q9LWEA0D-2B-2F8b2MuL2C-2BKdwrSJ26FgJHfJXIMX-2FITYCYMN54sV8aK-2Fnjws6ID5KlS1ixW0DJMK-2FLMgXK777psivAtAr-2BbOQvGx74tJV7tKIhKNzlSePR-2FaRj35n2T0OJzc7nJ6GUN-2BnVSCn-2BaYx66mdpfpwdfMAo-3D&gt;</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351663006&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351663006&amp;sPassportKey=6EEC0B257F40414C0B9EA649808C5C0D8A2C0E5D&amp;sBidId=776821&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351663006&amp;sPassportKey=6EEC0B257F40414C0B9EA649808C5C0D8A2C0E5D&amp;sBidId=776821&amp;st=116&amp;e=1&gt; 
@@ -530,28 +1137,28 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Issue for Bid Drawings Released - Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>October 10, 2024?</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>GLY Construction</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Rebecca Kline of GLY Construction sent your company a message about
@@ -591,28 +1198,28 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>FW: Issue for Bid Drawings Released - Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>GLY Construction</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -658,28 +1265,28 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Issue for Bid Drawings Released - Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>October 10, 2024?</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Amazon SEA129 Cafe Refresh</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>GLY Construction</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Rebecca Kline of GLY Construction sent your company a message about
@@ -719,28 +1326,28 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Bid Invite: Seattle Public Library - University Branch Pr...</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&amp;Seattle Public Library - University Branch Pr...</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>**Anacortes Public Library Young Adults Interior Renovation</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Lydig Construction Inc.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/55b6df039ccd240a0031738c.png?auto=format&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
@@ -768,28 +1375,28 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Bid Invite: Seattle Public Library - University Branch Pr...</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>**&amp;Seattle Public Library - University Branch Pr...</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>**Anacortes Public Library Young Adults Interior Renovation</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Lydig Construction Inc.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/55b6df039ccd240a0031738c.png?auto=format&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
@@ -817,28 +1424,28 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>FW: BID DATE EXTENSION - Lobby Enhancements at Fourth &amp; Madison</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>September 26, 2024?</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Lobby Enhancements</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lobby Enhancements at Fourth &amp; Madison</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Sellen Construction</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 BRIAN PETERSON
@@ -882,20 +1489,20 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Mango - Bellevue Square Mall, Bellevue, WA</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>**&amp;MANGO at Bellevue, Bellevue Square</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">Good morning,
 We are currently bidding on a project at Bellevue Square in Washinton for a retail store MANGO. Please let me know if you are interested in bidding.
@@ -914,28 +1521,28 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Abbott partitions takeoff - Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>September 24, 2024?</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Abbott Construction</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Raymond Woodard of Abbott Construction sent your company a message about
@@ -968,28 +1575,28 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>FW: Abbott ceiling quantities - Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Abbott Construction</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -1027,28 +1634,28 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Abbott ceiling quantities - Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>September 24, 2024?</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Swedish Green Lake Clinic</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Abbott Construction</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Raymond Woodard of Abbott Construction sent your company a message about
@@ -1080,28 +1687,28 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Bids Due Today!! Reformation - Bellevue Square - Bellevue...</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Reformation - Bellevue Square - Bellevue, WA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Building Connected to stop further communications on THIS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Weekes Construction</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Amber Newland of Weekes Construction sent your company a message about
@@ -1148,28 +1755,28 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>FW: Bids Due Today!! Reformation - Bellevue Square - Bellevue...</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Reformation - Bellevue Square - Bellevue, WA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Building Connected to stop further communications on THIS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Weekes Construction</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 ________________________________
@@ -1219,24 +1826,24 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Bids Due Today!! Reformation - Bellevue Square - Bellevue...</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Reformation - Bellevue Square - Bellevue, WA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Building Connected to stop further communications on THIS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Weekes Construction</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">	
 Amber Newland of Weekes Construction sent your company a message about
@@ -1278,30 +1885,51 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements Graham, Washington (Pivotal Construction)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>10/07/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10/07/2024?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Government / Public 	
 Square Footage: 	
-1,792</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+1,792 	
+Project Building Use: 	
+Education/School/University 	
+Project Value: 	
+$500000.00 	
+  	Bid Due Date: 	
+10/07/2024 05:00 PM PST 	
+Download Plans &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3EbOPT-2Fm2itk8QE4S6ZSZJML47x-2Fn71CSxu3D8H9shOa8-2B-2FSuBWEWhuFJ-2FDimEWDish-2B2j51DU0wqMRGotJF0okjeYAh26p0lGg3d-2BjRGC5h4w5XM6KwpsvWE1pvFogV8-2BBXpPXca9KdroWDuYDgzAQ-2Fb4zmkgydVs1-2FGFBDVfmE-2B6yTdwGaJKnxLRxL0mXxM9ECtJJ9rU92rPRyIUs3QXF9sy16mZly4nOrrOBe25B5F-2BSROY3TZxZkTj5SDwxayJfZ6t1jARvnX-2FkDvX8LWE-3D5kzw_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUguJY4M4OYHMhNUTs1MruFqHJa6NRTOE1UPYogc8-2BjXSIBMxioj8vH1AllXBKVimqW7gq5yQIkzEbSxIcEIOK7MQmoHvsMZIIFHDe1SHz2UVGshZho5vDSthm5WnPg1LAexhSV0G9-2B-2FWKLPcJMPpxpbXaj0fDb8UdQO0nWSMjHl8UKDr6bJsWKmX-2FReKJRKXqfQ69Tl7uaZiV-2FmmoLgOp3tegZYxjsFvKUVfdu9LEoffdYkjADF-2FmadCZdLKk0ZsV3smhSgKZZ9a-2Bj7RQUhFhdJr1uZuf0bK9NZ-2FQg7-2Fvb1n9GshbNUYo-2BVQO72zVOWo3CbgNDiw4B71SVI-2BKGg2dHSxGTBYipSHfKFmRX5pRpNbZmVluGsU7ol1jRWY8bcm7zPMyOs1v7-2FX-2FQA-2F7nxiKxHGLcVkgN-2F0t1m0j2GKdfLlNg-3D-3D&gt;  	
+Project Description: 	
+This project calls for the Renovation/Remodel/Repair of an existing 1,792 SF Education/School/University. 	
+PlanHub Premier Perk:
+Pivotal Construction
+Steven Barci
+425-344-0351 &lt;tel:425-344-0351&gt;  
+sbarci@pivotal-gc.com &lt;mailto:sbarci@pivotal-gc.com&gt;  	
+ &lt;http://cdn.mcauto-images-production.sendgrid.net/3f129da7c721697a/87b2ab1a-2d66-4ba1-ad5a-f9322fab81c6/1200x290.jpg&gt; 	
+Email Settings 	
+Click here &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3EbOPT-2Fm2itk8QE4S6ZSZJFHkH7rYLs96zg3w4z2T3U75Pkz7tbesInezy5zg2l2UTMcfbn8X3rhkBIXa58PuAbEK7T5wrZY6EofgsQqNMekBei5g1TIiCKR4hfW5RaL3u2WsY8-2Bget8y-2BnJyA98och9uj9akGeS0LKfIOjtUzYWJ2JACvXJ-2Fx1KDNlMTGuh5-2Br3m43-2FjKvmbuCC-2Bzpn113nj1dDAXcgheqIlbmN4znCYvhswfRpF-2BRquITE-2F94ABeg0ddVJsUeLN8TwNda-2FTfWhPFR8eE4xISZYw8HAXtMjXDj6KWNsv-2F-2FHpIQgwnCE364ECfxHVQE6CIRqIW1CgIAPe8J-2Buysu5AfRo1CSOSOxO1aErgngFiuy-2BUfHGxxDCorz4SInuZYDEyByKGrMrjOLu80sGX95vwsVWWUu-2BqhKvf13I1AuAMUm7REodi2UIY9JdzTztX2wkRLVTv5Voo-3Dc52I_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUguJY4M4OYHMhNUTs1MruFqHJa6NRTOE1UPYogc8-2BjXSIBMxioj8vH1AllXBKVimqW7gq5yQIkzEbSxIcEIOK7MQmoHvsMZIIFHDe1SHz2UVGshZho5vDSthm5WnPg1LAexhSV0G9-2B-2FWKLPcJMPpxpbXaj0fDb8UdQO0nWSMjHl8UKDr6bJsWKmX-2FReKJRKXqfQ69Tl7uaZiV-2FmmoLgOp3tegZYxjsFvKUVfdu9LEoffdYkjADF-2FmadCZdLKk0ZsV3tnQefegGXahWvfAUUL28-2FN-2BObSPwNBR58hO1oSuNXBvBmlFh2Oh7D7phFLCxVZpDuJnKZS1TuJROlYhgsjXn6-2Fxw40SzhDrRBfLvtgUNvWMyene3DO0cBl5N2p6YC94yUH8H3RGzgZR0DWbykBvf5RLqHfSAVNjCSJPuXaZOYShw-3D-3D&gt;  to Change Your Project Notification Settings. 	
+Click here to unsubscribe &lt;https://itb.planhub.com/ls/click?upn=u001.1cXbBzBkBgHF41ScEQQD1sA6Ta0ZPHoXR5EK9fytvVCbw1jgkgHcju7F2VHsp5e0u3ou_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUguJY4M4OYHMhNUTs1MruFqHJa6NRTOE1UPYogc8-2BjXSIBMxioj8vH1AllXBKVimqW7gq5yQIkzEbSxIcEIOK7MQmoHvsMZIIFHDe1SHz2UVGshZho5vDSthm5WnPg1LAexhSV0G9-2B-2FWKLPcJMPpxpbXaj0fDb8UdQO0nWSMjHl8UKDr6bJsWKmX-2FReKJRKXqfQ69Tl7uaZiV-2FmmoLgOp3tegZYxjsFvKUVfdu9LEoffdYkjADF-2FmadCZdLKk0ZsV3s1lQpv22QrReZD9fG-2FsipxTJiBKB-2Ftgzco24pmqcR9Rja2QC3oekWWaUP-2FRhIuQkLAGSiTekUsO2dcqXxzD9DhEr2S8e6lescNY-2BkS4Y-2BBtGPVtIxNtVL0cGPkKGLRYf4TlqSEKuM99NcFxi-2BYltwTaIhJ6AH5elxpyljclOuk7Q-3D-3D&gt;  from PlanHub. 	
+© 2024 PlanHub, Inc. All rights reserved. 	
+Contact Us &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p0vm-2BIWi-2Bo8vFxZzak0FX2yie5MmMx3Ga1m2WT54tB4MSdZqn1-2BS4Ure8LBF4gSN5mAW0BMWvs95OMepSEEBx0sAzPGtFGkWhcQpxuO1j67IXGrH0y7HFaLOg-2FkV4neo5iUC-2Byve1nwsMA-2Fyg61zLDlkJiOHBJmy6t7d6gdHU5aQqjF1R3yO3Uoo9fgdLF0RVA-3D-3Dwpx-_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUguJY4M4OYHMhNUTs1MruFqHJa6NRTOE1UPYogc8-2BjXSIBMxioj8vH1AllXBKVimqW7gq5yQIkzEbSxIcEIOK7MQmoHvsMZIIFHDe1SHz2UVGshZho5vDSthm5WnPg1LAexhSV0G9-2B-2FWKLPcJMPpxpbXaj0fDb8UdQO0nWSMjHl8UKDr6bJsWKmX-2FReKJRKXqfQ69Tl7uaZiV-2FmmoLgOp3tegZYxjsFvKUVfdu9LEoffdYkjADF-2FmadCZdLKk0ZsV3s4ztPeNgXrywGPTCFq41j-2FNTimBcpzg8voctHjdSSY3N8k9T-2BT76koPPgpWlD-2B4VzMWGqaHRMES48HpDODaJ-2Fpm-2FfLUf7pLqRAtYkwkjoaM0fVxwy5RxrdFR-2F48WK54RlyK9Qb2LxqTwKaQwuA0NGhRdX14IMFxbGmB7S3NyivwCtuFU-2BsDXO8EBZDzuqoWBk-3D&gt;  	  |   	Terms &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3uuxrZE0ZtnKIGCyhoEcMZyqFeLazLozj7Wv4XbJx00JUr5z9FurVVahcR1S3FwhyYRG9L1Pijg-2FX9JRyRjTDgHmku5Uw1FZeJERLZUHd-2FiSRmo-2BqlN2kuaWK-2FhqBhiD0f1WdsFU0PtduYSpiku4RuFTYxaXx2IWBl6lwmXLNHOumruyKw-2F2pGAdk0djT1ieA-3D-3DHNKH_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUguJY4M4OYHMhNUTs1MruFqHJa6NRTOE1UPYogc8-2BjXSIBMxioj8vH1AllXBKVimqW7gq5yQIkzEbSxIcEIOK7MQmoHvsMZIIFHDe1SHz2UVGshZho5vDSthm5WnPg1LAexhSV0G9-2B-2FWKLPcJMPpxpbXaj0fDb8UdQO0nWSMjHl8UKDr6bJsWKmX-2FReKJRKXqfQ69Tl7uaZiV-2FmmoLgOp3tegZYxjsFvKUVfdu9LEoffdYkjADF-2FmadCZdLKk0ZsV3u0P7f6TXohB5oMPhjXfi-2BqldcJzJUnjO1-2BRC2tfiGpEg5IO-2Fwr62MTYZGziEjAC043sLjuNiPIvM5uNELaLIDf7hJLpVdbALkWpW4Mzlh7HUWhHwMATBn1h4av6I56EOORqf2-2B2Pmb4SsElaWpt28VskPHKofHRLxEdH2IzeedFr6Z-2FJT-2F-2B5qAA3d6TyvkzXc-3D&gt;  	  |   	Privacy &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p48XXYqYar63LVKurTqlc8wf4qgE1M1Xn7DsXP-2BHFUHUjOcqpG-2BdiwXPdI6mDPS38AYg-2FFHOvgwinp-2FHyFi-2FqZmHPXd0QQY2TPTzBCYaFfH7-2Fd92oEXjLOfhw-2BctZS8yWP1mWitlHpXZQDz-2FtGBRSxNtFyUsa2wZbAl8d3QeC1P0HWK4MMjXn08D2MvaFJivlA-3D-3D9LxA_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUguJY4M4OYHMhNUTs1MruFqHJa6NRTOE1UPYogc8-2BjXSIBMxioj8vH1AllXBKVimqW7gq5yQIkzEbSxIcEIOK7MQmoHvsMZIIFHDe1SHz2UVGshZho5vDSthm5WnPg1LAexhSV0G9-2B-2FWKLPcJMPpxpbXaj0fDb8UdQO0nWSMjHl8UKDr6bJsWKmX-2FReKJRKXqfQ69Tl7uaZiV-2FmmoLgOp3tegZYxjsFvKUVfdu9LEoffdYkjADF-2FmadCZdLKk0ZsV3tbElkeqNLg4-2FvGEdRvnA-2FOrKC4vzCQ0A8j9aH6o-2B7LzyoTwdZHduBYy0KbyTfUJkn4jIdyUPgfRkegshHtzmdNl-2B1jAXuvn5VCABIuxDoVoV8kaNnggDoy4-2BrpF3T0n0Y48oFY3z52XEqq8cg4qulpBBz0rwKHxxYMRs65tA5hc-2Bo6exrCI6zgBIYBjRkBK34-3D&gt;  	
+ &lt;https://itb.planhub.com/wf/open?upn=u001.rglcKlOpDZ4bvRET4xN-2F-2BMvcWFVCo9lUt6ZhIbvXMU1oQnyK32Obg7i-2BftTth5lrxqGREiQury-2BU1b17oSH6CLhCJOWfBEeXbs-2BGUKrEA9O6T1I-2FejxnWSWcMvBOx28w5CL-2FdRSnwvoYs3UHwFruOX6mVDCWV5UahvaK2UMCwbLlgaYsmsn2nVB1j4wJyvtYL1gZNABf3COtVpNBjyCeEnhyZWpGGIL3aDBYHfsS6QEllojzf2SMFkZK2B24-2FoZxtl8-2Fma-2BbjmBA4ODbF8RsEaKgjpR0CnFxTlH-2BlzEpxaB7AMaR2wa1R-2FdUxDgaOC7UJpTCVpJR6kFKEsTdUeeyOP1UBvgMwWXUHI4isXXCWlYuYaUOpfLf3oFxowHNDU29S1JOveU5wX2KAjr05mUsQl-2F-2FABo6dVmeZ2GJgF4dHYjcaPYfzkTQYXtFkjo0LroHnWcxXgGT1UaooRxmFq0Oc89So2MY1UFk1eCazWWrJbs-3D&gt;</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
  &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pyYCB0TcmctpxtiBdUtjVCY-3DYVD9_sE37b-2FSb1qXSGXJgxS29AUZl8FYllBnVPtHie7zUUguJY4M4OYHMhNUTs1MruFqHJa6NRTOE1UPYogc8-2BjXSIBMxioj8vH1AllXBKVimqW7gq5yQIkzEbSxIcEIOK7MQmoHvsMZIIFHDe1SHz2UVGshZho5vDSthm5WnPg1LAexhSV0G9-2B-2FWKLPcJMPpxpbXaj0fDb8UdQO0nWSMjHl8UKDr6bJsWKmX-2FReKJRKXqfQ69Tl7uaZiV-2FmmoLgOp3tegZYxjsFvKUVfdu9LEoffdYkjADF-2FmadCZdLKk0ZsV3tw3sWsWmsjwP4DaK1ZPq0wbZJF1nhiHfiEGX6WpzU6rahomQ9setTh-2BTaRV4HYbfTc2qH9UdH-2FIpkqFN166oTFNhNgVr2QwNXyKEGjQ-2Fl3-2FUhH6OqWuz9fPBNvUasao3Pc3tTkqDc-2FggZR8qOlVZ45b9YlG-2BKrz8aCIy3M0BmQ3g-3D-3D&gt; 	
@@ -1344,30 +1972,51 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements Graham, Washington (Pivotal Construction)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10/07/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10/07/2024?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Government / Public 	
 Square Footage: 	
-1,792</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+1,792 	
+Project Building Use: 	
+Education/School/University 	
+Project Value: 	
+$500000.00 	
+  	Bid Due Date: 	
+10/07/2024 05:00 PM PST 	
+Download Plans &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3EbOPT-2Fm2itk8QE4S6ZSZJML47x-2Fn71CSxu3D8H9shOa8-2B-2FSuBWEWhuFJ-2FDimEWDish-2B2j51DU0wqMRGotJF0okjeYAh26p0lGg3d-2BjRGC5h4w5XM6KwpsvWE1pvFogV8-2BBXpPXca9KdroWDuYDgzAQ-2Fb4zmkgydVs1-2FGFBDVfmE-2B6yTdwGaJKnxLRxL0mXxM9ECtJJ9rU92rPRyIUs3QXF9sy16mZly4nOrrOBe25B5F-2BSROY3TZxZkTj5SDwxayJfZ6t1jARvnX-2FkDvX8LWE-3DbQjL_Pr30EbW2cHRrFtWMCqfnZMgDtBBudX3AOI7a4n2xPvTkkwUbY-2FGfNaMPP490Z8STXrlaujtJU7oCuXFqWg5c50uCP1jRC6zbniTs-2Bi59fuQP9T-2F549GsgzXM2ScaDifYQC5Ikkss8ubtnRzlgtywa8cD9BgK1qNW5M9oNSsnWaHPM-2F1OR2AK55V9eT1VmaJziC4dwNOysXmliPAMYVHDsBA8mPY6JffIUd8KK1S2GyhST0bmHIDwFTQeCI4bU5aA11s3-2BwiFMGNjD4WvayD1xRJIRWyFa24UU9hCNMquQ09SpRkM0fTKKJ14DVO2qNiqCyMB9-2FWqS6C-2BJfyz1W1td7hnctinYjNWoYWgHlsq66cqqc0lG1rMCMgARlTgLHxmyefXEVKifaCagNSgesgdK7emn5bL3jgCCRDNWv2kv0AQIalGRDivUtfRqN7Rh887y8iu8XODOetCxFTpt-2BI5qpc6bpDgioH37fJmTomkrqY-3D&gt;  	
+Project Description: 	
+This project calls for the Renovation/Remodel/Repair of an existing 1,792 SF Education/School/University. 	
+PlanHub Premier Perk:
+Pivotal Construction
+Steven Barci
+425-344-0351 &lt;tel:425-344-0351&gt;  
+sbarci@pivotal-gc.com &lt;mailto:sbarci@pivotal-gc.com&gt;  	
+ &lt;http://cdn.mcauto-images-production.sendgrid.net/3f129da7c721697a/87b2ab1a-2d66-4ba1-ad5a-f9322fab81c6/1200x290.jpg&gt; 	
+Email Settings 	
+Click here &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3EbOPT-2Fm2itk8QE4S6ZSZJFHkH7rYLs96zg3w4z2T3U75Pkz7tbesInezy5zg2l2UTMcfbn8X3rhkBIXa58PuAbEK7T5wrZY6EofgsQqNMekBei5g1TIiCKR4hfW5RaL0561uIpJ7AKv4MmusgfZnrkvf4wBRjAsyDw-2BgRi9RhBvDckTmfdy0WXnwEm33BwE6AY4N4N7Gqnk2knvGxLTAW6E-2Bn9Vjki5gD-2FAuEFhEACBau6TP-2BvNtt1lWb2knhdMyRkRYYjZJyHUti60JG4sRvABuaN95j-2B-2BMsbgMi2ni6d80diSOtf6YrtM-2FYhqdAz2k6rTyKy59QZmYvd-2B6JuSFt2qHuP8muEI4za04zsoEZt2CKBbEgRDD0oeGId0deK9speAhifI2kJLkx63Fjm0jKPoGyxESW61ITKqT-2BRNmKWKfwPfqvns98oqR1NagdL3fb-2BuPF7rWrqWZkz8LGN8kg-3DPAaJ_Pr30EbW2cHRrFtWMCqfnZMgDtBBudX3AOI7a4n2xPvTkkwUbY-2FGfNaMPP490Z8STXrlaujtJU7oCuXFqWg5c50uCP1jRC6zbniTs-2Bi59fuQP9T-2F549GsgzXM2ScaDifYQC5Ikkss8ubtnRzlgtywa8cD9BgK1qNW5M9oNSsnWaHPM-2F1OR2AK55V9eT1VmaJziC4dwNOysXmliPAMYVHDsBA8mPY6JffIUd8KK1S2GyhST0bmHIDwFTQeCI4bU5aA11s3-2BwiFMGNjD4WvayD1xRJIRWyFa24UU9hCNMquQ09nXRy-2B8T6aETg3PdRr9CuwpqBU-2F40PwfzIZIlHSutVpvlyymV1-2B2Oy4rLysdXnOYN8sOYuGfPsLtn7RntLUoZ-2FsRAXe0cBa6M5LWicSw0sSXtsEqkaUElSluqhJTIuCYpn0L7rD4DBLrVOtPjHN9a5sQ-2BpZ83lamQ9JVdTYDDvp8fDLAuIqKa8RAjpWvYJ-2FEw-3D&gt;  to Change Your Project Notification Settings. 	
+Click here to unsubscribe &lt;https://itb.planhub.com/ls/click?upn=u001.1cXbBzBkBgHF41ScEQQD1sA6Ta0ZPHoXR5EK9fytvVCbw1jgkgHcju7F2VHsp5e0nwB0_Pr30EbW2cHRrFtWMCqfnZMgDtBBudX3AOI7a4n2xPvTkkwUbY-2FGfNaMPP490Z8STXrlaujtJU7oCuXFqWg5c50uCP1jRC6zbniTs-2Bi59fuQP9T-2F549GsgzXM2ScaDifYQC5Ikkss8ubtnRzlgtywa8cD9BgK1qNW5M9oNSsnWaHPM-2F1OR2AK55V9eT1VmaJziC4dwNOysXmliPAMYVHDsBA8mPY6JffIUd8KK1S2GyhST0bmHIDwFTQeCI4bU5aA11s3-2BwiFMGNjD4WvayD1xRJIRWyFa24UU9hCNMquQ0-2FXcL-2Fds7Uo634ANMtqTGWJhZ8N6LHkKA4fOqiHXZAUqmD5cx7i6oa0a-2FuQ0MWLMHsenHTn1pUaAr4R72fTE0gwh93F-2BMvHqXf9k6XaKsvCkihiOPAbjeGGDlv5-2B-2FotOkY-2B5GdvWRdqQ-2BYsREmmpJSLVCZZDnMQTMYowSlrh3lKDoyUGRKACqsqoqNgtEEqn48-3D&gt;  from PlanHub. 	
+© 2024 PlanHub, Inc. All rights reserved. 	
+Contact Us &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p0vm-2BIWi-2Bo8vFxZzak0FX2yie5MmMx3Ga1m2WT54tB4MSdZqn1-2BS4Ure8LBF4gSN5mAW0BMWvs95OMepSEEBx0sAzPGtFGkWhcQpxuO1j67IXGrH0y7HFaLOg-2FkV4neo5iUC-2Byve1nwsMA-2Fyg61zLDlkJiOHBJmy6t7d6gdHU5aQqjF1R3yO3Uoo9fgdLF0RVA-3D-3DBOm0_Pr30EbW2cHRrFtWMCqfnZMgDtBBudX3AOI7a4n2xPvTkkwUbY-2FGfNaMPP490Z8STXrlaujtJU7oCuXFqWg5c50uCP1jRC6zbniTs-2Bi59fuQP9T-2F549GsgzXM2ScaDifYQC5Ikkss8ubtnRzlgtywa8cD9BgK1qNW5M9oNSsnWaHPM-2F1OR2AK55V9eT1VmaJziC4dwNOysXmliPAMYVHDsBA8mPY6JffIUd8KK1S2GyhST0bmHIDwFTQeCI4bU5aA11s3-2BwiFMGNjD4WvayD1xRJIRWyFa24UU9hCNMquQ0-2FgWSHygLKD1-2FhPQErEHlGoyQCchFcoINy0e6JvHCBnjOsmN7-2BX26ISUoUnppPCf3eivCLZiDcmYV2ska8tI3GCyZTZ2goDl8rpp7y9yob6mJ-2BWYPf0RNIO7O-2FJVh-2FkGO-2F-2F-2FguEsIE-2Fss0ZFb3oDrnu9qkQQYumpiqmAmxU7pzb-2BXPrMTxbIPoc1OgVyZmVvug-3D&gt;  	  |   	Terms &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3uuxrZE0ZtnKIGCyhoEcMZyqFeLazLozj7Wv4XbJx00JUr5z9FurVVahcR1S3FwhyYRG9L1Pijg-2FX9JRyRjTDgHmku5Uw1FZeJERLZUHd-2FiSRmo-2BqlN2kuaWK-2FhqBhiD0f1WdsFU0PtduYSpiku4RuFTYxaXx2IWBl6lwmXLNHOumruyKw-2F2pGAdk0djT1ieA-3D-3Dd98r_Pr30EbW2cHRrFtWMCqfnZMgDtBBudX3AOI7a4n2xPvTkkwUbY-2FGfNaMPP490Z8STXrlaujtJU7oCuXFqWg5c50uCP1jRC6zbniTs-2Bi59fuQP9T-2F549GsgzXM2ScaDifYQC5Ikkss8ubtnRzlgtywa8cD9BgK1qNW5M9oNSsnWaHPM-2F1OR2AK55V9eT1VmaJziC4dwNOysXmliPAMYVHDsBA8mPY6JffIUd8KK1S2GyhST0bmHIDwFTQeCI4bU5aA11s3-2BwiFMGNjD4WvayD1xRJIRWyFa24UU9hCNMquQ09WlR1VXQGUnS3RcO7QGuopPSGNriyHOiqF3fGp7j-2Byim1dhktvAxQuwYMlGLUROdvhzFR6Zv98pHaZkhb3XNirzD9Xt03BVg1QNLtXa9MQR6Ak0vo4TeSfV3fsjEQp0AYXYTayKG2v-2FXGnsX2OD0tMgXHZ8mIDzuJOytQrSsjE9StZgOdDrPvSf1YeElnC8yY-3D&gt;  	  |   	Privacy &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p48XXYqYar63LVKurTqlc8wf4qgE1M1Xn7DsXP-2BHFUHUjOcqpG-2BdiwXPdI6mDPS38AYg-2FFHOvgwinp-2FHyFi-2FqZmHPXd0QQY2TPTzBCYaFfH7-2Fd92oEXjLOfhw-2BctZS8yWP1mWitlHpXZQDz-2FtGBRSxNtFyUsa2wZbAl8d3QeC1P0HWK4MMjXn08D2MvaFJivlA-3D-3DRyoU_Pr30EbW2cHRrFtWMCqfnZMgDtBBudX3AOI7a4n2xPvTkkwUbY-2FGfNaMPP490Z8STXrlaujtJU7oCuXFqWg5c50uCP1jRC6zbniTs-2Bi59fuQP9T-2F549GsgzXM2ScaDifYQC5Ikkss8ubtnRzlgtywa8cD9BgK1qNW5M9oNSsnWaHPM-2F1OR2AK55V9eT1VmaJziC4dwNOysXmliPAMYVHDsBA8mPY6JffIUd8KK1S2GyhST0bmHIDwFTQeCI4bU5aA11s3-2BwiFMGNjD4WvayD1xRJIRWyFa24UU9hCNMquQ08VotLdmesalde4vE6YZwNndky-2F8qvRtAAlq02bj-2BagBOHNYGK-2BWE96K8Xo4dof4DTINtj-2F4xAirzjT1rp28YWlBUfji4fu8tHriYKs61-2FtSmWcwD9x49J-2FAWPz7TsiXzh0bGDyrYk-2BdKdhUIV8pzdBsPlX-2FZlGeBeN58ZFw8T-2BzadkiLnXVsMHsHCq3EopDIg-3D&gt;  	
+ &lt;https://itb.planhub.com/wf/open?upn=u001.8ZOmvSz5OiX8MnF9OVIaVXwbAPjwO0rZzqDi2ZIdSiZDhdYtQUKcBt7IUBAdqtzk-2Fs0tePJ92qNQ-2FbbCKcdXmMMa9Py-2FJ1I0VqyVbC0XOhP-2F48rXKIhPj7Q8tKN2zYb-2B15fsoumBcBxvRQe40apHzOyOshUDTm2APn-2Ba2ptSwkC3fDCoHq5i3G6gckNVfmqml-2Fo7k7n4lC1FzcbVkYd-2BobK-2Fw3Qp34MbiqMWk8nH9jKjNURvecpqHkZyZBtsJyq3-2BOSZinPwtQFfj9-2BkveRXF6DtA3gBWT6-2BemIVDHJVps64gFE4ksVfLvlU6qBtRRFABd6D5hMzlYSXJHWmn1eHFgy2FN5t5NK-2FCJ2EjvC1sHm-2F94W-2FFNFflW0oh8thWCCXMo0ZNTwVCR5FSVp1Cwz6az2q75Z5aw0lAIUoe5kOaGFvGMYrzyDgl4rJx4i2t5qzBrGdh-2BbZmsDwQyJdlKEsJIHrp98z6fIoNjG9aB-2B-2BVDQ-3D&gt;</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
  &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pyYCB0TcmctpxtiBdUtjVCY-3D693B_Pr30EbW2cHRrFtWMCqfnZMgDtBBudX3AOI7a4n2xPvTkkwUbY-2FGfNaMPP490Z8STXrlaujtJU7oCuXFqWg5c50uCP1jRC6zbniTs-2Bi59fuQP9T-2F549GsgzXM2ScaDifYQC5Ikkss8ubtnRzlgtywa8cD9BgK1qNW5M9oNSsnWaHPM-2F1OR2AK55V9eT1VmaJziC4dwNOysXmliPAMYVHDsBA8mPY6JffIUd8KK1S2GyhST0bmHIDwFTQeCI4bU5aA11s3-2BwiFMGNjD4WvayD1xRJIRWyFa24UU9hCNMquQ0-2FxlgnlTUqW8sFOarkPwI5-2BQfiZdAxcgN2-2BYDzRvGrjX-2B-2F3Uj-2BANQAvddwwsFOvouMKvWYMuLAZBDTIxDyf8yDuo7JJBDGYZYy4-2B7YqHVdXUN-2Fr435bloR8sz3A-2F-2BJBVjOXGo604xWaDvoNQF8iF8pIfK8OH2IesJbl11Jq5evDt4s13DMiG5U-2FbmZ5XKXkESI-3D&gt; 	
@@ -1410,30 +2059,51 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements Graham, Washington (Pivotal Construction)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>10/07/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10/07/2024?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Government / Public 	
 Square Footage: 	
-1,792</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+1,792 	
+Project Building Use: 	
+Education/School/University 	
+Project Value: 	
+$500000.00 	
+  	Bid Due Date: 	
+10/07/2024 05:00 PM PST 	
+Download Plans &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3EbOPT-2Fm2itk8QE4S6ZSZJML47x-2Fn71CSxu3D8H9shOa8-2B-2FSuBWEWhuFJ-2FDimEWDish-2B2j51DU0wqMRGotJF0okjeYAh26p0lGg3d-2BjRGC5h4w5XM6KwpsvWE1pvFogV8-2BBXpPXca9KdroWDuYDgzAQ-2Fb4zmkgydVs1-2FGFBDVfmE-2B6yTdwGaJKnxLRxL0mXxM9ECtJJ9rU92rPRyIUs3QXF9sy16mZly4nOrrOBe25B5F-2BSROY3TZxZkTj5SDwxayJfZ6t1jARvnX-2FkDvX8LWE-3DOTG4_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdhw00TrfSgyC-2FdI5dcu5nB09VwGXoNISUaIfo8nJ3SWIxe5T1Hjh4FFdak1awgpoWoIdpKt2XLAgOSYthIu-2FnA1wlxbRBchA9-2FIQrcjjHkBNCtjPgNhmZPA7Pb7TXujT1OLOUXZW3CfwMfW7rZc7aBbsc83nx1knXvlRno7e5Bdwzl8I57VHkvqJ5wUbNLngIA-3D-3D&gt;  	
+Project Description: 	
+This project calls for the Renovation/Remodel/Repair of an existing 1,792 SF Education/School/University. 	
+PlanHub Premier Perk:
+Pivotal Construction
+Steven Barci
+425-344-0351 &lt;tel:425-344-0351&gt;  
+sbarci@pivotal-gc.com &lt;mailto:sbarci@pivotal-gc.com&gt;  	
+ &lt;http://cdn.mcauto-images-production.sendgrid.net/3f129da7c721697a/87b2ab1a-2d66-4ba1-ad5a-f9322fab81c6/1200x290.jpg&gt; 	
+Email Settings 	
+Click here &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3EbOPT-2Fm2itk8QE4S6ZSZJFHkH7rYLs96zg3w4z2T3U75Pkz7tbesInezy5zg2l2UTMcfbn8X3rhkBIXa58PuAbEK7T5wrZY6EofgsQqNMekBei5g1TIiCKR4hfW5RaL2Yipq-2BnaP2UwzjtoHVKE8YeE6A-2FS9FO6-2Bg6EqBoKRylZgw-2Bl7P7X29L1YmMZmKiUzvabHLIICNM1NyjoDSR3Vgh1eqqoX3qfz-2BGnxGSk8fyKB-2BllArSun-2FF0ZpBRiAV7nvnWwDrkBapP7-2BGlVxrcamjjDjmEL3uUUTz-2BeLqX3RjALS0Vm2o4IwZJIKQD6T3es7y4-2FyK-2FxsxZtoEDYhgTeUsqfaM5P0nhvZ8-2B2XxEDZECiEWSr8uiK1X4KYJC2anUWVPwy5GCa-2B28xV6SOFOSwafo89-2B3SCSjKchfwYSikcXIdOQVxi2yjMhqksKHpUBe-2FcrGiTNY6tRDpZnhhQX-2Big-3D9ovf_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdhw00TrfSgyC-2FdI5dcu5nB3p7FRz6vZlt0yv0wlVTA5Lt6eR6cTVjGKWSq4NR-2B0y54WOP1NHBRwqcIOus5RPYNfroOQYJUsHulXW1FIT5NOBRJfo4kau89kpJxP0DHOemvM8Uakhpo5wXeVEN6pYTFl4y5bb2uEXjb-2F83xu-2FhIh9UNehVA8L12aHtNbXa7O53Q-3D-3D&gt;  to Change Your Project Notification Settings. 	
+Click here to unsubscribe &lt;https://itb.planhub.com/ls/click?upn=u001.1cXbBzBkBgHF41ScEQQD1sA6Ta0ZPHoXR5EK9fytvVCbw1jgkgHcju7F2VHsp5e0M1NQ_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdhw00TrfSgyC-2FdI5dcu5nB3RkccJcvCx2AEGSdkWFGzZc5gQBGIzCvgYg2FN80FzZbVHap9xNFrHgAuFfesLoxAKi5-2BRowRVWk-2Fc8pK4qkEXDYO3Ge8O4S-2B6yPK-2F1o-2FcnPWNNIfFHWe5PnpOmuuXwvucwbULSeTxKo8gJVR9JOGrASBUkfKdAmLevfRiUAQueA-3D-3D&gt;  from PlanHub. 	
+© 2024 PlanHub, Inc. All rights reserved. 	
+Contact Us &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p0vm-2BIWi-2Bo8vFxZzak0FX2yie5MmMx3Ga1m2WT54tB4MSdZqn1-2BS4Ure8LBF4gSN5mAW0BMWvs95OMepSEEBx0sAzPGtFGkWhcQpxuO1j67IXGrH0y7HFaLOg-2FkV4neo5iUC-2Byve1nwsMA-2Fyg61zLDlkJiOHBJmy6t7d6gdHU5aQqjF1R3yO3Uoo9fgdLF0RVA-3D-3Drk4B_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdhw00TrfSgyC-2FdI5dcu5nB0RNejRRF1NDAwyBoqkAadzq10wlBhmGLlIJi3xJR9lCPbWMitwkjBmk6kEq5zgzUfVNHeCO7s11n74IJhIrAKYZvM2kQlxoqaCHx2BRejoSHBKqI5Leh5X18Ku6IYLvjtLVLiKoqGNCsaUWuGRwfotzMFiUpaxKXDLDj7IvCJIzQ-3D-3D&gt;  	  |   	Terms &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p3uuxrZE0ZtnKIGCyhoEcMZyqFeLazLozj7Wv4XbJx00JUr5z9FurVVahcR1S3FwhyYRG9L1Pijg-2FX9JRyRjTDgHmku5Uw1FZeJERLZUHd-2FiSRmo-2BqlN2kuaWK-2FhqBhiD0f1WdsFU0PtduYSpiku4RuFTYxaXx2IWBl6lwmXLNHOumruyKw-2F2pGAdk0djT1ieA-3D-3Dvcl9_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdhw00TrfSgyC-2FdI5dcu5nB12DVWFIzQSS0xSVomTYtuQuQaZ03-2F2bc9sZonK5k2TFfSYqGIUzjv9Gv-2FjZTufstfOOYz1ybC1F3zeO0n3MLkO-2FsvR71PQy-2Blb-2FUt893Am7y8zEP2ThJYHcznRrgsID-2BJt5jUjbGMS0LSc-2F3Zz2Tv0E5nZANnxetjceKmN-2FhuMCA-3D-3D&gt;  	  |   	Privacy &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6p48XXYqYar63LVKurTqlc8wf4qgE1M1Xn7DsXP-2BHFUHUjOcqpG-2BdiwXPdI6mDPS38AYg-2FFHOvgwinp-2FHyFi-2FqZmHPXd0QQY2TPTzBCYaFfH7-2Fd92oEXjLOfhw-2BctZS8yWP1mWitlHpXZQDz-2FtGBRSxNtFyUsa2wZbAl8d3QeC1P0HWK4MMjXn08D2MvaFJivlA-3D-3DrqWH_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdhw00TrfSgyC-2FdI5dcu5nB2k-2FsKaiBRmps-2BFlbtA-2BTxXwmrm6TzGOD0i-2BwQv0Dp2SWmbox9fU-2BMX6LLC-2BdGt123UrSpdF9i6TDEIgxh5A5D48YdjBeDmll5qQIhO4QIjxTwDREyNTF5AlypBubFaAEPp68TEFifiWJM19unHk09TjoF-2BTz2bT8yTx-2Bqpsc0pKA-3D-3D&gt;  	
+ &lt;https://itb.planhub.com/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5n-2BnKLdpPaCcruaLNLPoUjC-2FZ-2Fxyl34uQHpUdO8De-2FtE5SGnbFCQPwu2kRoWBUCZneaBBPgEA7HbRgZPwvmc2eAbfJElccd21Ma0BwcSIu-2FLsE1Qg4cv3DWqLSqJN93SJFIY8V86qeNYLVSskbgPRJ1PrKxHP-2FRHne7eqiyjrzG7QVVKQJ1Ha-2Bo95Nu3Z40mN-2FMULKuN2TioSxbIQe8WVm-2FkWjq92kvRfkYdGBDXbr1r-2BFl-2BSxP-2FRWgOXxDFHtGBSeLRGgOOTkaVr3ECgSjHJY6osAqhHkoPIhE7d43cxnTdI45lqA-2Bn-2Ba2ZBhHovNVczLEngANX81uZ4aAe7OiZ5AkFlwF9DP6Y03OYuDnlsODnWNUzCG9VwoYS0zuH0CmbcOlStxburOKEdsRyYJAQl-2FxlGYn8R-2BCw7B8UzGNZPiniAybewpcP-2FgVwLaORhmvwK-2B-2BnXMkaQXUjkvoVJQolmo-3D&gt;</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">  	
  &lt;https://itb.planhub.com/ls/click?upn=u001.qoOKP2ud7LKEbvaBHyz6pyYCB0TcmctpxtiBdUtjVCY-3D-XM0_egAAkx7mlIyUdR5ye7ttPQ-2FDEyPzNwc4yMxS4O9WcFaKNHuLVhXexYGK-2F8WTTof4R2Wb4kueUVzrQ9z9sF9JjjCQhbQX6cHkaFQ7QsEFf1rabwsYJ2Xbg9qPu0lTmzV5PYQbIRC6eKQrzi1X8kP81UPdikOxkY86r2KLt-2F1d0JbLvLxjHkNGPzFq6rBf92h21XHbUlfNnYPq0K7RrYb0S7kjMVA-2FFbq-2BnKGvZGcv9W8cIpt40-2FXNti4q7NHNNexRaNxR7UTYc8RimkMJOFxTdhw00TrfSgyC-2FdI5dcu5nB2Krfz67-2F-2FY8MZ0D46lOZN9joR97QehYIw5N30rCsMF-2FpA1I9t0yGo-2B9vbJGnrtuV0oXBywCXpqlpUfgaw00-2Bl8Rrzd43jgO2RCXpY5tURshaLnQDYHKtS8p5N4RFHN7KLtqHzR-2BljTsFwgt0I76qfyMqbgBna3DUQ93xtsvnSdjA-3D-3D&gt; 	
@@ -1476,24 +2146,24 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Matheson Business Court Buildout  Administrative Office of the Courts  Bid</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Matheson Business Court Buildout Administrative Office of the Courts .</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>**Comprehensive Life Resources Building TI</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351557972&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351557972&amp;sPassportKey=CDD62DA5D7D4CECBD38AD0FBA352E77F908D78AC&amp;sBidId=777782&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351557972&amp;sPassportKey=CDD62DA5D7D4CECBD38AD0FBA352E77F908D78AC&amp;sBidId=777782&amp;st=116&amp;e=1&gt; 
@@ -1521,24 +2191,24 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Matheson Business Court Buildout  Administrative Office of the Courts  Bid</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Matheson Business Court Buildout Administrative Office of the Courts .</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>**Comprehensive Life Resources Building TI</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351557973&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351557973&amp;sPassportKey=526181BFE7FC9971D968509B43B934B677B32655&amp;sBidId=777782&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351557973&amp;sPassportKey=526181BFE7FC9971D968509B43B934B677B32655&amp;sBidId=777782&amp;st=116&amp;e=1&gt; 
@@ -1566,24 +2236,24 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Bid Invite: MANGO At Bellevue Project</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>October 8, 2024?</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>&amp;MANGO At Bellevue Project</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>**&amp;MANGO at Bellevue, Bellevue Square</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/5b980fbb0707b30012d610f9/f39813f4-d2f9-4afb-99bd-a169d585f508_360x360.png?format=auto&amp;rect=2,2,357,357&amp;h=200&amp;w=200&gt; 	
@@ -1611,28 +2281,28 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>FW: Bid Invite: Frontier Middle School Portable Improvements ...</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Pivotal Construction</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 PAUL GEORGESON
@@ -1673,28 +2343,28 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>FW: Bid Invite: Frontier Middle School Portable Improvements ...</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>September 30, 2024?</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Frontier Middle School Portable Improvements</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Pivotal Construction</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 PAUL GEORGESON
@@ -1735,24 +2405,24 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Taylor / West Weber Park District Pavillion Bid Reminder Notice</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>**King County Medical Examiner</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351559493&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351559493&amp;sPassportKey=FA2CDE8E9A6269D3F1FBD9628ABC42F176345BE2&amp;sBidId=778371&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351559493&amp;sPassportKey=FA2CDE8E9A6269D3F1FBD9628ABC42F176345BE2&amp;sBidId=778371&amp;st=116&amp;e=1&gt; 
@@ -1780,24 +2450,24 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Taylor / West Weber Park District Pavillion Bid Reminder Notice</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>&amp;None</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>**King County Medical Examiner</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;https://securecc.smartbidnet.com/External/RequestReadReceipt.aspx?sCommunicationId=1351559492&amp;oimg=1x1pic.gif&gt; 
  &lt;https://securecc.smartbidnet.com/Main/Login.aspx?cId=bp_1351559492&amp;sPassportKey=902616357B5EB6314FC742049B95BB84DCDB1C0F&amp;sBidId=778371&amp;st=101&amp;e=1&gt;  &lt;https://securecc.smartbidnet.com/External/ViewOnDigitalBidBoard.aspx?cId=bp_1351559492&amp;sPassportKey=902616357B5EB6314FC742049B95BB84DCDB1C0F&amp;sBidId=778371&amp;st=116&amp;e=1&gt; 
@@ -1825,28 +2495,28 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Bid Invite: Frontier Middle School Portable Improvements ...</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>October 3, 2024?</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>**Frontier Middle School Portable Improvements</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Pivotal Construction</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">	
  &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 	
@@ -1874,6 +2544,686 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Bid Invite: Frontier Middle School Portable Improvements ...</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>October 3, 2024?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Pivotal Construction</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+ &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 	
+Steven Barci from Pivotal Construction has invited you to bid on
+Frontier Middle School Portable Improvements: Drywall &amp; Framing
+View this RFP &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0519244409972istb&gt; 	
+Already know if Mehrer Drywall will bid on this RFP? Let Steven Barci at Pivotal Construction know:
+Bidding &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0619244409974istbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0619244409974istbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0619244409974istbws?state=UNDECIDED&gt; 	
+Project Details
+Location: 22110 108th Avenue East, Graham, WA 98338, United States of America
+Job Walk: October 3, 2024
+Bid Due: October 4, 2024
+A project consisting of portable improvements for the Bethel School District. Please submit your bids reflecting prevailing wages.
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e0519244409972istb&gt; 	
+Client Details
+ &lt;https://bc-prod.imgix.net/avatars/65c3c1f3c7b98c0059a9fa30/eaf0a2f6-4a0e-431c-8d58-f36ca07c4c59_steven.jpg?format=auto&amp;rect=0,0,1073,1073&amp;h=200&amp;w=200&gt; 		Lead: Steven Barci
+Estimator • +1 425-344-0351 • sbarci@pivotal-gc.com
+ &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 		Pivotal Construction
+Redmond, WA 98052, United States of America 
+According to the BuildingConnected network, Mehrer Drywall performs Drywall &amp; Framing. If this is incorrect please click "Not Bidding", which allows you to choose the option "I don't do Drywall &amp; Framing".
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.oNz-NJgaYDquzd0FtDvrsw.Z6TNrwX05JLVQqJwul1nPxUCIN-PM492QydwBuDTFa9DT9JluJz8xibHE7YvPT_Mi7LXOLu3Ioi162Pj4dbAKQ5dczmSnY50AmSTQiSJ_fmLzF4dfNQKY_2NMK3VEudAZ9m9opKrdwXk8JpSZqzbHKB8mdA-gst0fwWuIuoBRt8dJSh-qs5mv2SPRLYFByJ-ALXfE1E7Jdy2jA1m1h51hT-64zPuMNCHcWZJDS3QH0IRghs4R26WvflUVHEd7Fub9r2E2UnqpvoqB-g5q2KBt1GmdQ2FLMSHZvm45u2aVQefCIhmIzQU_cKh9WmudTsDF__jZd0-qeAYTZsbR0qzbsyvNW4hYKaV0DA4YGwVWOr7espm4nC-N7_pYWsw-p6e_TLU__JYs9JRDVST2Af4vUzVdYJwkKMFvaY9F9yaZayjB7NUzW0WcitCQB1hC7Z-8qcWXdU0AmXFbaHIJI7-5-Y-JwJxZ1hMD_nT7QIFx-7HNRpvn6TuDFX6MluRAUpz9A_7empnJbrvr5rttHttJzqxGScTeoOINNdHqHtcD3Zdnr-i37gPVPdkjbOpszEqmlacIoJHG6EljmiIsR2LRg&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Bid Invite: Frontier Middle School Portable Improvements ...</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>October 3, 2024?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Pivotal Construction</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+ &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 	
+Steven Barci from Pivotal Construction has invited you to bid on
+Frontier Middle School Portable Improvements: Drywall &amp; Framing
+View this RFP &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e1119244409999istb&gt; 	
+Already know if Mehrer Drywall will bid on this RFP? Let Steven Barci at Pivotal Construction know:
+Bidding &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e121924440999cistbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e121924440999cistbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e121924440999cistbws?state=UNDECIDED&gt; 	
+Project Details
+Location: 22110 108th Avenue East, Graham, WA 98338, United States of America
+Job Walk: October 3, 2024
+Bid Due: October 4, 2024
+A project consisting of portable improvements for the Bethel School District. Please submit your bids reflecting prevailing wages.
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf1d15cfbb30046327e1119244409999istb&gt; 	
+Client Details
+ &lt;https://bc-prod.imgix.net/avatars/65c3c1f3c7b98c0059a9fa30/eaf0a2f6-4a0e-431c-8d58-f36ca07c4c59_steven.jpg?format=auto&amp;rect=0,0,1073,1073&amp;h=200&amp;w=200&gt; 		Lead: Steven Barci
+Estimator • +1 425-344-0351 • sbarci@pivotal-gc.com
+ &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 		Pivotal Construction
+Redmond, WA 98052, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.OGd52jWwZN_knk6W85aIpQ.QbI_-42BcXwD2K4DbNGxjiJlcboDBGTKvaFzr55pP5pCf_vpWbM_hklWoWKAmM9lTO1GzH6TxXPT_XVvrRCI9YLymwhLie-Mq98u0TUxDOI26KDmjYcKhclfs4GnQcsztnZ28m45f7qKDbxreJ5_fxYVrcSidNed8UNCMAD9LpKWcQJzaQpridx0FpaSQ4xSHmGFVJiUIOsdibZYXsZnB8PvKPlnP-sM1xinOJbyW2U1btJ9p_l1AOpjBIio02takIkJjOeD6N_9KzzDKXa20W1PsUP5OZRXFGWhulRaFfZZ4xUySX51WNt3jMuYJqHsLyRf_SQzFWAhasS5Ew99sxvqPxVd4_4yB4yiRR8StRmAvLf_dPKVDruCu-OYYghzNOkcgGYQWBuVL8lxtkeCW78Cw8f39PvVZ-WdUkA_ucNb2BCmTpdY7PyJElMmoRsizr55EknHZMPgoDjDMKVjo-wA6rsJu2JHk4RJBnbhbwe0xrmxe8hPh3dijSAx9E9UbmQQTu1iPwCMgRwNkc3X0n56PagiI2k6-z2WvF7X_2_2fxV1etXXHbVHl8xFjh_X7Am-H7zJpbZzDqrRnWyrzQ&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Bid Invite: Frontier Middle School Portable Improvements ...</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>October 3, 2024?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Pivotal Construction</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+ &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 	
+Steven Barci from Pivotal Construction has invited you to bid on
+Frontier Middle School Portable Improvements: Acoustical Ceilings
+View this RFP &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d419244408002istb&gt; 	
+Already know if Mehrer Drywall will bid on this RFP? Let Steven Barci at Pivotal Construction know:
+Bidding &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d519244408004istbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d519244408004istbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d519244408004istbws?state=UNDECIDED&gt; 	
+Project Details
+Location: 22110 108th Avenue East, Graham, WA 98338, United States of America
+Job Walk: October 3, 2024
+Bid Due: October 4, 2024
+A project consisting of portable improvements for the Bethel School District. Please submit your bids reflecting prevailing wages.
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf1ca3b14ba004c35b6d419244408002istb&gt; 	
+Client Details
+ &lt;https://bc-prod.imgix.net/avatars/65c3c1f3c7b98c0059a9fa30/eaf0a2f6-4a0e-431c-8d58-f36ca07c4c59_steven.jpg?format=auto&amp;rect=0,0,1073,1073&amp;h=200&amp;w=200&gt; 		Lead: Steven Barci
+Estimator • +1 425-344-0351 • sbarci@pivotal-gc.com
+ &lt;https://bc-prod.imgix.net/avatars/64358d5cb49067005082c384/094d9a63-a24a-4fe8-84f6-c5aa5f7126ab_Pivotal-Logo-Main -BLKBKGD.png?format=auto&amp;rect=10,0,568,566&amp;h=200&amp;w=200&gt; 		Pivotal Construction
+Redmond, WA 98052, United States of America 
+According to the BuildingConnected network, Mehrer Drywall performs Acoustical Ceilings. If this is incorrect please click "Not Bidding", which allows you to choose the option "I don't do Acoustical Ceilings".
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.HgGeIjtJiEnon0Tm6BXGaQ.wrfIB23N1wqAIdhVKjhIhP3vrbNYYaBoxdgzxP2C6XvD5fUfxDOS2wIvILcEUky6ZFHY67Pce7NPsZPz821ZzoDGT0I9Y3CJdddcDBlHgeKfeSY1_qGpDMWDRWwOQ3Ns5rPTgYjC28Bo0q_uULPn7WqnXNyxjuYSsknnMR0qdA7OsuA-Kc9b5GGcxlEd-gaz5MmoowHL02hckalpu_xa_SAU_WWIiOk3ad6dpV62luN0zDUqkk5YVQVUCB_aW-MSU4BceQaDZVTSVzKPp-GC56IHskfjq6GCEBgVCYZo1ZUoZPikym7HZ7Hj4tt-M3Wq0QaYreWQPIkALUo7-e_HGvgvrB7a1GmPY3RlRxgnScm4sOIoS13NXi4ijpSuneciJXg7GbWAATqraZl129dj1Z_iljkaA4ttpjoOy7YZf50DWndlqN5OPZ8sMHZX9ze5xbFa0ZNKEKvvnKSE6HUmnCx90ftFHgP8udF9bFHtkgiQNV51zkTcTa4ySzPwOX0FcdnK6GIlbAw_xzjL-uyfN109iWAkLXi3WSmQRq3HZ3IC9kFBc0OZKWzn_70UUYC1393G1yvonGmDF1hc1_oPB69gpXugwEugycYz2PCtdBU&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FW: Plan Revision - H&amp;R Block 45708 Seattle, WA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>September 30, 2024?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>H&amp;R Block 45708 Seattle, WA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Horizon Retail</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+________________________________
+From: Tanya Moore (Horizon Retail Construction) &lt;team@buildingconnected.com&gt;
+Sent: Monday, September 30, 2024 11:38:48 AM (UTC-08:00) Pacific Time (US &amp; Canada)
+To: Heather Mehrer &lt;heather@mehrer.com&gt;
+Subject: Plan Revision - H&amp;R Block 45708 Seattle, WA
+ &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
+Tanya Moore of Horizon Retail Construction sent your company a message about
+H&amp;R Block 45708 Seattle, WA: Acoustical Ceilings
+Plan Revision
+ATTN BIDDERS: 
+A plan revision dated 9/11/24 has been uploaded with a revised scope of work.
+Please have revised bids to us by end of business 10/11/24.
+Thank you!
+Tanya Moore
+Project Coordinator
+262-865-6160
+TanyaM@horizonretail.com
+Attachments:
+H&amp;R Block 45708 Seattle, WA- Revised Bid Set 09-11-24.pdf &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c4e192443a5419jmr&gt; 
+H&amp;R Block 45708 Seattle, WA Scope of Work.pdf &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c4e192443a5419jmr&gt; 
+Reply to Tanya &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c4e192443a5419jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/6697d9e31080c9e806239e3f/bid&gt; 	 
+Already know if your company will bid on this RFP? Let Tanya Moore know.
+Bidding &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c55192443a5420jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c55192443a5420jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c55192443a5420jmn?state=UNDECIDED&gt; 	 
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 3238 Northeast 45th Street, Seattle, WA 98105, United States of America
+Bid Due: October 11, 2024
+You are invited to bid the H&amp;R Block 45708 located in Seattle, WA 98105.Please send all correspondence to TanyaM@HorizonRetail.com
+The following trades are required for this ...
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf036f42988003b3f1c4e192443a5419jmr&gt; 	 
+Sender Details
+ &lt;https://bc-prod.imgix.net/avatars/66d8635f9defe0005790d65e/6295b725-72c9-4dfe-a1ef-5e3eaece0525_IMG_8950.JPG?auto=format&amp;rect=0,117,822,822&amp;h=36&amp;w=36&gt; 		Tanya Moore
+tanyam@horizonretail.com
+ &lt;https://bc-prod.imgix.net/avatars/57a49d65877fc80a0011c6fc/f977e346-389b-460a-9879-578da698bb3a_HRC Logo.jpg?auto=format&amp;rect=0,0,665,162&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Horizon Retail Construction
+9999 East Exploration Court, Sturtevant, WI 53177, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.vnZNzMUsoLE7bQ6_n6JNUQ.50eLUTwIFuPE_WZ31FoKm0jGSElbcmXJQvskk7X2sZGBFn38AEGA3AkX4Dobnu40xxr10KAYsAOUvfuhth-laB8DVlVSMfAlNCG1nVkVdOptWrN82V0f2c6VPEGaRBuUknTdqI0x3HzdOSxYfSsraH66R7N0OX8LMttiN0BQk4KKTQS1UbhWs3GD2bNR3ixJsywMi8t6IuNPOJM33m4ZGjm47V9xP5ewZZtwgiXbsPirls88-_94_6qVNf2wqaraKpIr4ypd9qlBEWZzCGVZf3uc_hXiMyeW7PAt4g04Ph_RshTe-h_LzwPMx-er7qbfxaGjXnx9lVbKPwlWH8MHPUFzr8dNav4G03PQKmv0fU8iBiPVgUB5sDLDMTiLUI2r2eiN85HTxFHTmC170r_EfOM-NHY0JeulDgenUEJDfhmkE9-2mhP1AqltATvbKq2PVMaBsZVKFp6U3ngwmMneGUDsgKN8bDLCto9mud_qugTQF5UsRkGWOKZQ4beMnaALYwLvAN05vRFhVPXHkaKW4HjTKTv6I9RBRlS3Dhv3rOVqBdhp24O6WxVa8IK2zId9&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Plan Revision - H&amp;R Block 45708 Seattle, WA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>October 11, 2024?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>H&amp;R Block 45708 Seattle, WA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Horizon Retail</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Tanya Moore of Horizon Retail Construction sent your company a message about
+H&amp;R Block 45708 Seattle, WA: Drywall &amp; Framing
+Plan Revision
+ATTN BIDDERS: 
+A plan revision dated 9/11/24 has been uploaded with a revised scope of work.
+Please have revised bids to us by end of business 10/11/24.
+Thank you!
+Tanya Moore
+Project Coordinator
+262-865-6160
+TanyaM@horizonretail.com
+Attachments:
+H&amp;R Block 45708 Seattle, WA- Revised Bid Set 09-11-24.pdf &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d473192443a303ejmr&gt; 
+H&amp;R Block 45708 Seattle, WA Scope of Work.pdf &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d473192443a303ejmr&gt; 
+Reply to Tanya &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d473192443a303ejmr&gt; 	
+Already know if your company will bid on this RFP? Let Tanya Moore know.
+Bidding &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d47c192443a3047jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d47c192443a3047jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d47c192443a3047jmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 3238 Northeast 45th Street, Seattle, WA 98105, United States of America
+Bid Due: October 11, 2024
+You are invited to bid the H&amp;R Block 45708 located in Seattle, WA 98105.Please send all correspondence to TanyaM@HorizonRetail.com
+The following trades are required for this ...
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66faf02dbbba4c0043e1d473192443a303ejmr&gt; 	
+Sender Details
+ &lt;https://bc-prod.imgix.net/avatars/66d8635f9defe0005790d65e/6295b725-72c9-4dfe-a1ef-5e3eaece0525_IMG_8950.JPG?auto=format&amp;rect=0,117,822,822&amp;h=36&amp;w=36&gt; 		Tanya Moore
+tanyam@horizonretail.com
+ &lt;https://bc-prod.imgix.net/avatars/57a49d65877fc80a0011c6fc/f977e346-389b-460a-9879-578da698bb3a_HRC Logo.jpg?auto=format&amp;rect=0,0,665,162&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Horizon Retail Construction
+9999 East Exploration Court, Sturtevant, WI 53177, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.SJ2P33wUO-bJe82OqrEKzw.bYq41pZfFIMWYHqTGQbLYhhGnvEyUYiwbDF1kJa_Ymi5K1FA7jsMbmHicyWZQ0iO71dxFUtbjJW3W-rDxdkvkdJmsB688Us6g_cVdghO5f_b8burcy-qir4Jpdu-Bq-oHHIIJFOpx-LZfW3AjbGJqhdCjyr8881x2POdmFXgmKx1kiRDl92wiSMZ-eldyvUNaROlGWz-JBQRdD-GbMrH4SoL9LEsFZg4GuzhWSHSkKyt721izAzwvCedBOsLktBNqcFSFO6b6bFR6rS5plWsO0Lc2IkDwg565J9BMmoeIq_NRaMcTlgV0ao8GJ83GMehHbWokvAkNXLcpXG-7kSVjOS7G0d9Po926fgjXGFxne3u45W06DYl0tWcpgcllBADA5WZ8co9t9edujviZF_TRbZg0uA84_AMwLAAiK86ktJ-WlISi0JC7O-tpMBvi_ZJo7wOdTm802WC6NV8StSuR8m4SGb79EDdf8LQyd4fdKGrda1ee_vqeU-83TcQLWvlIzPD6mbkF97WdDmwmBTcCzgVZCoDNTUgllCsNV0juIbQl_uzZe5j8rQJn7LG004j&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Timely Project Evaluations</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>**Anacortes Public Library Young Adults Interior Renovation</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hi,
+For all of your projects, as an estimation firm, we provide accurate and reliable estimates. You and our group of knowledgeable professionals will work together to guarantee that your project is completed on time and under budget. We provide comprehensive estimates that take materials, labor, and other project-related costs into account.
+To assist you in selecting the best options for your project, we also provide guidance and advice.
+Sincerely,                          
+Chloe Woods
+Project Estimator
+(832) 603-4694
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>H&amp;R Block 45708 Seattle, WA (31-24-0313) - New BidPackage Message - 31-24-0313 - H&amp;R Block 45708 Seattle, WA - Plan Revision</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>**H&amp;R Block 45708 Seattle, WA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;https://www.plansandspecs.com/UserFiles/Image/Horizon Retail W INFO.jpg&gt; 
+Bid Message 
+Horizon Retail Construction Inc.
+9999 E Exploration Ct
+Sturtevant, WI 53177
+Phone:(262)638-6000
+Coordinator: Tanya Moore, (262) 865-6160, TanyaM@HorizonRetail.com
+Estimating Contact 
+Mehrer Drywall Inc 
+P. (206)282-4288 
+F.Fax (206)285-2092 
+09260 Metal Stud &amp; Drywall - 
+09510 Accoustical Treatment - 
+Update Bidding Status:
+Will Bid &lt;https://www.plansandspecs.com//go.aspx?ID=5445515&amp;bldata=contact111097%3AAE-2A-30-AE-92-EB-84-16-71-52-57-06-AC-B3-9A-B9&amp;bs=WB&amp;BPRedirect=True&gt;  Will Not Bid &lt;https://www.plansandspecs.com//go.aspx?ID=5445515&amp;bldata=contact111097%3AAE-2A-30-AE-92-EB-84-16-71-52-57-06-AC-B3-9A-B9&amp;bs=NB&amp;BPRedirect=True&gt;  
+To access the project documents without logging in, copy this link to your browser. 
+https://www.plansandspecs.com/short.aspx?id=Km9UHmSu
+All documents are available at the StratusVue site www.PlansandSpecs.com &lt;https://www.plansandspecs.com/&gt; .   Upon login, click "My Bid Packages."
+________________________________
+H&amp;R Block 45708 Seattle, WA 
+3238 NE 45th St, Seattle, WA 98105
+Description:   Plan Revision 
+ATTN BIDDERS:
+A plan revision dated 9/11/24 has been uploaded with a revised scope of work.
+Please have revised bids to us by end of business 10/11/24.
+Thank you!
+Tanya Moore
+Project Coordinator
+262-865-6160
+TanyaM@horizonretail.com 
+If you have any questions, please contact Support@stratusvue.com &lt;mailto:Support@stratusvue.com&gt; or Phone at 847.876.1003 
+ &lt;https://u20078023.ct.sendgrid.net/wf/open?upn=u001.spDNR-2FKC9GeaAXkE0MpLV5eHtv-2FjebF4CnC5oDXp75rO7pfCrzRHtt-2FkR8xbkZ2FhdUSOZaOtyaIZyc5gjiKYDNqGIJomzgJeDE5HArtPPckZtziYNJCR9QpDh3QgpWOR6a-2B-2BY0xpxuULjcGHL0dXQ3Xg60ibgiy138LlpQBbwuti9YWz-2BjhybuVYr-2Ba3vWfZBHRfgdz69PRPjdTqG4gug-3D-3D&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bid Invite - Sterling Oreilly- Lakewood </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>&amp;None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estimating,
+A bidmail invite has been sent, you can also click on the dropbox link for quick access to the bid docs
+Subs bids are due 10/02/24 
+Sterling - Culp RFP Documents
+https://www.dropbox.com/scl/fo/02iitca826haa14xmfdhj/ANwldP70_r3tdgRRQqkGq_4?rlkey=9sl9nesdvucywgw77ivn5wd0z&amp;st=sf53qal3&amp;dl=0 &lt;https://www.dropbox.com/scl/fo/02iitca826haa14xmfdhj/ANwldP70_r3tdgRRQqkGq_4?rlkey=9sl9nesdvucywgw77ivn5wd0z&amp;st=sf53qal3&amp;dl=0&gt; 
+This project is a take over from a General that had not completed scope. Refer to the Plan Mark Up Notes, Work Completed to Date marked up Sheets and the Attic Stock List of what has been procured and or installed. 
+Existing Building: former Go-Kart racing tenant, Costco before that. Proposed Use: Industrial / Warehouse (for future Amazon-type fulfillment center tenant, TBD). Pending / Incomplete Scopes of Work: Site Work (not completely finished by the previous GC). 
+Pending Site Work items include: Complete the Final 4 and 6 Base Course fine grading and compaction prior to asphalt topping and Curb &amp; Gutter installation. New Landscaping and Irrigation. Complete all work in the Right-of-Way. Complete all curb and gutter work. Faade Renovation. 
+Interior Shell Work. PROJECT DOCUMENTATION PROVIDED (please click this link to access): Bid Forms (RFP): Invitation to Bid and Form for General Bid Latest Drawings Sets: Please use the RFI SET of drawings for your bid; this set incorporates some RFIs from the previous GC. Work Completed to Date: Marked-up drawings and narrative by the Project Consultants indicating the scopes of work items completed to date, including Architectural and Civil mark-ups. Attic Stock List: List of equipment that has already been procured, currently being stored inside the building. These items shall not be part of the bid; only their installation / implementation as needed. ALTERNATE 1: A fire suppression system shall be included as an alternate. ALTERNATE 2: The Owner has requested the following items to be bid out and included as an Alternate: 1. Uniform roof insulation throughout. 2. Grade-level loading doors on the north end of the building with access into the yard area (requires relocating some of the landscaping to allow for access). 3. White-wash interior walls and uniform column painting (15 up from floor yellow, white to the roof). 4. Expand width of western facing grade-level loading doors to 14 height. 5. Remove all stains on visible watermarks on existing skylights. 6. Sack and fill exterior concrete wall cracks and re-paint, and re-caulk and seal all concrete tilt-up panel joints using CONFLEX XL(tm) TEXTURED HIGH BUILD ACRYLIC COATING CF12-800 SERIES (or equal). 
+Morgan Schuff PM 949-433-1760
+Rick Dunn Estimator 801-514-4229
+Thank you,
+Kim Hartshorn
+khartshorn@culpco.com &lt;mailto:khartshorn@culpco.com&gt; 
+949-727-3552 Office
+949-323-6181 Cell
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bid Invite - Sterling Oreilly- Lakewood </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>&amp;None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estimating,
+A bidmail invite has been sent, you can also click on the dropbox link for quick access to the bid docs
+Subs bids are due 10/02/24 
+Sterling - Culp RFP Documents
+https://www.dropbox.com/scl/fo/02iitca826haa14xmfdhj/ANwldP70_r3tdgRRQqkGq_4?rlkey=9sl9nesdvucywgw77ivn5wd0z&amp;st=sf53qal3&amp;dl=0 &lt;https://www.dropbox.com/scl/fo/02iitca826haa14xmfdhj/ANwldP70_r3tdgRRQqkGq_4?rlkey=9sl9nesdvucywgw77ivn5wd0z&amp;st=sf53qal3&amp;dl=0&gt; 
+This project is a take over from a General that had not completed scope. Refer to the Plan Mark Up Notes, Work Completed to Date marked up Sheets and the Attic Stock List of what has been procured and or installed. 
+Existing Building: former Go-Kart racing tenant, Costco before that. Proposed Use: Industrial / Warehouse (for future Amazon-type fulfillment center tenant, TBD). Pending / Incomplete Scopes of Work: Site Work (not completely finished by the previous GC). 
+Pending Site Work items include: Complete the Final 4 and 6 Base Course fine grading and compaction prior to asphalt topping and Curb &amp; Gutter installation. New Landscaping and Irrigation. Complete all work in the Right-of-Way. Complete all curb and gutter work. Faade Renovation. 
+Interior Shell Work. PROJECT DOCUMENTATION PROVIDED (please click this link to access): Bid Forms (RFP): Invitation to Bid and Form for General Bid Latest Drawings Sets: Please use the RFI SET of drawings for your bid; this set incorporates some RFIs from the previous GC. Work Completed to Date: Marked-up drawings and narrative by the Project Consultants indicating the scopes of work items completed to date, including Architectural and Civil mark-ups. Attic Stock List: List of equipment that has already been procured, currently being stored inside the building. These items shall not be part of the bid; only their installation / implementation as needed. ALTERNATE 1: A fire suppression system shall be included as an alternate. ALTERNATE 2: The Owner has requested the following items to be bid out and included as an Alternate: 1. Uniform roof insulation throughout. 2. Grade-level loading doors on the north end of the building with access into the yard area (requires relocating some of the landscaping to allow for access). 3. White-wash interior walls and uniform column painting (15 up from floor yellow, white to the roof). 4. Expand width of western facing grade-level loading doors to 14 height. 5. Remove all stains on visible watermarks on existing skylights. 6. Sack and fill exterior concrete wall cracks and re-paint, and re-caulk and seal all concrete tilt-up panel joints using CONFLEX XL(tm) TEXTURED HIGH BUILD ACRYLIC COATING CF12-800 SERIES (or equal). 
+Morgan Schuff PM 949-433-1760
+Rick Dunn Estimator 801-514-4229
+Thank you,
+Kim Hartshorn
+khartshorn@culpco.com &lt;mailto:khartshorn@culpco.com&gt; 
+949-727-3552 Office
+949-323-6181 Cell
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Bid Invite: KCME Office - CT Scanner Room Remodel Project</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Deacon Construction, LLC</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+ &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
+Steven Fields from Deacon Construction, LLC has invited you to bid on
+KCME Office - CT Scanner Room Remodel
+View the RFP for Metal Framing &amp; GWB » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f6192442a1632istb&gt; 
+View the RFP for Acoustical Ceilings » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f7192442a1635istb&gt; 
+View the RFP for Painting » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f8192442a1637istb&gt; 
+Already know if Mehrer Drywall will bid on this RFP? Let Steven Fields at Deacon Construction, LLC know:
+Bidding &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f9192442a163bistbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f9192442a163bistbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5f9192442a163bistbws?state=UNDECIDED&gt; 	
+Project Details
+Location: 908 Jefferson Street, Level 2, Seattle, WA 98104, United States of America
+Expand existing X-ray room in the King County Medical Examiner's office for CT Scanner and Associated Equipment.
+Please send all bids to steven.fields@deacon.com
+Client Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Lead: Steven Fields
+steven.fields@deacon.com
+ &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 		Deacon Construction, LLC
+8343 154th Ave NE #210, Redmond, WA 98052, USA 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.UZX1AfDQ7Bnh0cepIAHM7w.dzsapuoUsuR4VAS3p9i1CFJExjo-Of-7VdSPHOR5gUikYppsY6Lgk69peJBzeUaI4lcDUzNDUVONmE49tr7iGEJNavZ-GqE7BJSxuS8f_es0Fmd576Sf77fqystmfbgpP90mvc9hdDSELywCjmwvv32AdOp7MjRuPEQLBWIsug20R2pxDs_QKo_FldCuatCZqvoVXUojhBh4bn4pR8XhOInaGx_aKmkJ54imLSCqUZa3JbWpiiAzWigSUHrg5pR84n6ILRQu7N8uD6HCHEOvX8zzJlYHvJJsdbvc4cEvmp8xnDAgT4GJN2nj7Pvzz1JZZu-TZioBAfOuUVqPNvKwnGOLHD3bIf4ycJaIon5KTaJYps9KixQEcSIAOm0t6TjwfnJGmoE7dUEyJJBFHfAOwf9u13kZzNHDH1GHwio5jaQtxXYmggmHwdWagvx_HDc0GWvIsvE9-AHyELMtLVU03l21A37gwHg8BLxRY5Wz-DUobI3Vmh8hHNFgOjniV2W4txhzcEsYrRcj7RTjpC-hDgI5MasECwWrLueVy0oMJ5zJSsXwhP475FrmCl4x2wf3icCpOW6wHExRG6cSvwv-RhsZqC3ZnIpkt5EboUTSHVo&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Bid Invite: KCME Office - CT Scanner Room Remodel Project</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>**&amp;None</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Deacon Construction, LLC</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+ &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 	
+Steven Fields from Deacon Construction, LLC has invited you to bid on
+KCME Office - CT Scanner Room Remodel
+View the RFP for Metal Framing &amp; GWB » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5fd192442a1648istb&gt; 
+View the RFP for Acoustical Ceilings » &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5fe192442a164bistb&gt; 
+Already know if Mehrer Drywall will bid on this RFP? Let Steven Fields at Deacon Construction, LLC know:
+Bidding &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5ff192442a164distbws?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5ff192442a164distbws?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66faec0d3b14ba004c34f5ff192442a164distbws?state=UNDECIDED&gt; 	
+Project Details
+Location: 908 Jefferson Street, Level 2, Seattle, WA 98104, United States of America
+Expand existing X-ray room in the King County Medical Examiner's office for CT Scanner and Associated Equipment.
+Please send all bids to steven.fields@deacon.com
+Client Details
+ &lt;https://d2w27agad0eft.cloudfront.net/email/default-user.png&gt; 		Lead: Steven Fields
+steven.fields@deacon.com
+ &lt;https://bc-prod.imgix.net/avatars/53fb98909015670700f2f168/2e745e42-6ec2-4255-9257-7c2783c0c86e_Deacon-logo-blue.jpg?auto=format&amp;rect=0,0,1200,264&amp;fit=fill&amp;bg=fff&amp;h=200&amp;w=200&gt; 		Deacon Construction, LLC
+8343 154th Ave NE #210, Redmond, WA 98052, USA 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.I6CgoJ_Tz1W6aLvUWgHTUA.RGe1iGrDcdj1zZVsU8QLV07z0XUgxOEjgNfrOXQzZuq92BCswnGGHeGZyoqh-iaB117tfNBAOf7MznrDYOpCcPyHlggbcU7pekZDW2mkUlsEaNFkWJzEbt1JGJONKbaLVlyN97JuYONZu40b6m_IBxOfrD81xBeF8Twj9z5IhlotbZSEewYK8yMY0_qKTk47XoOYBJA30Hsuhzpdz5jnIrZfBK-mgLESWhuGHfGAsQA6nD6ji4YcBM0cNBg3QuQzeFhFgHp95h4fl-vNMmdEVzfVjFWIBuDPucIGG2TxNOP0gPTW9TZCRWuebI8bBNdKsjqW7zYqJyF2Zf8RJ111wQJecQGJQGn4UVqyuFX7568LwssZ1KdV0_mBFqyPWj5BlzU1SS7yDhsYo5pzP6QBUcXyqOaduiMI9Nil4vrGGl_yatzvZyCTtsMpRKHacp6NpzmLi-Fy2oVwMbTZk8c_uKQekpwuQi009ui3_6HRDDjqCXSMo6QZFzzy_hj4_os5rO7V1k-FKkPGWwpGE8FLF7NlvzvMZRChqlkxEMVEM06ldQqR0Wv2jTpV7e3toX96Ah6jyofcy-YmZEBryfoVFw&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>** Addendum 5 Additional Documents ** - Sno-Isl Lake Stev...</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>October 4, 2024?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sno-Isl Lake Stevens Library</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Michael Kopson of Swinerton Builders sent your company a message about
+Sno-Isl Lake Stevens Library: Painting
+** Addendum 5 Additional Documents **
+All,
+Please see additional addendum 5 documents, also available in the files tab:
+*	Drawings
+*	Specifications
+*	Substitution Requests
+Thank you,
+Swinerton Project Team
+Attachments:
+Addendum 5.3 LAK Lake Stevens Library Project -Drawings.pdf &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt; 
+Addendum 5.2 LAK Lake Stevens Library Project -Specifications.pdf &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt; 
+Addendum 5.1 LAK Lake Stevens Library Project -Substitution Requests.pdf &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt; 
+Reply to Michael &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66d78abb17ced3a85e552ab3/bid&gt; 	
+Already know if your company will bid on this RFP? Let Michael Kopson know.
+Bidding &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a62d192441c2561jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a62d192441c2561jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a62d192441c2561jmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 128 99th Avenue Northeast, Lake Stevens, WA 98258, United States of America
+Bid Due: October 4, 2024
+Prevailing Wage Rates
+Apprentice Requirements 
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66fae87c5c58f00035c6a627192441c2536jmr&gt; 	
+Sender Details
+ &lt;https://bc-prod.imgix.net/avatars/5bcf8fab2b722a002cdf85a8/889b7984-4a4e-4bde-adde-51b9277ad7ef_Kopson_Mike.jpg?auto=format&amp;rect=313,503,1900,1902&amp;h=36&amp;w=36&gt; 		Michael Kopson
+Senior Estimator • +1 425-458-7747 • +1 425-229-5098 • mkopson@swinerton.com
+ &lt;https://bc-prod.imgix.net/avatars/58e3ad316d95ab0b00b236bc/7aa7ba6b-8b41-487b-894f-d54474a65a72_New Swin Logo.PNG?auto=format&amp;rect=0,0,176,120&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Swinerton Builders
+170 120th Ave NE, Suite 100, Bellevue, WA 98005, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.b1pGhBJxv0WrNC0z2izDgQ.87oGq3TPLaoxLTj0K_Ws-MgwTbrxeinYV554AUvOeWBkxYRZBGBD1BkNV0jBDqgZxIocFb3c5QhghUmSyNtewNRrntIYGfSa_VeLSjECh0_4FeFeBkgz69ttsm9fKYmVEu6Pw6MxvhpxDXIeluH22ausi8l6Wfjp2ctlkeybZOYoPr_bebDo3eXeSTkZ1679n05GIFZk3h9oXvUa0ML_Rq-7AH5PB7lWEDrgtszX40mg2anCf8iJwX-j5iHjwtj0pMSLi5iZEBllV1YPOx18XukdT0cgw3JzIL6ZbEe-xIMH4xoszKlXIniGRL8chnjPgfM1-OFb_HkO0h-KLwGqFqpQWk3ChpURhYP9Vp8zUs9uV0zOPGuNAWDoW9yaN5TnoR8vQtDNXEjGn6Fr7OPD7QOBOFUquogfroDIhF-VKWNJFn967CaRQwm_g8XEqnYk7q2X8GtOCgOX6EwGEbhg-hwqWEm6KtPLcDbYKXNtX34DQ1vPVJ6JVWX7U8IbuI-nPbE06-5fsmcVAvED47PhJRMONvawwv617h64VCsKtxUWEd2Aud8YADEb-tTmTqbv&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FW: ** Addendum 5 Additional Documents ** - Sno-Isl Lake Stev...</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>September 30, 2024?</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sno-Isl Lake Stevens Library</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+________________________________
+From: Michael Kopson (Swinerton Builders) &lt;team@buildingconnected.com&gt;
+Sent: Monday, September 30, 2024 11:05:40 AM (UTC-08:00) Pacific Time (US &amp; Canada)
+To: Heather Mehrer &lt;heather@mehrer.com&gt;
+Subject: ** Addendum 5 Additional Documents ** - Sno-Isl Lake Stev...
+ &lt;https://d2w27agad0eft.cloudfront.net/email/bc-logo.png&gt; 	
+Michael Kopson of Swinerton Builders sent your company a message about
+Sno-Isl Lake Stevens Library: Wall Panels
+** Addendum 5 Additional Documents **
+All,
+Please see additional addendum 5 documents, also available in the files tab:
+*	Drawings
+*	Specifications
+*	Substitution Requests
+Thank you,
+Swinerton Project Team
+Attachments:
+Addendum 5.3 LAK Lake Stevens Library Project -Drawings.pdf &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt; 
+Addendum 5.2 LAK Lake Stevens Library Project -Specifications.pdf &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt; 
+Addendum 5.1 LAK Lake Stevens Library Project -Substitution Requests.pdf &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt; 
+Reply to Michael &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt;  Send Bid &lt;https://app.buildingconnected.com/rfps/66d78a56c56d14a1bc0ed0bb/bid&gt; 	 
+Already know if your company will bid on this RFP? Let Michael Kopson know.
+Bidding &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199c7192441bf7dcjmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199c7192441bf7dcjmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199c7192441bf7dcjmn?state=UNDECIDED&gt; 	 
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 128 99th Avenue Northeast, Lake Stevens, WA 98258, United States of America
+Bid Due: October 4, 2024
+Prevailing Wage Rates
+Apprentice Requirements 
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66fae870095b29003bd199be192441bf7d2jmr&gt; 	 
+Sender Details
+ &lt;https://bc-prod.imgix.net/avatars/5bcf8fab2b722a002cdf85a8/889b7984-4a4e-4bde-adde-51b9277ad7ef_Kopson_Mike.jpg?auto=format&amp;rect=313,503,1900,1902&amp;h=36&amp;w=36&gt; 		Michael Kopson
+Senior Estimator • +1 425-458-7747 • +1 425-229-5098 • mkopson@swinerton.com
+ &lt;https://bc-prod.imgix.net/avatars/58e3ad316d95ab0b00b236bc/7aa7ba6b-8b41-487b-894f-d54474a65a72_New Swin Logo.PNG?auto=format&amp;rect=0,0,176,120&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Swinerton Builders
+170 120th Ave NE, Suite 100, Bellevue, WA 98005, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.1qTilOawV00o9fRroIBgaA.AhP_Y7_gce2Rt5ZVxRuuo5j5aEwGBT24cgNPCMh6c-3u3zvFcPAs7ObDBz_2FAuGflryBmiCKxHtTeXZoOWi6Dx-N_I-iMh1RvhvqaOfrMENNtOBEGAJ8IBY0bc9ejW_ONjgMgbbNfMl1qOETiG_p8rxo1usB6Mk3s5gg-hdSxT1wrl4Hz7QWW3DMHRshHJaJWnGGLHaBKDFGcrVUBVQsdZtxkLTNZQ9z5iqTMETvHWzBjKqRrc4ZvohJJm0VG-XfLHk6lahg7mGFgJ-t1Wxaq6oHBe-N3CzzQl7dSbh497LgxzhhFyTYfadxqO5KTbVAov4d_4zdVgi9rcIk8z5ZVI_MCoCKPLbg9yzndWObq3FKn2Yt94dqNLkeXvR-H77kjetHucmDqRw0VSAljZDwpZAl6zk37S-qiO9WKcT3Sibg1bBhQW6iMXwHWjmQm1F6OK3SLJyksAkfJ-PH0Kb1t7R6V0brNAznDY_eimen62L3x3o2jo9Bm07XSieDjMWkIfazDFjqQXoJevhWZSk1EMKHu5FTdOPTBH08o6fA-vndX9MA_YhsRohNAT2n675&gt; </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>** Addendum 5 Additional Documents ** - Sno-Isl Lake Stev...</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>October 4, 2024?</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sno-Isl Lake Stevens Library</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	
+Michael Kopson of Swinerton Builders sent your company a message about
+Sno-Isl Lake Stevens Library: ACT
+** Addendum 5 Additional Documents **
+All,
+Please see additional addendum 5 documents, also available in the files tab:
+*	Drawings
+*	Specifications
+*	Substitution Requests
+Thank you,
+Swinerton Project Team
+Attachments:
+Addendum 5.3 LAK Lake Stevens Library Project -Drawings.pdf &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 
+Addendum 5.2 LAK Lake Stevens Library Project -Specifications.pdf &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 
+Addendum 5.1 LAK Lake Stevens Library Project -Substitution Requests.pdf &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 
+Reply to Michael &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 	
+Already know if your company will bid on this RFP? Let Michael Kopson know.
+Bidding &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a45192441b6266jmn?state=BIDDING&gt;  Not Bidding &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a45192441b6266jmn?state=NOT_BIDDING&gt;  Not Sure &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a45192441b6266jmn?state=UNDECIDED&gt; 	
+You will no longer receive messages for this bid package if you select Not Bidding above
+Project Details
+Location: 128 99th Avenue Northeast, Lake Stevens, WA 98258, United States of America
+Bid Due: October 4, 2024
+Prevailing Wage Rates
+Apprentice Requirements 
+View all files and project details » &lt;https://app.buildingconnected.com/goto/66fae84aee48340046085a3d192441b624bjmr&gt; 	
+Sender Details
+ &lt;https://bc-prod.imgix.net/avatars/5bcf8fab2b722a002cdf85a8/889b7984-4a4e-4bde-adde-51b9277ad7ef_Kopson_Mike.jpg?auto=format&amp;rect=313,503,1900,1902&amp;h=36&amp;w=36&gt; 		Michael Kopson
+Senior Estimator • +1 425-458-7747 • +1 425-229-5098 • mkopson@swinerton.com
+ &lt;https://bc-prod.imgix.net/avatars/58e3ad316d95ab0b00b236bc/7aa7ba6b-8b41-487b-894f-d54474a65a72_New Swin Logo.PNG?auto=format&amp;rect=0,0,176,120&amp;fit=fill&amp;bg=fff&amp;h=36&amp;w=36&gt; 		Swinerton Builders
+170 120th Ave NE, Suite 100, Bellevue, WA 98005, United States of America 
+www.buildingconnected.com &lt;http://www.buildingconnected.com&gt;  Click here for help &lt;https://buildingconnected.zendesk.com/hc/en-us?solvvy=true&gt; 
+© Copyright 2024 BuildingConnected.com. All Rights Reserved.
+925 Mission St, San Francisco, CA 94103
+ &lt;https://ea.pstmrk.it/open?m=v3_1.gF7erzjPQNwcgZc7q-XXNw.9mS8yPlXPSIm8hkhqt70Ks-tue-JWWiQ3xHAunGsoJhSrIksH3MON8dsdQ1gj8BILeVjvUyO5x-YsmzG1jkosJ43XArcajYetFV1JDP2vtyCBgzTHOjD4dgH5Huu4UCLWlbadL1HcP5JY2XgEVGzmonhWdXhyn-D0b_GL5Utw3arKUO4DRvd_03o2W-DFnOh-7gR_EXSW3FS9Jo8akVo3ZmVOST3BM-Q0KEVYCRJitO5mP9JG9phz-lRJQIJq6mc3zfyc0XHP72QHN3x58o7sHbtiIBe057G53clEq_V0OjJUKYl6c_LuKTpUYFENDBuwdFgW8UhII5X91tfGgHePbI9ogKDuH815eDvNBWT73z8MNmkQD6adxy9J5xXRvcm6QcVJFvOrL4FsaO2g51JD8mOanEqPWSkgKm6lyJF4Ha4Yen05kqhvtMUWjUcsTdIyMHBWBMhkst8cU-sNZOMEr8qp6Gd3j_cs0M8wMNR8F-LsYYBZlrOE3TvWeFpBgfVvaO1q_zdwzt4EKEIPkcSYFYEoomN-RSAG4cC5xcvyhTd93aeLahPnFwpF4VGTzYa&gt; </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bid_requests_calendar_new.xlsx
+++ b/bid_requests_calendar_new.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bid Requests" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bid Requests" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,351 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Contractor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Bid Due Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>New Start Center - Everett: Drywall &amp; Framing</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Deacon Construction, LLC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>October 28, 2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Addendum 1 and 2 Uploaded - New Start Center - Everett</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WBWRF BP#1 - Comms Room Buildout</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hoffman Construction</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>October 24, 2024 02:00 PM (MT)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>WBWRF BP#1 - Comms Room Buildout Addendum A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Shim Orthodontics - Tenant Improvement</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Omega General Contractors</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10/30/2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FW: Shim Orthodontics - Tenant Improvement - RFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fire Station No. 82, Oak Harbor, Wa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>P &amp; L General Contractors, Inc.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10/25/2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FW: Invitation to Bid _ Fire Station No. 82, Oak Harbor, Wa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Capital One Cafe- Southcenter Mall- Tukwila, WA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Construction One</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Thursday, October 24th, 2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FW: Capital One Cafe- Southcenter Mall- Tukwila, WA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lovesac – Kirkland, WA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elder-Jones, Inc.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>October 18, 2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bid Due Today - Lovesac - Kirkland, WA - Lovesac - Kirkla...</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lovesac – Kirkland, WA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elder-Jones, Inc.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>October 18, 2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bid Due Today - Lovesac - Kirkland, WA - Lovesac - Kirkla...</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Local SEO Services</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nayra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Re : Proposal for SEO at $150/m</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mass Timber Construction Summit</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mass Timber Construction Summit Vancouver Canada April 2025-Premailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mass Timber Construction Summit</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mass Timber Construction Summit Vancouver Canada April 2025-Premailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mehrer Drywall, Inc.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10/18/24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BidScope Summary - 10/18/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mehrer Drywall, Inc.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10/18/24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BidScope Summary - 10/18/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Search beyond your files with Dropbox Dash</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Walmart Remodel #4664-1001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ESI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not specified in the email.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NEGOTIATED Walmart Remodel #4664-1001 Conway, SC ESI ITB Database Notificat</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Walmart Remodel #4664-1001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ESI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not specified in the email.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NEGOTIATED Walmart Remodel #4664-1001 Conway, SC ESI ITB Database Notificat</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>